--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Promantus\git\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0564072-0881-4DA2-B77F-993CB5080378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F5809C-8F70-4DAD-B54B-B7DDA945BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
+    <sheet name="Faculty" sheetId="7" r:id="rId3"/>
+    <sheet name="V2Project" sheetId="3" r:id="rId4"/>
+    <sheet name="exam" sheetId="6" r:id="rId5"/>
+    <sheet name="Hsr" sheetId="4" r:id="rId6"/>
+    <sheet name="Wpr" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>UserName</t>
   </si>
@@ -58,148 +63,106 @@
     <t>OrgIndustry</t>
   </si>
   <si>
-    <t>Packing &amp; Shipping</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1715570</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2228462</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1967170</t>
-  </si>
-  <si>
-    <t>Medical Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2620072</t>
-  </si>
-  <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5634494</t>
-  </si>
-  <si>
-    <t>Multifamily Housing (market rate)</t>
-  </si>
-  <si>
-    <t>Automation portfolio 7909732</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Automation portfolio 634910</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3448560</t>
-  </si>
-  <si>
-    <t>Affordable Housing</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5662475</t>
-  </si>
-  <si>
-    <t>Investment Services</t>
-  </si>
-  <si>
-    <t>Automation portfolio 941518</t>
-  </si>
-  <si>
-    <t>Travel Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6983211</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2762201</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>Automation portfolio 269831</t>
-  </si>
-  <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>Automation portfolio 543252</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4912993</t>
-  </si>
-  <si>
-    <t>Energy Production</t>
-  </si>
-  <si>
-    <t>Automation portfolio 571586</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>Automation portfolio 7466534</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4076636</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2873100</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2353978</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1955855</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6852301</t>
-  </si>
-  <si>
-    <t>Materials &amp; Chemicals</t>
-  </si>
-  <si>
-    <t>Automation portfolio 410931</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6513800</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1205735</t>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>hsrId</t>
+  </si>
+  <si>
+    <t>hsrName</t>
   </si>
   <si>
     <t>Restaurant</t>
   </si>
   <si>
-    <t>Automation portfolio 2131913</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 707334</t>
+    <t>Automation portfolio 3036770</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>Automation Project4253865</t>
+  </si>
+  <si>
+    <t>2202263557</t>
+  </si>
+  <si>
+    <t>Automation Project5647617</t>
+  </si>
+  <si>
+    <t>2202263660</t>
+  </si>
+  <si>
+    <t>Automation Project1358995</t>
+  </si>
+  <si>
+    <t>2202263699</t>
+  </si>
+  <si>
+    <t>Automation Project5652127</t>
+  </si>
+  <si>
+    <t>2202263700</t>
+  </si>
+  <si>
+    <t>Automation Project3317483</t>
+  </si>
+  <si>
+    <t>2202263701</t>
+  </si>
+  <si>
+    <t>Automation Project7786158</t>
+  </si>
+  <si>
+    <t>2202263702</t>
+  </si>
+  <si>
+    <t>Automation Project864000</t>
+  </si>
+  <si>
+    <t>2202263703</t>
+  </si>
+  <si>
+    <t>Automation Project1664091</t>
+  </si>
+  <si>
+    <t>2202263704</t>
+  </si>
+  <si>
+    <t>Automation Project4468000</t>
+  </si>
+  <si>
+    <t>2202263709</t>
+  </si>
+  <si>
+    <t>Automation Project4318943</t>
+  </si>
+  <si>
+    <t>2202263744</t>
+  </si>
+  <si>
+    <t>Automation Project1233869</t>
+  </si>
+  <si>
+    <t>2202263745</t>
   </si>
 </sst>
 </file>
@@ -245,9 +208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,13 +499,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -552,12 +516,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -568,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -585,18 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -604,12 +568,211 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>UserName</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>2202263745</t>
+  </si>
+  <si>
+    <t>Automation Project7666947</t>
+  </si>
+  <si>
+    <t>2202263747</t>
   </si>
 </sst>
 </file>
@@ -646,10 +652,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>UserName</t>
   </si>
@@ -169,6 +169,72 @@
   </si>
   <si>
     <t>2202263747</t>
+  </si>
+  <si>
+    <t>Automation Project4567295</t>
+  </si>
+  <si>
+    <t>2202263922</t>
+  </si>
+  <si>
+    <t>Automation Project4656503</t>
+  </si>
+  <si>
+    <t>2202263923</t>
+  </si>
+  <si>
+    <t>Automation Project2480116</t>
+  </si>
+  <si>
+    <t>2202263924</t>
+  </si>
+  <si>
+    <t>Automation Project3668526</t>
+  </si>
+  <si>
+    <t>2202263925</t>
+  </si>
+  <si>
+    <t>Automation Project7633922</t>
+  </si>
+  <si>
+    <t>2202263926</t>
+  </si>
+  <si>
+    <t>Automation Project7150900</t>
+  </si>
+  <si>
+    <t>2202263927</t>
+  </si>
+  <si>
+    <t>Automation Project6766091</t>
+  </si>
+  <si>
+    <t>2202263928</t>
+  </si>
+  <si>
+    <t>Automation Project1329535</t>
+  </si>
+  <si>
+    <t>2202263929</t>
+  </si>
+  <si>
+    <t>Automation Project5935403</t>
+  </si>
+  <si>
+    <t>2202263933</t>
+  </si>
+  <si>
+    <t>Automation Project5019295</t>
+  </si>
+  <si>
+    <t>2202263935</t>
+  </si>
+  <si>
+    <t>Automation Project1101378</t>
+  </si>
+  <si>
+    <t>2202263938</t>
   </si>
 </sst>
 </file>
@@ -652,10 +718,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>UserName</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>2202263747</t>
+  </si>
+  <si>
+    <t>Automation Project4130916</t>
+  </si>
+  <si>
+    <t>2202263981</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Building Services</t>
   </si>
 </sst>
 </file>
@@ -652,10 +664,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -713,7 +725,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +747,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Promantus\git\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F5809C-8F70-4DAD-B54B-B7DDA945BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A545E418-B098-41D1-B4BB-F11ECC4DDF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -90,97 +90,28 @@
     <t>hsrName</t>
   </si>
   <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
     <t>Automation portfolio 3036770</t>
   </si>
   <si>
     <t>REIT</t>
   </si>
   <si>
-    <t>Automation Project4253865</t>
-  </si>
-  <si>
-    <t>2202263557</t>
-  </si>
-  <si>
-    <t>Automation Project5647617</t>
-  </si>
-  <si>
-    <t>2202263660</t>
-  </si>
-  <si>
-    <t>Automation Project1358995</t>
-  </si>
-  <si>
-    <t>2202263699</t>
-  </si>
-  <si>
-    <t>Automation Project5652127</t>
-  </si>
-  <si>
-    <t>2202263700</t>
-  </si>
-  <si>
-    <t>Automation Project3317483</t>
-  </si>
-  <si>
-    <t>2202263701</t>
-  </si>
-  <si>
-    <t>Automation Project7786158</t>
-  </si>
-  <si>
-    <t>2202263702</t>
-  </si>
-  <si>
-    <t>Automation Project864000</t>
-  </si>
-  <si>
-    <t>2202263703</t>
-  </si>
-  <si>
-    <t>Automation Project1664091</t>
-  </si>
-  <si>
-    <t>2202263704</t>
-  </si>
-  <si>
-    <t>Automation Project4468000</t>
-  </si>
-  <si>
-    <t>2202263709</t>
-  </si>
-  <si>
-    <t>Automation Project4318943</t>
-  </si>
-  <si>
-    <t>2202263744</t>
-  </si>
-  <si>
-    <t>Automation Project1233869</t>
-  </si>
-  <si>
-    <t>2202263745</t>
-  </si>
-  <si>
-    <t>Automation Project7666947</t>
-  </si>
-  <si>
-    <t>2202263747</t>
-  </si>
-  <si>
     <t>Automation Project4130916</t>
   </si>
   <si>
     <t>2202263981</t>
   </si>
   <si>
-    <t>Utilities</t>
+    <t>Student Housing</t>
   </si>
   <si>
     <t>Building Services</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Materials &amp; Chemicals</t>
   </si>
 </sst>
 </file>
@@ -588,10 +519,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -634,14 +565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -664,10 +595,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -719,17 +650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -746,8 +678,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Materials &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>Automation Project4039666</t>
+  </si>
+  <si>
+    <t>2202264106</t>
   </si>
 </sst>
 </file>
@@ -571,8 +577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -595,10 +601,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A545E418-B098-41D1-B4BB-F11ECC4DDF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D761F58-6F0A-462F-91AE-95AE8DE78820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -96,35 +96,22 @@
     <t>REIT</t>
   </si>
   <si>
-    <t>Automation Project4130916</t>
-  </si>
-  <si>
     <t>2202263981</t>
   </si>
   <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
     <t>Materials &amp; Chemicals</t>
   </si>
   <si>
     <t>Automation Project4039666</t>
   </si>
   <si>
-    <t>2202264106</t>
+    <t>2202264272</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,10 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,13 +442,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -471,12 +459,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -487,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -502,20 +490,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -523,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -544,9 +532,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -554,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -571,18 +559,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -599,12 +587,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -629,9 +617,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -639,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -656,17 +644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="1" max="1" width="22.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -683,12 +671,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -710,12 +698,12 @@
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -726,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>14</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D761F58-6F0A-462F-91AE-95AE8DE78820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C927D-E6AF-457D-AD09-E760961156AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Automation Project4039666</t>
   </si>
   <si>
-    <t>2202264272</t>
+    <t>2202264093</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A545E418-B098-41D1-B4BB-F11ECC4DDF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FFE1D-5FF0-415D-9AE6-ACD6DD145B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -102,16 +102,25 @@
     <t>2202263981</t>
   </si>
   <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Materials &amp; Chemicals</t>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>HSRP005812</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>HSRP005814</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HSRP005815</t>
+  </si>
+  <si>
+    <t>HSRP005816</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,12 +660,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -679,10 +688,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FFE1D-5FF0-415D-9AE6-ACD6DD145B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F47FF3B-715C-4FF2-A71A-F764B7D990B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -102,22 +102,7 @@
     <t>2202263981</t>
   </si>
   <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>HSRP005812</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>HSRP005814</t>
-  </si>
-  <si>
     <t>HR</t>
-  </si>
-  <si>
-    <t>HSRP005815</t>
   </si>
   <si>
     <t>HSRP005816</t>
@@ -127,7 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,17 +437,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -474,12 +458,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -498,6 +488,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{43D3BAED-1C30-441C-B066-D3EF445DFD9B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B695A5E1-5DC3-45E6-A0C9-5E6DE6762EA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -505,20 +496,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -526,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -547,9 +538,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -557,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -578,14 +569,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,7 +593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -632,9 +623,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -642,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -659,17 +650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -686,12 +677,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -713,12 +704,12 @@
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>14</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F47FF3B-715C-4FF2-A71A-F764B7D990B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23371419-130F-4F18-9C80-F85E998FD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>HSRP005816</t>
+  </si>
+  <si>
+    <t>testuserdevid@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23371419-130F-4F18-9C80-F85E998FD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DAE2-EA9D-458C-8F28-BEB43204ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>UserName</t>
   </si>
@@ -109,12 +109,34 @@
   </si>
   <si>
     <t>testuserdevid@gmail.com</t>
+  </si>
+  <si>
+    <t>wprId</t>
+  </si>
+  <si>
+    <t>Automation Project959603</t>
+  </si>
+  <si>
+    <t>WPR005820</t>
+  </si>
+  <si>
+    <t>Automation Project5666222</t>
+  </si>
+  <si>
+    <t>WPR005830</t>
+  </si>
+  <si>
+    <t>Automation Project7619197</t>
+  </si>
+  <si>
+    <t>WPR005831</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,17 +462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -461,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -472,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -499,20 +521,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -541,9 +563,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -551,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -572,14 +594,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -596,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -626,9 +648,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -636,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -657,13 +679,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -680,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -701,33 +723,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DAE2-EA9D-458C-8F28-BEB43204ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14518C3F-AE38-497A-AA4E-6EBE013880A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -112,18 +112,6 @@
   </si>
   <si>
     <t>wprId</t>
-  </si>
-  <si>
-    <t>Automation Project959603</t>
-  </si>
-  <si>
-    <t>WPR005820</t>
-  </si>
-  <si>
-    <t>Automation Project5666222</t>
-  </si>
-  <si>
-    <t>WPR005830</t>
   </si>
   <si>
     <t>Automation Project7619197</t>
@@ -136,7 +124,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,13 +453,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -483,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -494,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -505,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -521,20 +508,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -542,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -563,9 +550,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -573,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -594,14 +581,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -648,9 +635,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -679,13 +666,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -702,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -726,16 +713,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -749,12 +736,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>UserName</t>
   </si>
@@ -118,12 +118,22 @@
   </si>
   <si>
     <t>WPR005831</t>
+  </si>
+  <si>
+    <t>Automation Project6685410</t>
+  </si>
+  <si>
+    <t>Automation Project7121649</t>
+  </si>
+  <si>
+    <t>2202264680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,8 +465,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,7 +518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -516,9 +526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,9 +593,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,10 +617,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -668,8 +678,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,8 +728,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DAE2-EA9D-458C-8F28-BEB43204ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8096A-46E3-485B-A741-260275310364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
     <sheet name="Faculty" sheetId="7" r:id="rId3"/>
     <sheet name="V2Project" sheetId="3" r:id="rId4"/>
-    <sheet name="exam" sheetId="6" r:id="rId5"/>
+    <sheet name="Exam" sheetId="6" r:id="rId5"/>
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -114,22 +114,22 @@
     <t>wprId</t>
   </si>
   <si>
-    <t>Automation Project959603</t>
-  </si>
-  <si>
-    <t>WPR005820</t>
-  </si>
-  <si>
-    <t>Automation Project5666222</t>
-  </si>
-  <si>
-    <t>WPR005830</t>
-  </si>
-  <si>
     <t>Automation Project7619197</t>
   </si>
   <si>
     <t>WPR005831</t>
+  </si>
+  <si>
+    <t>examId</t>
+  </si>
+  <si>
+    <t>w632312b4cfed5</t>
+  </si>
+  <si>
+    <t>w632318ac4c9b1</t>
+  </si>
+  <si>
+    <t>w632319fa76265</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
+      <name val="Museo-sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,10 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,13 +472,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -483,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -494,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -505,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -527,14 +533,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -542,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -563,9 +569,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -573,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -594,14 +600,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -642,32 +648,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.3671875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -679,13 +695,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -702,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -725,17 +741,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -749,12 +765,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8096A-46E3-485B-A741-260275310364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D5595-CDC5-4C5D-8C85-355C901A1051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>UserName</t>
   </si>
@@ -105,9 +105,6 @@
     <t>HR</t>
   </si>
   <si>
-    <t>HSRP005816</t>
-  </si>
-  <si>
     <t>testuserdevid@gmail.com</t>
   </si>
   <si>
@@ -123,20 +120,16 @@
     <t>examId</t>
   </si>
   <si>
-    <t>w632312b4cfed5</t>
-  </si>
-  <si>
-    <t>w632318ac4c9b1</t>
-  </si>
-  <si>
     <t>w632319fa76265</t>
+  </si>
+  <si>
+    <t>HSRP005814</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -474,8 +467,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -494,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -527,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -535,9 +528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -566,7 +559,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,9 +595,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -650,18 +643,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.3671875" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -672,7 +665,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -691,14 +684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -720,7 +713,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -747,13 +740,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -767,10 +760,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D5595-CDC5-4C5D-8C85-355C901A1051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6F89B-6AB3-438D-B9BA-986BFB0BE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Exam" sheetId="6" r:id="rId5"/>
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
+    <sheet name="Membership" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>UserName</t>
   </si>
@@ -90,46 +91,107 @@
     <t>hsrName</t>
   </si>
   <si>
-    <t>Automation portfolio 3036770</t>
+    <t>Automation Project4130916</t>
+  </si>
+  <si>
+    <t>2202263981</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>testuserdevid@gmail.com</t>
+  </si>
+  <si>
+    <t>wprId</t>
+  </si>
+  <si>
+    <t>Automation Project7619197</t>
+  </si>
+  <si>
+    <t>WPR005831</t>
+  </si>
+  <si>
+    <t>examId</t>
+  </si>
+  <si>
+    <t>w632319fa76265</t>
+  </si>
+  <si>
+    <t>HSRP005814</t>
+  </si>
+  <si>
+    <t>https://test-nuxt.wellcertified.com/membership/register/1</t>
+  </si>
+  <si>
+    <t>www.testing@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>cornerstoneAmount</t>
+  </si>
+  <si>
+    <t>organizationwebsite</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>IWBI</t>
+  </si>
+  <si>
+    <t>Building Services</t>
+  </si>
+  <si>
+    <t>Automation portfolio 866747</t>
+  </si>
+  <si>
+    <t>Automation portfolio 815039</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3480209</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2295454</t>
+  </si>
+  <si>
+    <t>Education Support</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2851304</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1641538</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2184967</t>
   </si>
   <si>
     <t>REIT</t>
-  </si>
-  <si>
-    <t>Automation Project4130916</t>
-  </si>
-  <si>
-    <t>2202263981</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>testuserdevid@gmail.com</t>
-  </si>
-  <si>
-    <t>wprId</t>
-  </si>
-  <si>
-    <t>Automation Project7619197</t>
-  </si>
-  <si>
-    <t>WPR005831</t>
-  </si>
-  <si>
-    <t>examId</t>
-  </si>
-  <si>
-    <t>w632319fa76265</t>
-  </si>
-  <si>
-    <t>HSRP005814</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -467,8 +529,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -487,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -520,17 +582,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -543,10 +605,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -595,9 +657,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -619,10 +681,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -644,17 +706,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -665,7 +727,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -684,14 +746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -713,10 +775,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -740,13 +802,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -760,16 +822,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>9099099990</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>UserName</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>REIT</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1626029</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>UserName</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Automation portfolio 1626029</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3274976</t>
+  </si>
+  <si>
+    <t>Materials &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>HSRP006004</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -755,8 +764,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -778,10 +787,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>UserName</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>HSRP006004</t>
+  </si>
+  <si>
+    <t>Automation WPR Project5326445</t>
+  </si>
+  <si>
+    <t>WPR006015</t>
   </si>
 </sst>
 </file>
@@ -814,8 +820,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -834,10 +840,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>UserName</t>
   </si>
@@ -188,6 +188,39 @@
   </si>
   <si>
     <t>Automation portfolio 1626029</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1119726</t>
+  </si>
+  <si>
+    <t>Wellness Services</t>
+  </si>
+  <si>
+    <t>Automation portfolio 6533046</t>
+  </si>
+  <si>
+    <t>Automation portfolio 6875201</t>
+  </si>
+  <si>
+    <t>Student Housing</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4982140</t>
+  </si>
+  <si>
+    <t>Investment Services</t>
+  </si>
+  <si>
+    <t>Automation portfolio 5174469</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>HSRP006016</t>
   </si>
 </sst>
 </file>
@@ -594,7 +627,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.93359375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -608,10 +641,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -755,8 +788,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -778,10 +811,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>UserName</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>WPR006015</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>HSRP006020</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>UserName</t>
   </si>
@@ -209,6 +209,33 @@
   </si>
   <si>
     <t>HSRP006020</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2193514</t>
+  </si>
+  <si>
+    <t>Automation WPR Project1084677</t>
+  </si>
+  <si>
+    <t>WPR006028</t>
+  </si>
+  <si>
+    <t>Automation WPR Project837598</t>
+  </si>
+  <si>
+    <t>WPR006029</t>
+  </si>
+  <si>
+    <t>w632afdbd74a7d</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Senior Living, Assisted Living, Skilled Nursing Facility</t>
+  </si>
+  <si>
+    <t>HSRP006031</t>
   </si>
 </sst>
 </file>
@@ -735,7 +762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -751,7 +778,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -799,10 +826,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -827,7 +854,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -846,10 +873,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6F89B-6AB3-438D-B9BA-986BFB0BE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528C65B-BCBE-44F8-AB1A-BC8E57758DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>UserName</t>
   </si>
@@ -97,30 +97,15 @@
     <t>2202263981</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>testuserdevid@gmail.com</t>
   </si>
   <si>
     <t>wprId</t>
   </si>
   <si>
-    <t>Automation Project7619197</t>
-  </si>
-  <si>
-    <t>WPR005831</t>
-  </si>
-  <si>
     <t>examId</t>
   </si>
   <si>
-    <t>w632319fa76265</t>
-  </si>
-  <si>
-    <t>HSRP005814</t>
-  </si>
-  <si>
     <t>https://test-nuxt.wellcertified.com/membership/register/1</t>
   </si>
   <si>
@@ -151,75 +136,12 @@
     <t>IWBI</t>
   </si>
   <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>Automation portfolio 866747</t>
-  </si>
-  <si>
-    <t>Automation portfolio 815039</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3480209</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2295454</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2851304</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1641538</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2184967</t>
-  </si>
-  <si>
-    <t>REIT</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1626029</t>
-  </si>
-  <si>
     <t>Automation portfolio 3274976</t>
   </si>
   <si>
     <t>Materials &amp; Chemicals</t>
   </si>
   <si>
-    <t>HSRP006004</t>
-  </si>
-  <si>
-    <t>Automation WPR Project5326445</t>
-  </si>
-  <si>
-    <t>WPR006015</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>HSRP006020</t>
-  </si>
-  <si>
-    <t>Automation WPR Project2193514</t>
-  </si>
-  <si>
-    <t>Automation WPR Project1084677</t>
-  </si>
-  <si>
-    <t>WPR006028</t>
-  </si>
-  <si>
     <t>Automation WPR Project837598</t>
   </si>
   <si>
@@ -227,9 +149,6 @@
   </si>
   <si>
     <t>w632afdbd74a7d</t>
-  </si>
-  <si>
-    <t>Accounting</t>
   </si>
   <si>
     <t>Senior Living, Assisted Living, Skilled Nursing Facility</t>
@@ -242,7 +161,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -580,8 +498,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -600,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -633,7 +551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -641,9 +559,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -656,10 +574,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -708,9 +626,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -762,12 +680,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -778,7 +696,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -803,8 +721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -826,10 +744,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -853,13 +771,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -873,10 +791,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -900,27 +818,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -929,18 +847,18 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>9099099990</v>
@@ -952,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -155,12 +155,19 @@
   </si>
   <si>
     <t>HSRP006031</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3841643</t>
+  </si>
+  <si>
+    <t>2202265789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -498,8 +505,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -551,7 +558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -559,9 +566,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -626,9 +633,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -650,10 +657,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -680,7 +687,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -721,8 +728,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -771,8 +778,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -818,10 +825,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528C65B-BCBE-44F8-AB1A-BC8E57758DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D464AE-F9BF-4BF9-9D53-C4ABA940380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>UserName</t>
   </si>
@@ -91,12 +91,6 @@
     <t>hsrName</t>
   </si>
   <si>
-    <t>Automation Project4130916</t>
-  </si>
-  <si>
-    <t>2202263981</t>
-  </si>
-  <si>
     <t>testuserdevid@gmail.com</t>
   </si>
   <si>
@@ -136,12 +130,6 @@
     <t>IWBI</t>
   </si>
   <si>
-    <t>Automation portfolio 3274976</t>
-  </si>
-  <si>
-    <t>Materials &amp; Chemicals</t>
-  </si>
-  <si>
     <t>Automation WPR Project837598</t>
   </si>
   <si>
@@ -160,7 +148,43 @@
     <t>Automation V2 Project3841643</t>
   </si>
   <si>
-    <t>2202265789</t>
+    <t>Automation portfolio 314289</t>
+  </si>
+  <si>
+    <t>Affordable Housing</t>
+  </si>
+  <si>
+    <t>2202265791</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2262392</t>
+  </si>
+  <si>
+    <t>Clinical Services</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1599053</t>
+  </si>
+  <si>
+    <t>Medical Support</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1709920</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2745982</t>
+  </si>
+  <si>
+    <t>Multifamily Housing (market rate)</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>HSRP006109</t>
   </si>
 </sst>
 </file>
@@ -525,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -560,14 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -581,10 +605,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -627,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.38671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -657,10 +681,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -692,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -703,7 +727,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -728,8 +752,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.31640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -751,10 +775,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -784,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -798,10 +822,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -833,19 +857,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -854,18 +878,18 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>9099099990</v>
@@ -877,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>UserName</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>HSRP006109</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4546628</t>
+  </si>
+  <si>
+    <t>2202266249</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1487962</t>
+  </si>
+  <si>
+    <t>2202266256</t>
   </si>
 </sst>
 </file>
@@ -657,8 +669,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -681,10 +693,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D464AE-F9BF-4BF9-9D53-C4ABA940380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E4520E-42E6-4E80-A832-405925E60806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>UserName</t>
   </si>
@@ -64,9 +64,6 @@
     <t>OrgIndustry</t>
   </si>
   <si>
-    <t>projectId</t>
-  </si>
-  <si>
     <t>projectName</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>hsrId</t>
   </si>
   <si>
@@ -130,51 +124,6 @@
     <t>IWBI</t>
   </si>
   <si>
-    <t>Automation WPR Project837598</t>
-  </si>
-  <si>
-    <t>WPR006029</t>
-  </si>
-  <si>
-    <t>w632afdbd74a7d</t>
-  </si>
-  <si>
-    <t>Senior Living, Assisted Living, Skilled Nursing Facility</t>
-  </si>
-  <si>
-    <t>HSRP006031</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3841643</t>
-  </si>
-  <si>
-    <t>Automation portfolio 314289</t>
-  </si>
-  <si>
-    <t>Affordable Housing</t>
-  </si>
-  <si>
-    <t>2202265791</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2262392</t>
-  </si>
-  <si>
-    <t>Clinical Services</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1599053</t>
-  </si>
-  <si>
-    <t>Medical Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1709920</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
     <t>Automation portfolio 2745982</t>
   </si>
   <si>
@@ -187,16 +136,226 @@
     <t>HSRP006109</t>
   </si>
   <si>
-    <t>Automation V2 Project4546628</t>
-  </si>
-  <si>
-    <t>2202266249</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1487962</t>
-  </si>
-  <si>
-    <t>2202266256</t>
+    <t>ProjectId</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>OwnerName</t>
+  </si>
+  <si>
+    <t>OwnerEmail</t>
+  </si>
+  <si>
+    <t>CardHolderName</t>
+  </si>
+  <si>
+    <t>CardHolderNumber</t>
+  </si>
+  <si>
+    <t>CardHolderExpDate</t>
+  </si>
+  <si>
+    <t>CardHolderCVC</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>WPRSelectMember</t>
+  </si>
+  <si>
+    <t>WPRlocations</t>
+  </si>
+  <si>
+    <t>WPRlocationsize</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>https://test-nuxt.wellcertified.com/projects/v2/2202266385/register</t>
+  </si>
+  <si>
+    <t>4111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>09 / 25</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6977806</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>2202266393</t>
+  </si>
+  <si>
+    <t>100 RESILIENT CITIES</t>
+  </si>
+  <si>
+    <t>Lawerence</t>
+  </si>
+  <si>
+    <t>krystina.daniel@hotmail.com</t>
+  </si>
+  <si>
+    <t>5152552350</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>530 Fahey Orchard</t>
+  </si>
+  <si>
+    <t>North Leroymouth</t>
+  </si>
+  <si>
+    <t>34233</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>Automation WPR Project815339</t>
+  </si>
+  <si>
+    <t>101 Projects</t>
+  </si>
+  <si>
+    <t>Consultancies</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>16146 Merle Harbors</t>
+  </si>
+  <si>
+    <t>New Olinfurt</t>
+  </si>
+  <si>
+    <t>32547</t>
+  </si>
+  <si>
+    <t>WPR006168</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>APJobtitle</t>
+  </si>
+  <si>
+    <t>APIndustry</t>
+  </si>
+  <si>
+    <t>APSelectWELLAP</t>
+  </si>
+  <si>
+    <t>APLanguage</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>8678 Heathcote Canyon</t>
+  </si>
+  <si>
+    <t>Port Collette</t>
+  </si>
+  <si>
+    <t>06283-3941</t>
+  </si>
+  <si>
+    <t>2578481302</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>w633303faa09a8</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>9641 Bechtelar Extension</t>
+  </si>
+  <si>
+    <t>South Regan</t>
+  </si>
+  <si>
+    <t>14021-0356</t>
+  </si>
+  <si>
+    <t>1247711361</t>
+  </si>
+  <si>
+    <t>Edmundo</t>
+  </si>
+  <si>
+    <t>010110 Architecture + Urbanism</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Aviation</t>
+  </si>
+  <si>
+    <t>Delos</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>w633305715c722</t>
   </si>
 </sst>
 </file>
@@ -561,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -602,8 +761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -617,10 +776,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -640,18 +799,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -661,51 +820,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.37109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.8359375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -715,37 +974,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.2578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.51953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.04296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.828125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.95703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -764,39 +1088,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.31640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -806,44 +1130,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -869,51 +1251,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>9099099990</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E4520E-42E6-4E80-A832-405925E60806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5407C2-AF4C-4500-911F-7EEB58441D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>UserName</t>
   </si>
@@ -301,61 +301,73 @@
     <t>APLanguage</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>9641 Bechtelar Extension</t>
+  </si>
+  <si>
+    <t>South Regan</t>
+  </si>
+  <si>
+    <t>14021-0356</t>
+  </si>
+  <si>
+    <t>1247711361</t>
+  </si>
+  <si>
+    <t>Edmundo</t>
+  </si>
+  <si>
+    <t>010110 Architecture + Urbanism</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Aviation</t>
+  </si>
+  <si>
+    <t>Delos</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>w633305715c722</t>
+  </si>
+  <si>
+    <t>WFEmp</t>
+  </si>
+  <si>
+    <t>WFPostion</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>321 Rowe Tunnel</t>
+  </si>
+  <si>
+    <t>Wisokyview</t>
+  </si>
+  <si>
+    <t>99998-0972</t>
+  </si>
+  <si>
+    <t>FullTime</t>
+  </si>
+  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>8678 Heathcote Canyon</t>
-  </si>
-  <si>
-    <t>Port Collette</t>
-  </si>
-  <si>
-    <t>06283-3941</t>
-  </si>
-  <si>
-    <t>2578481302</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>w633303faa09a8</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>9641 Bechtelar Extension</t>
-  </si>
-  <si>
-    <t>South Regan</t>
-  </si>
-  <si>
-    <t>14021-0356</t>
-  </si>
-  <si>
-    <t>1247711361</t>
-  </si>
-  <si>
-    <t>Edmundo</t>
-  </si>
-  <si>
-    <t>010110 Architecture + Urbanism</t>
-  </si>
-  <si>
-    <t>Aerospace &amp; Aviation</t>
-  </si>
-  <si>
-    <t>Delos</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Colby</t>
-  </si>
-  <si>
-    <t>w633305715c722</t>
+    <t>06507 Marylynn Ford</t>
+  </si>
+  <si>
+    <t>DuBuqueborough</t>
+  </si>
+  <si>
+    <t>26329</t>
   </si>
 </sst>
 </file>
@@ -789,28 +801,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.68359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.2421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +881,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -843,10 +901,10 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.37109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.8359375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -955,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
         <v>57</v>
@@ -976,24 +1034,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.2578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.51953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.04296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.828125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.95703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1036,40 +1094,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
       </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5407C2-AF4C-4500-911F-7EEB58441D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE6BCA-419E-474A-B9A2-7CBA622B15CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>UserName</t>
   </si>
@@ -103,24 +103,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>cornerstoneAmount</t>
-  </si>
-  <si>
-    <t>organizationwebsite</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>jobtitle</t>
-  </si>
-  <si>
-    <t>phonenumber</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
     <t>IWBI</t>
   </si>
   <si>
@@ -346,15 +328,6 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>321 Rowe Tunnel</t>
-  </si>
-  <si>
-    <t>Wisokyview</t>
-  </si>
-  <si>
-    <t>99998-0972</t>
-  </si>
-  <si>
     <t>FullTime</t>
   </si>
   <si>
@@ -368,6 +341,60 @@
   </si>
   <si>
     <t>26329</t>
+  </si>
+  <si>
+    <t>Organizationwebsite</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cicely</t>
+  </si>
+  <si>
+    <t>riley.stokes@yahoo.com</t>
+  </si>
+  <si>
+    <t>1153613724</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>https://test-nuxt.wellcertified.com/</t>
+  </si>
+  <si>
+    <t>Lavona</t>
+  </si>
+  <si>
+    <t>gaston.quitzon@gmail.com</t>
+  </si>
+  <si>
+    <t>3206101344</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Silas</t>
   </si>
 </sst>
 </file>
@@ -788,10 +815,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -803,69 +830,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.68359375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.2421875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -901,128 +927,128 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.37109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.8359375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1059,75 +1085,75 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1195,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1218,72 +1244,72 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1295,65 +1321,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.9609375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.37890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>9099099990</v>
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE6BCA-419E-474A-B9A2-7CBA622B15CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED027A9-FA8A-4C17-AC98-7B86998F1ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>UserName</t>
   </si>
@@ -94,18 +94,9 @@
     <t>examId</t>
   </si>
   <si>
-    <t>https://test-nuxt.wellcertified.com/membership/register/1</t>
-  </si>
-  <si>
-    <t>www.testing@gmail.com</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>IWBI</t>
-  </si>
-  <si>
     <t>Automation portfolio 2745982</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Colby</t>
-  </si>
-  <si>
     <t>w633305715c722</t>
   </si>
   <si>
@@ -361,21 +349,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Cicely</t>
-  </si>
-  <si>
-    <t>riley.stokes@yahoo.com</t>
-  </si>
-  <si>
-    <t>1153613724</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
     <t>Osvaldo</t>
   </si>
   <si>
@@ -395,6 +368,30 @@
   </si>
   <si>
     <t>Silas</t>
+  </si>
+  <si>
+    <t>Lisbeth</t>
+  </si>
+  <si>
+    <t>Cedrick</t>
+  </si>
+  <si>
+    <t>dewey.brekke@yahoo.com</t>
+  </si>
+  <si>
+    <t>9702082995</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>358 Gilberto Coves</t>
+  </si>
+  <si>
+    <t>Towneburgh</t>
+  </si>
+  <si>
+    <t>Christoper</t>
   </si>
 </sst>
 </file>
@@ -815,10 +812,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -847,54 +844,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -935,120 +932,120 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1085,75 +1082,75 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>79</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1195,10 +1192,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1244,72 +1241,72 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1319,74 +1316,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.01953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.9609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.37890625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.44921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.4765625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D464AE-F9BF-4BF9-9D53-C4ABA940380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB79021-99A0-417B-B680-4E1B76961BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>UserName</t>
   </si>
@@ -139,59 +139,28 @@
     <t>w632afdbd74a7d</t>
   </si>
   <si>
-    <t>Senior Living, Assisted Living, Skilled Nursing Facility</t>
-  </si>
-  <si>
-    <t>HSRP006031</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3841643</t>
-  </si>
-  <si>
-    <t>Automation portfolio 314289</t>
-  </si>
-  <si>
-    <t>Affordable Housing</t>
-  </si>
-  <si>
-    <t>2202265791</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2262392</t>
-  </si>
-  <si>
-    <t>Clinical Services</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1599053</t>
-  </si>
-  <si>
-    <t>Medical Support</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1709920</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2745982</t>
-  </si>
-  <si>
-    <t>Multifamily Housing (market rate)</t>
-  </si>
-  <si>
     <t>REIT</t>
   </si>
   <si>
     <t>HSRP006109</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3971571</t>
+  </si>
+  <si>
+    <t>Automation portfolio 948029</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>2202266391</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -527,10 +496,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -582,17 +551,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -605,14 +574,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -624,7 +594,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -655,11 +625,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -709,9 +679,9 @@
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -750,10 +720,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.31640625" collapsed="true"/>
+    <col min="1" max="1" width="12.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -775,10 +745,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -800,10 +770,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -847,12 +817,12 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
   <si>
     <t>UserName</t>
   </si>
@@ -392,6 +392,24 @@
   </si>
   <si>
     <t>Christoper</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2929440</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2536301</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Automation portfolio 7023471</t>
+  </si>
+  <si>
+    <t>Education Support</t>
   </si>
 </sst>
 </file>
@@ -797,8 +815,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -812,10 +830,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025649C9-AAD5-47CC-82D6-92D9A9B89925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463951CE-26A8-4F9B-B595-17B46824DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>UserName</t>
   </si>
@@ -385,17 +385,46 @@
     <t>OwnerPhone</t>
   </si>
   <si>
-    <t>Automation portfolio 1630196</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3896680</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>jayne.keebler@hotmail.com</t>
+  </si>
+  <si>
+    <t>7362255383</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4377747</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>26556</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>88741 Lucas Locks</t>
+  </si>
+  <si>
+    <t>Durganberg</t>
+  </si>
+  <si>
+    <t>59989-8155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -733,8 +762,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -788,17 +817,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -845,9 +883,48 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -857,24 +934,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -899,8 +976,11 @@
       <c r="H1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -941,25 +1021,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1095,18 +1175,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1193,19 +1273,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +1301,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1251,18 +1334,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1356,16 +1439,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025649C9-AAD5-47CC-82D6-92D9A9B89925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404D431-D54C-4603-8573-10B4ED459056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>UserName</t>
   </si>
@@ -187,9 +187,6 @@
     <t>1442</t>
   </si>
   <si>
-    <t>2202266393</t>
-  </si>
-  <si>
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
@@ -385,10 +382,52 @@
     <t>OwnerPhone</t>
   </si>
   <si>
-    <t>Automation portfolio 1630196</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3896680</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>jayne.keebler@hotmail.com</t>
+  </si>
+  <si>
+    <t>7362255383</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4377747</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>26556</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>88741 Lucas Locks</t>
+  </si>
+  <si>
+    <t>Durganberg</t>
+  </si>
+  <si>
+    <t>59989-8155</t>
+  </si>
+  <si>
+    <t>FeatureName</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>2202266502</t>
+  </si>
+  <si>
+    <t>A01 Air Quality</t>
   </si>
 </sst>
 </file>
@@ -439,11 +478,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,10 +771,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -788,17 +828,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -809,16 +858,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -842,12 +891,51 @@
         <v>30</v>
       </c>
       <c r="N1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" t="s">
         <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -857,24 +945,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -891,36 +979,39 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -933,36 +1024,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.27734375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1020,31 +1112,37 @@
       <c r="S1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>51</v>
+      <c r="T1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -1053,22 +1151,22 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
@@ -1079,9 +1177,13 @@
       <c r="S2" t="s">
         <v>48</v>
       </c>
+      <c r="T2" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1093,19 +1195,19 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.26953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1114,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -1132,57 +1234,57 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>83</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>86</v>
-      </c>
-      <c r="L2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1193,19 +1295,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +1323,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1249,20 +1354,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.26953125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1305,40 +1410,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
       <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>62</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1354,32 +1459,32 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
@@ -1388,10 +1493,10 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
         <v>36</v>
@@ -1402,34 +1507,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
         <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
   <si>
     <t>UserName</t>
   </si>
@@ -419,12 +419,199 @@
   </si>
   <si>
     <t>59989-8155</t>
+  </si>
+  <si>
+    <t>Automation WPR Project896598</t>
+  </si>
+  <si>
+    <t>1-800 Flowers.com Inc.</t>
+  </si>
+  <si>
+    <t>Student Housing</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>86112 Rod Creek</t>
+  </si>
+  <si>
+    <t>Rayleneburgh</t>
+  </si>
+  <si>
+    <t>87678</t>
+  </si>
+  <si>
+    <t>035421</t>
+  </si>
+  <si>
+    <t>Automation WPR Project7366062</t>
+  </si>
+  <si>
+    <t>101 Moorgate</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>643 Harber Canyon</t>
+  </si>
+  <si>
+    <t>Germanbury</t>
+  </si>
+  <si>
+    <t>13189</t>
+  </si>
+  <si>
+    <t>03452</t>
+  </si>
+  <si>
+    <t>Automation WPR Project3598910</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>7946 Tomasa Flat</t>
+  </si>
+  <si>
+    <t>North Zona</t>
+  </si>
+  <si>
+    <t>21237-3381</t>
+  </si>
+  <si>
+    <t>032699</t>
+  </si>
+  <si>
+    <t>Automation WPR Project4115247</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>788 Friesen Falls</t>
+  </si>
+  <si>
+    <t>North Romeo</t>
+  </si>
+  <si>
+    <t>80957</t>
+  </si>
+  <si>
+    <t>05542</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2609138</t>
+  </si>
+  <si>
+    <t>Travel Support</t>
+  </si>
+  <si>
+    <t>7661 Pfeffer River</t>
+  </si>
+  <si>
+    <t>Leschhaven</t>
+  </si>
+  <si>
+    <t>26295</t>
+  </si>
+  <si>
+    <t>03142</t>
+  </si>
+  <si>
+    <t>Automation WPR Project3871316</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>5314 Corwin Inlet</t>
+  </si>
+  <si>
+    <t>Carterside</t>
+  </si>
+  <si>
+    <t>29941-3245</t>
+  </si>
+  <si>
+    <t>010391</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2998641</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Media, PR &amp; Communications</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>343 Sunday Prairie</t>
+  </si>
+  <si>
+    <t>Audrafort</t>
+  </si>
+  <si>
+    <t>78058</t>
+  </si>
+  <si>
+    <t>05361</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>03859 Huels Islands</t>
+  </si>
+  <si>
+    <t>Alethaland</t>
+  </si>
+  <si>
+    <t>45703-7204</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>096 Saul Knoll</t>
+  </si>
+  <si>
+    <t>North Harrisonbury</t>
+  </si>
+  <si>
+    <t>50626</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>71212 Schamberger Square</t>
+  </si>
+  <si>
+    <t>Swaniawskiside</t>
+  </si>
+  <si>
+    <t>81513-9595</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -762,8 +949,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -823,20 +1010,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -942,13 +1129,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.48828125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.2421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -985,16 +1173,16 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -1021,25 +1209,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1148,7 +1336,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
@@ -1175,18 +1363,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1281,8 +1469,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1334,18 +1522,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.09375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.87109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1391,28 +1579,28 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1421,7 +1609,7 @@
         <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1439,16 +1627,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404D431-D54C-4603-8573-10B4ED459056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A8022-0B13-4C46-B54D-CFA09F98363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
   <si>
     <t>UserName</t>
   </si>
@@ -67,24 +67,9 @@
     <t>projectName</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>hsrId</t>
   </si>
   <si>
-    <t>hsrName</t>
-  </si>
-  <si>
     <t>testuserdevid@gmail.com</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>REIT</t>
-  </si>
-  <si>
     <t>HSRP006109</t>
   </si>
   <si>
@@ -428,13 +410,36 @@
   </si>
   <si>
     <t>A01 Air Quality</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>71857 Schmitt Lane</t>
+  </si>
+  <si>
+    <t>Baumbachfurt</t>
+  </si>
+  <si>
+    <t>81146</t>
+  </si>
+  <si>
+    <t>023854</t>
+  </si>
+  <si>
+    <t>HsrName</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 842536</t>
+  </si>
+  <si>
+    <t>Fitness &amp; Recreation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -478,12 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,10 +775,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -793,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -832,22 +836,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -858,84 +862,84 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" t="s">
-        <v>127</v>
-      </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -951,70 +955,70 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1026,159 +1030,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.27734375" collapsed="false"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1195,96 +1199,96 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.26953125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1295,50 +1299,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.26953125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+      <c r="B2" t="s">
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1354,96 +1403,96 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1459,82 +1508,82 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="180">
   <si>
     <t>UserName</t>
   </si>
@@ -434,12 +434,151 @@
   </si>
   <si>
     <t>Fitness &amp; Recreation</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 2950373</t>
+  </si>
+  <si>
+    <t>Retirement Communities</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>46273 Klein Valley</t>
+  </si>
+  <si>
+    <t>Joesphhaven</t>
+  </si>
+  <si>
+    <t>54976-8486</t>
+  </si>
+  <si>
+    <t>010998</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 1614551</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Air Travel</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>68192 Boehm Walks</t>
+  </si>
+  <si>
+    <t>Arielhaven</t>
+  </si>
+  <si>
+    <t>31332-2867</t>
+  </si>
+  <si>
+    <t>015029</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 7528778</t>
+  </si>
+  <si>
+    <t>101 Moorgate</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>7937 Carson Ports</t>
+  </si>
+  <si>
+    <t>Donberg</t>
+  </si>
+  <si>
+    <t>48982</t>
+  </si>
+  <si>
+    <t>01517</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 1227587</t>
+  </si>
+  <si>
+    <t>Post Secondary Education</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>812 Monserrate Underpass</t>
+  </si>
+  <si>
+    <t>Port Jodishire</t>
+  </si>
+  <si>
+    <t>18123</t>
+  </si>
+  <si>
+    <t>017176</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>HSRP006238</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 7162135</t>
+  </si>
+  <si>
+    <t>1-800 Flowers.com Inc.</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>074 Krystyna Shoal</t>
+  </si>
+  <si>
+    <t>Chantayburgh</t>
+  </si>
+  <si>
+    <t>00030-5564</t>
+  </si>
+  <si>
+    <t>015332</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>6935 Lizette Ridges</t>
+  </si>
+  <si>
+    <t>West Marinda</t>
+  </si>
+  <si>
+    <t>95210</t>
+  </si>
+  <si>
+    <t>1830104860</t>
+  </si>
+  <si>
+    <t>Wilburn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -777,8 +916,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -838,20 +977,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -957,13 +1096,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1036,26 +1175,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.37109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.8359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1170,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
         <v>40</v>
@@ -1201,18 +1340,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.04296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.72265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.2890625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.04296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.12890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.3046875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1258,28 +1397,28 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -1307,17 +1446,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.95703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.2421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1357,37 +1496,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1405,18 +1544,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1510,16 +1649,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A8022-0B13-4C46-B54D-CFA09F98363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54469452-A6A4-40D4-8AAD-59B86BF13C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="3756" windowWidth="17280" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>UserName</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>HSRP006109</t>
-  </si>
-  <si>
     <t>ProjectId</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Org</t>
-  </si>
-  <si>
     <t>OwnerName</t>
   </si>
   <si>
@@ -247,27 +241,6 @@
     <t>APLanguage</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>9641 Bechtelar Extension</t>
-  </si>
-  <si>
-    <t>South Regan</t>
-  </si>
-  <si>
-    <t>14021-0356</t>
-  </si>
-  <si>
-    <t>1247711361</t>
-  </si>
-  <si>
-    <t>Edmundo</t>
-  </si>
-  <si>
-    <t>010110 Architecture + Urbanism</t>
-  </si>
-  <si>
     <t>Aerospace &amp; Aviation</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>Towneburgh</t>
   </si>
   <si>
-    <t>Christoper</t>
-  </si>
-  <si>
     <t>OrganizationName</t>
   </si>
   <si>
@@ -412,126 +382,9 @@
     <t>A01 Air Quality</t>
   </si>
   <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>71857 Schmitt Lane</t>
-  </si>
-  <si>
-    <t>Baumbachfurt</t>
-  </si>
-  <si>
-    <t>81146</t>
-  </si>
-  <si>
-    <t>023854</t>
-  </si>
-  <si>
     <t>HsrName</t>
   </si>
   <si>
-    <t>Automation HSR Project 842536</t>
-  </si>
-  <si>
-    <t>Fitness &amp; Recreation</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 2950373</t>
-  </si>
-  <si>
-    <t>Retirement Communities</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>46273 Klein Valley</t>
-  </si>
-  <si>
-    <t>Joesphhaven</t>
-  </si>
-  <si>
-    <t>54976-8486</t>
-  </si>
-  <si>
-    <t>010998</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1614551</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>68192 Boehm Walks</t>
-  </si>
-  <si>
-    <t>Arielhaven</t>
-  </si>
-  <si>
-    <t>31332-2867</t>
-  </si>
-  <si>
-    <t>015029</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 7528778</t>
-  </si>
-  <si>
-    <t>101 Moorgate</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>7937 Carson Ports</t>
-  </si>
-  <si>
-    <t>Donberg</t>
-  </si>
-  <si>
-    <t>48982</t>
-  </si>
-  <si>
-    <t>01517</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1227587</t>
-  </si>
-  <si>
-    <t>Post Secondary Education</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>812 Monserrate Underpass</t>
-  </si>
-  <si>
-    <t>Port Jodishire</t>
-  </si>
-  <si>
-    <t>18123</t>
-  </si>
-  <si>
-    <t>017176</t>
-  </si>
-  <si>
-    <t>Gregorio</t>
-  </si>
-  <si>
     <t>HSRP006238</t>
   </si>
   <si>
@@ -572,13 +425,24 @@
   </si>
   <si>
     <t>Wilburn</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>OwnerCountry</t>
+  </si>
+  <si>
+    <t>OwnerState</t>
+  </si>
+  <si>
+    <t>TeamEmailID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -914,10 +778,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -975,22 +839,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1001,84 +865,84 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>121</v>
-      </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1091,70 +955,70 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1167,161 +1031,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.37109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.8359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>125</v>
+      <c r="V2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1335,23 +1210,23 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.04296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.72265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.2890625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.04296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.12890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.3046875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1359,75 +1234,75 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1440,23 +1315,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.95703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.46484375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.2421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1464,69 +1339,69 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1539,23 +1414,23 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1566,72 +1441,72 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1647,82 +1522,82 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>UserName</t>
   </si>
@@ -437,12 +437,58 @@
   </si>
   <si>
     <t>TeamEmailID</t>
+  </si>
+  <si>
+    <t>Automation V2 Project605852</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1632420</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>41512</t>
+  </si>
+  <si>
+    <t>2202266805</t>
+  </si>
+  <si>
+    <t>101 Moorgate</t>
+  </si>
+  <si>
+    <t>Linette</t>
+  </si>
+  <si>
+    <t>ashley.jacobs@gmail.com</t>
+  </si>
+  <si>
+    <t>4688505956</t>
+  </si>
+  <si>
+    <t>Medical Support</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>1187 Hermann Underpass</t>
+  </si>
+  <si>
+    <t>East Kyle</t>
+  </si>
+  <si>
+    <t>19552-2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -780,8 +826,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -841,20 +887,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -960,13 +1006,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1039,28 +1085,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.4765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.3828125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1139,49 +1186,55 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>145</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>146</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="R2" t="s">
         <v>125</v>
@@ -1215,18 +1268,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1321,17 +1374,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1419,18 +1472,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1524,16 +1577,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54469452-A6A4-40D4-8AAD-59B86BF13C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8541D-4971-4948-8941-1EC4A5FD5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="696" yWindow="3756" windowWidth="17280" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
   <si>
     <t>UserName</t>
   </si>
@@ -73,18 +73,12 @@
     <t>testuserdevid@gmail.com</t>
   </si>
   <si>
-    <t>wprId</t>
-  </si>
-  <si>
     <t>examId</t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>ProjectId</t>
-  </si>
-  <si>
     <t>ProjectName</t>
   </si>
   <si>
@@ -157,39 +151,15 @@
     <t>999</t>
   </si>
   <si>
-    <t>Automation V2 Project6977806</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
-    <t>Lawerence</t>
-  </si>
-  <si>
-    <t>krystina.daniel@hotmail.com</t>
-  </si>
-  <si>
-    <t>5152552350</t>
-  </si>
-  <si>
     <t>Manufacturing</t>
   </si>
   <si>
     <t>Montana</t>
   </si>
   <si>
-    <t>530 Fahey Orchard</t>
-  </si>
-  <si>
-    <t>North Leroymouth</t>
-  </si>
-  <si>
-    <t>34233</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -376,9 +346,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>2202266502</t>
-  </si>
-  <si>
     <t>A01 Air Quality</t>
   </si>
   <si>
@@ -439,18 +406,12 @@
     <t>TeamEmailID</t>
   </si>
   <si>
-    <t>Automation V2 Project605852</t>
-  </si>
-  <si>
     <t>Automation V2 Project1632420</t>
   </si>
   <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>41512</t>
   </si>
   <si>
@@ -482,13 +443,15 @@
   </si>
   <si>
     <t>19552-2001</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -826,8 +789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -887,20 +850,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -911,84 +874,84 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
-      </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1006,68 +969,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1079,177 +1042,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.4765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.3828125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="W1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="X1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R2" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
       <c r="V2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1268,94 +1231,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1374,17 +1337,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1392,69 +1355,69 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1467,99 +1430,99 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1577,80 +1540,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8541D-4971-4948-8941-1EC4A5FD5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6AA70B-5F5C-4667-B2A6-6121265335F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="3756" windowWidth="17280" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="3756" windowWidth="17280" windowHeight="10680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>UserName</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>projectName</t>
-  </si>
-  <si>
-    <t>hsrId</t>
   </si>
   <si>
     <t>testuserdevid@gmail.com</t>
@@ -809,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -874,84 +871,84 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>92</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>93</v>
-      </c>
-      <c r="N2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -980,57 +977,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1075,144 +1072,144 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
       <c r="V2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1247,78 +1244,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1331,9 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1352,72 +1347,72 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>112</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1451,78 +1446,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1554,66 +1549,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>UserName</t>
   </si>
@@ -443,12 +443,37 @@
   </si>
   <si>
     <t>ProjectID</t>
+  </si>
+  <si>
+    <t>Automation WPR Project1839088</t>
+  </si>
+  <si>
+    <t>Building Services</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>06524 Rowena Ports</t>
+  </si>
+  <si>
+    <t>Lake Ione</t>
+  </si>
+  <si>
+    <t>38923-0738</t>
+  </si>
+  <si>
+    <t>011977</t>
+  </si>
+  <si>
+    <t>WPR006261</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -786,8 +811,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -847,20 +872,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -966,13 +991,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1045,29 +1070,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="5.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1228,18 +1253,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1332,17 +1357,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1430,18 +1455,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.015625" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.05859375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.11328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.09375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.3828125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0859375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.57421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1484,31 +1509,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -1517,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1535,16 +1560,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
   <si>
     <t>UserName</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>WPR006261</t>
+  </si>
+  <si>
+    <t>Automation V2 Project7886342</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
@@ -1174,7 +1177,7 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
@@ -1455,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.015625" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="30.05859375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.11328125" collapsed="true"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6AA70B-5F5C-4667-B2A6-6121265335F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADF7F6-B828-4063-978B-E1885BC52261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="3756" windowWidth="17280" windowHeight="10680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>UserName</t>
   </si>
@@ -163,36 +163,9 @@
     <t>110</t>
   </si>
   <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>Automation WPR Project815339</t>
-  </si>
-  <si>
-    <t>101 Projects</t>
-  </si>
-  <si>
-    <t>Consultancies</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>16146 Merle Harbors</t>
-  </si>
-  <si>
-    <t>New Olinfurt</t>
-  </si>
-  <si>
-    <t>32547</t>
-  </si>
-  <si>
-    <t>WPR006168</t>
-  </si>
-  <si>
     <t>PhoneNo</t>
   </si>
   <si>
@@ -403,18 +376,12 @@
     <t>TeamEmailID</t>
   </si>
   <si>
-    <t>Automation V2 Project1632420</t>
-  </si>
-  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
     <t>41512</t>
   </si>
   <si>
-    <t>2202266805</t>
-  </si>
-  <si>
     <t>101 Moorgate</t>
   </si>
   <si>
@@ -466,17 +433,22 @@
     <t>011977</t>
   </si>
   <si>
-    <t>WPR006261</t>
-  </si>
-  <si>
     <t>Automation V2 Project7886342</t>
+  </si>
+  <si>
+    <t>2202266808</t>
+  </si>
+  <si>
+    <t>gokulthiru22@gmail.com</t>
+  </si>
+  <si>
+    <t>WPR006273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -812,10 +784,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -873,22 +845,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -899,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -932,51 +904,51 @@
         <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -992,15 +964,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1020,39 +992,39 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1068,39 +1040,38 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="5.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1130,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1142,10 +1113,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
         <v>29</v>
@@ -1163,69 +1134,69 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
         <v>35</v>
@@ -1237,7 +1208,10 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="X2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1254,20 +1228,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1275,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1293,27 +1267,27 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -1322,28 +1296,28 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1356,32 +1330,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1402,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1410,13 +1384,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1425,22 +1399,22 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1452,29 +1426,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.05859375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.11328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.09375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.3828125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0859375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.57421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1486,7 +1460,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1512,31 +1486,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -1545,7 +1519,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1561,32 +1535,32 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -1595,10 +1569,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -1609,34 +1583,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADF7F6-B828-4063-978B-E1885BC52261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43154B90-52DF-4995-A463-037AB4102291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
   <si>
     <t>UserName</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Towneburgh</t>
   </si>
   <si>
-    <t>OrganizationName</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -443,12 +440,46 @@
   </si>
   <si>
     <t>WPR006273</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3788149</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Wellness Services</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>655 Darrell Brooks</t>
+  </si>
+  <si>
+    <t>Lake Ervin</t>
+  </si>
+  <si>
+    <t>25470</t>
+  </si>
+  <si>
+    <t>Yuette</t>
+  </si>
+  <si>
+    <t>bradley.ernser@hotmail.com</t>
+  </si>
+  <si>
+    <t>4080208763</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -786,8 +817,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -841,26 +872,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.41015625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.61328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -871,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -904,51 +935,51 @@
         <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -966,13 +997,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1001,7 +1032,7 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1039,39 +1070,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1101,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1113,10 +1144,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
         <v>111</v>
-      </c>
-      <c r="P1" t="s">
-        <v>112</v>
       </c>
       <c r="Q1" t="s">
         <v>29</v>
@@ -1134,69 +1165,69 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" t="s">
-        <v>93</v>
-      </c>
       <c r="X1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
         <v>115</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" t="s">
-        <v>118</v>
-      </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
         <v>35</v>
@@ -1208,10 +1239,10 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1230,18 +1261,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1270,7 +1301,7 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -1287,7 +1318,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -1296,16 +1327,16 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1334,28 +1365,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1376,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1384,13 +1415,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1399,22 +1430,22 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>102</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1426,29 +1457,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1460,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1486,31 +1517,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>129</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>130</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -1519,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1537,16 +1568,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43154B90-52DF-4995-A463-037AB4102291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B28876-D85E-48AA-9D8A-532C0E93AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
     <sheet name="Membership" sheetId="8" r:id="rId8"/>
+    <sheet name="Payment" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
   <si>
     <t>UserName</t>
   </si>
@@ -277,36 +278,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>jayne.keebler@hotmail.com</t>
-  </si>
-  <si>
-    <t>7362255383</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4377747</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>26556</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>88741 Lucas Locks</t>
-  </si>
-  <si>
-    <t>Durganberg</t>
-  </si>
-  <si>
-    <t>59989-8155</t>
-  </si>
-  <si>
     <t>FeatureName</t>
   </si>
   <si>
@@ -442,44 +413,58 @@
     <t>WPR006273</t>
   </si>
   <si>
-    <t>Automation portfolio 3788149</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>Wellness Services</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>655 Darrell Brooks</t>
-  </si>
-  <si>
-    <t>Lake Ervin</t>
-  </si>
-  <si>
-    <t>25470</t>
-  </si>
-  <si>
-    <t>Yuette</t>
-  </si>
-  <si>
-    <t>bradley.ernser@hotmail.com</t>
-  </si>
-  <si>
-    <t>4080208763</t>
+    <t>Automation portfolio 7900806</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>7162</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>933 Tiara Path</t>
+  </si>
+  <si>
+    <t>Albinafurt</t>
+  </si>
+  <si>
+    <t>71929-0282</t>
+  </si>
+  <si>
+    <t>WELLP06290</t>
+  </si>
+  <si>
+    <t>Reinaldo</t>
+  </si>
+  <si>
+    <t>kurt.morissette@gmail.com</t>
+  </si>
+  <si>
+    <t>9735807664</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>CardCVC</t>
+  </si>
+  <si>
+    <t>CardExpDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -523,11 +508,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -815,10 +801,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -870,116 +856,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.41015625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" t="s">
-        <v>146</v>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -995,15 +1015,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1032,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1070,39 +1090,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1132,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1144,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>29</v>
@@ -1165,69 +1185,69 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="W1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
         <v>35</v>
@@ -1239,10 +1259,10 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1253,29 +1273,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35500AA9-B12B-4C68-9D48-7FBAC0E91A3C}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1325,7 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -1312,13 +1336,25 @@
       <c r="L1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -1327,16 +1363,16 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1349,6 +1385,18 @@
       </c>
       <c r="L2" t="s">
         <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1359,34 +1407,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1412,16 +1466,28 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1430,22 +1496,34 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1455,31 +1533,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1491,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1514,34 +1596,46 @@
       <c r="L1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -1550,7 +1644,19 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1560,27 +1666,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1611,8 +1721,20 @@
       <c r="J1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1642,6 +1764,53 @@
       </c>
       <c r="J2" t="s">
         <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEF61B8-C1D0-4C6E-80CA-EC6CCCA5234D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B28876-D85E-48AA-9D8A-532C0E93AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE27AA2-0BD7-4575-AD93-4195049B3078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>UserName</t>
   </si>
@@ -344,12 +344,6 @@
     <t>TeamEmailID</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>41512</t>
-  </si>
-  <si>
     <t>101 Moorgate</t>
   </si>
   <si>
@@ -368,15 +362,6 @@
     <t>Delaware</t>
   </si>
   <si>
-    <t>1187 Hermann Underpass</t>
-  </si>
-  <si>
-    <t>East Kyle</t>
-  </si>
-  <si>
-    <t>19552-2001</t>
-  </si>
-  <si>
     <t>ProjectID</t>
   </si>
   <si>
@@ -401,12 +386,6 @@
     <t>011977</t>
   </si>
   <si>
-    <t>Automation V2 Project7886342</t>
-  </si>
-  <si>
-    <t>2202266808</t>
-  </si>
-  <si>
     <t>gokulthiru22@gmail.com</t>
   </si>
   <si>
@@ -459,12 +438,28 @@
   </si>
   <si>
     <t>CardExpDate</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>16095</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6045912</t>
+  </si>
+  <si>
+    <t>2202266982</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -508,12 +503,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,10 +797,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -862,31 +858,31 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -945,13 +941,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -963,31 +959,31 @@
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
         <v>129</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s">
-        <v>136</v>
       </c>
       <c r="P2" t="s">
         <v>93</v>
@@ -1015,15 +1011,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1090,39 +1086,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.51171875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6484375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1195,56 +1192,56 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2" t="s">
-        <v>123</v>
+      <c r="A2" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
         <v>104</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>105</v>
       </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>107</v>
-      </c>
-      <c r="N2" t="s">
-        <v>109</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R2" t="s">
         <v>93</v>
@@ -1261,8 +1258,11 @@
       <c r="V2" t="s">
         <v>83</v>
       </c>
+      <c r="W2" t="s">
+        <v>13</v>
+      </c>
       <c r="X2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1279,24 +1279,24 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1409,32 +1409,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>84</v>
@@ -1470,13 +1470,13 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1539,29 +1539,29 @@
       <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1611,31 +1611,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -1644,7 +1644,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
         <v>93</v>
@@ -1672,22 +1672,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1791,23 +1791,23 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE27AA2-0BD7-4575-AD93-4195049B3078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEC15D-1784-43A1-96CF-F38CFDB4DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10680" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,10 @@
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
     <sheet name="Membership" sheetId="8" r:id="rId8"/>
-    <sheet name="Payment" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>UserName</t>
   </si>
@@ -98,15 +97,6 @@
     <t>CardHolderName</t>
   </si>
   <si>
-    <t>CardHolderNumber</t>
-  </si>
-  <si>
-    <t>CardHolderExpDate</t>
-  </si>
-  <si>
-    <t>CardHolderCVC</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
@@ -426,12 +416,6 @@
   </si>
   <si>
     <t>CardNumber</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
   </si>
   <si>
     <t>CardCVC</t>
@@ -459,7 +443,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -503,12 +486,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -797,10 +779,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -855,34 +837,34 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -891,16 +873,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -909,13 +891,13 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
@@ -924,78 +906,78 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1011,15 +993,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1030,48 +1012,48 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1086,46 +1068,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="S1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.51171875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6484375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1134,22 +1116,22 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1161,108 +1143,108 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="V1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="5" t="s">
-        <v>139</v>
+      <c r="A2" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
       <c r="V2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s">
         <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1276,27 +1258,27 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1304,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1313,90 +1295,90 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1413,34 +1395,34 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1452,16 +1434,16 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1470,60 +1452,60 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1535,33 +1517,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1573,90 +1555,90 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
-      </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1668,40 +1650,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -1710,107 +1692,72 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEF61B8-C1D0-4C6E-80CA-EC6CCCA5234D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
   <si>
     <t>UserName</t>
   </si>
@@ -437,12 +437,46 @@
   </si>
   <si>
     <t>2202266982</t>
+  </si>
+  <si>
+    <t>Automation portfolio 5698076</t>
+  </si>
+  <si>
+    <t>Education Support</t>
+  </si>
+  <si>
+    <t>8108</t>
+  </si>
+  <si>
+    <t>108 Watsica Knolls</t>
+  </si>
+  <si>
+    <t>South Eltonchester</t>
+  </si>
+  <si>
+    <t>07007</t>
+  </si>
+  <si>
+    <t>WELLP06306</t>
+  </si>
+  <si>
+    <t>Christiane</t>
+  </si>
+  <si>
+    <t>stephan.conn@gmail.com</t>
+  </si>
+  <si>
+    <t>8077847477</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -781,8 +815,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -842,24 +876,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.3515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.91015625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.015625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -923,16 +958,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -941,34 +976,34 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -995,13 +1030,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1074,29 +1109,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1263,22 +1298,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1397,21 +1432,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1523,22 +1558,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1656,20 +1691,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEC15D-1784-43A1-96CF-F38CFDB4DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A67F8-384F-46EF-9125-8E107E329D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10680" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
   <si>
     <t>UserName</t>
   </si>
@@ -382,39 +382,6 @@
     <t>WPR006273</t>
   </si>
   <si>
-    <t>Automation portfolio 7900806</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage</t>
-  </si>
-  <si>
-    <t>7162</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>933 Tiara Path</t>
-  </si>
-  <si>
-    <t>Albinafurt</t>
-  </si>
-  <si>
-    <t>71929-0282</t>
-  </si>
-  <si>
-    <t>WELLP06290</t>
-  </si>
-  <si>
-    <t>Reinaldo</t>
-  </si>
-  <si>
-    <t>kurt.morissette@gmail.com</t>
-  </si>
-  <si>
-    <t>9735807664</t>
-  </si>
-  <si>
     <t>CardNumber</t>
   </si>
   <si>
@@ -470,13 +437,60 @@
   </si>
   <si>
     <t>Priscilla</t>
+  </si>
+  <si>
+    <t>ProjectScope</t>
+  </si>
+  <si>
+    <t>ProjectGoals</t>
+  </si>
+  <si>
+    <t>BillingName</t>
+  </si>
+  <si>
+    <t>BillingOrganization</t>
+  </si>
+  <si>
+    <t>BillingStatus</t>
+  </si>
+  <si>
+    <t>ChallengeNote</t>
+  </si>
+  <si>
+    <t>CommunicationNote</t>
+  </si>
+  <si>
+    <t>BillingNote</t>
+  </si>
+  <si>
+    <t>ProjectScope Testing</t>
+  </si>
+  <si>
+    <t>ProjectGoals Testing</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>BillingOrganization Test</t>
+  </si>
+  <si>
+    <t>BillingStatus Test</t>
+  </si>
+  <si>
+    <t>ChallengeNote Test</t>
+  </si>
+  <si>
+    <t>CommunicationNote Test</t>
+  </si>
+  <si>
+    <t>BillingNote Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -813,10 +827,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -874,27 +888,27 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.3515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.91015625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.015625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -947,24 +961,24 @@
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -976,7 +990,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -985,25 +999,25 @@
         <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -1028,15 +1042,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1101,40 +1115,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -1190,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="T1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="V1" t="s">
         <v>78</v>
@@ -1207,13 +1221,37 @@
       <c r="X1" t="s">
         <v>99</v>
       </c>
+      <c r="Y1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -1222,22 +1260,22 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
         <v>100</v>
@@ -1280,6 +1318,30 @@
       </c>
       <c r="X2" t="s">
         <v>114</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1296,24 +1358,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1357,13 +1419,13 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1430,23 +1492,23 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1487,13 +1549,13 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1556,24 +1618,24 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1617,13 +1679,13 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1685,26 +1747,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1742,13 +1804,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A67F8-384F-46EF-9125-8E107E329D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DE833-2434-450A-B755-94E05F8CE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,12 +534,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1117,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AF2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,28 +1222,28 @@
       <c r="X1" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1319,28 +1320,28 @@
       <c r="X2" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="5" t="s">
         <v>150</v>
       </c>
     </row>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DE833-2434-450A-B755-94E05F8CE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F47B89-92D3-4CD7-8B1B-57AB5E3F354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="204">
   <si>
     <t>UserName</t>
   </si>
@@ -142,9 +142,6 @@
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -172,18 +169,12 @@
     <t>APLanguage</t>
   </si>
   <si>
-    <t>Aerospace &amp; Aviation</t>
-  </si>
-  <si>
     <t>Delos</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>w633305715c722</t>
-  </si>
-  <si>
     <t>WFEmp</t>
   </si>
   <si>
@@ -196,18 +187,6 @@
     <t>FullTime</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>06507 Marylynn Ford</t>
-  </si>
-  <si>
-    <t>DuBuqueborough</t>
-  </si>
-  <si>
-    <t>26329</t>
-  </si>
-  <si>
     <t>Organizationwebsite</t>
   </si>
   <si>
@@ -229,27 +208,9 @@
     <t>https://test-nuxt.wellcertified.com/</t>
   </si>
   <si>
-    <t>Lisbeth</t>
-  </si>
-  <si>
-    <t>Cedrick</t>
-  </si>
-  <si>
-    <t>dewey.brekke@yahoo.com</t>
-  </si>
-  <si>
-    <t>9702082995</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>358 Gilberto Coves</t>
-  </si>
-  <si>
-    <t>Towneburgh</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -280,48 +241,9 @@
     <t>HsrName</t>
   </si>
   <si>
-    <t>HSRP006238</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 7162135</t>
-  </si>
-  <si>
     <t>1-800 Flowers.com Inc.</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>074 Krystyna Shoal</t>
-  </si>
-  <si>
-    <t>Chantayburgh</t>
-  </si>
-  <si>
-    <t>00030-5564</t>
-  </si>
-  <si>
-    <t>015332</t>
-  </si>
-  <si>
-    <t>Norris</t>
-  </si>
-  <si>
-    <t>6935 Lizette Ridges</t>
-  </si>
-  <si>
-    <t>West Marinda</t>
-  </si>
-  <si>
-    <t>95210</t>
-  </si>
-  <si>
-    <t>1830104860</t>
-  </si>
-  <si>
-    <t>Wilburn</t>
-  </si>
-  <si>
     <t>OrgName</t>
   </si>
   <si>
@@ -334,163 +256,401 @@
     <t>TeamEmailID</t>
   </si>
   <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>gokulthiru22@gmail.com</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardCVC</t>
+  </si>
+  <si>
+    <t>CardExpDate</t>
+  </si>
+  <si>
+    <t>ProjectScope</t>
+  </si>
+  <si>
+    <t>ProjectGoals</t>
+  </si>
+  <si>
+    <t>BillingName</t>
+  </si>
+  <si>
+    <t>BillingOrganization</t>
+  </si>
+  <si>
+    <t>BillingStatus</t>
+  </si>
+  <si>
+    <t>ChallengeNote</t>
+  </si>
+  <si>
+    <t>CommunicationNote</t>
+  </si>
+  <si>
+    <t>BillingNote</t>
+  </si>
+  <si>
+    <t>ProjectScope Testing</t>
+  </si>
+  <si>
+    <t>ProjectGoals Testing</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>BillingOrganization Test</t>
+  </si>
+  <si>
+    <t>BillingStatus Test</t>
+  </si>
+  <si>
+    <t>ChallengeNote Test</t>
+  </si>
+  <si>
+    <t>CommunicationNote Test</t>
+  </si>
+  <si>
+    <t>BillingNote Test</t>
+  </si>
+  <si>
+    <t>Automation V2 Project7921697</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>43901</t>
+  </si>
+  <si>
+    <t>2202267602</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>dominique.kessler@hotmail.com</t>
+  </si>
+  <si>
+    <t>5506461948</t>
+  </si>
+  <si>
+    <t>Materials &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>74737 Franecki Underpass</t>
+  </si>
+  <si>
+    <t>Bergestad</t>
+  </si>
+  <si>
+    <t>61337</t>
+  </si>
+  <si>
+    <t>Lonny</t>
+  </si>
+  <si>
+    <t>Letter of Assurance – Engineer</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>08201 Rohan Glen</t>
+  </si>
+  <si>
+    <t>Wymanbury</t>
+  </si>
+  <si>
+    <t>48650</t>
+  </si>
+  <si>
+    <t>3332769997</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Management Consulting</t>
+  </si>
+  <si>
+    <t>Nicol</t>
+  </si>
+  <si>
+    <t>w633e80d90291d</t>
+  </si>
+  <si>
+    <t>36055 Halvorson Alley</t>
+  </si>
+  <si>
+    <t>Henrystad</t>
+  </si>
+  <si>
+    <t>26973</t>
+  </si>
+  <si>
+    <t>Tajuana</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>duncan.rau@hotmail.com</t>
+  </si>
+  <si>
+    <t>7711732876</t>
+  </si>
+  <si>
+    <t>7814 Josiah Turnpike</t>
+  </si>
+  <si>
+    <t>Wardport</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3759932</t>
+  </si>
+  <si>
+    <t>Fitness &amp; Recreation</t>
+  </si>
+  <si>
+    <t>47084</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>585 Adrianna Port</t>
+  </si>
+  <si>
+    <t>East Cornelia</t>
+  </si>
+  <si>
+    <t>41621</t>
+  </si>
+  <si>
+    <t>WELLP06386</t>
+  </si>
+  <si>
+    <t>Delores</t>
+  </si>
+  <si>
+    <t>concha.simonis@gmail.com</t>
+  </si>
+  <si>
+    <t>1846144814</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>046 Dorian Key</t>
+  </si>
+  <si>
+    <t>Bauchview</t>
+  </si>
+  <si>
+    <t>63126-2316</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>Bok</t>
+  </si>
+  <si>
+    <t>HSRP006387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation HSR Project </t>
+  </si>
+  <si>
+    <t>Automation WPR Project2348355</t>
+  </si>
+  <si>
+    <t>Education Support</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>25892 Fahey Fords</t>
+  </si>
+  <si>
+    <t>Charleyfurt</t>
+  </si>
+  <si>
+    <t>65896</t>
+  </si>
+  <si>
+    <t>025023</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>WPR006388</t>
+  </si>
+  <si>
+    <t>Automation WPR Project6336645</t>
+  </si>
+  <si>
     <t>101 Moorgate</t>
   </si>
   <si>
-    <t>Linette</t>
-  </si>
-  <si>
-    <t>ashley.jacobs@gmail.com</t>
-  </si>
-  <si>
-    <t>4688505956</t>
-  </si>
-  <si>
-    <t>Medical Support</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>Automation WPR Project1839088</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>06524 Rowena Ports</t>
-  </si>
-  <si>
-    <t>Lake Ione</t>
-  </si>
-  <si>
-    <t>38923-0738</t>
-  </si>
-  <si>
-    <t>011977</t>
-  </si>
-  <si>
-    <t>gokulthiru22@gmail.com</t>
-  </si>
-  <si>
-    <t>WPR006273</t>
-  </si>
-  <si>
-    <t>CardNumber</t>
-  </si>
-  <si>
-    <t>CardCVC</t>
-  </si>
-  <si>
-    <t>CardExpDate</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>16095</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6045912</t>
-  </si>
-  <si>
-    <t>2202266982</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5698076</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>8108</t>
-  </si>
-  <si>
-    <t>108 Watsica Knolls</t>
-  </si>
-  <si>
-    <t>South Eltonchester</t>
-  </si>
-  <si>
-    <t>07007</t>
-  </si>
-  <si>
-    <t>WELLP06306</t>
-  </si>
-  <si>
-    <t>Christiane</t>
-  </si>
-  <si>
-    <t>stephan.conn@gmail.com</t>
-  </si>
-  <si>
-    <t>8077847477</t>
-  </si>
-  <si>
-    <t>Priscilla</t>
-  </si>
-  <si>
-    <t>ProjectScope</t>
-  </si>
-  <si>
-    <t>ProjectGoals</t>
-  </si>
-  <si>
-    <t>BillingName</t>
-  </si>
-  <si>
-    <t>BillingOrganization</t>
-  </si>
-  <si>
-    <t>BillingStatus</t>
-  </si>
-  <si>
-    <t>ChallengeNote</t>
-  </si>
-  <si>
-    <t>CommunicationNote</t>
-  </si>
-  <si>
-    <t>BillingNote</t>
-  </si>
-  <si>
-    <t>ProjectScope Testing</t>
-  </si>
-  <si>
-    <t>ProjectGoals Testing</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>BillingOrganization Test</t>
-  </si>
-  <si>
-    <t>BillingStatus Test</t>
-  </si>
-  <si>
-    <t>ChallengeNote Test</t>
-  </si>
-  <si>
-    <t>CommunicationNote Test</t>
-  </si>
-  <si>
-    <t>BillingNote Test</t>
+    <t>Air Travel</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>460 Herschel Via</t>
+  </si>
+  <si>
+    <t>East Justin</t>
+  </si>
+  <si>
+    <t>83289-0351</t>
+  </si>
+  <si>
+    <t>03489</t>
+  </si>
+  <si>
+    <t>Myron</t>
+  </si>
+  <si>
+    <t>WPR006389</t>
+  </si>
+  <si>
+    <t>Automation WPR Project4740366</t>
+  </si>
+  <si>
+    <t>Retirement Communities</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>22638 Lueilwitz Mountains</t>
+  </si>
+  <si>
+    <t>Margertburgh</t>
+  </si>
+  <si>
+    <t>42923</t>
+  </si>
+  <si>
+    <t>25236</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>WPR006390</t>
+  </si>
+  <si>
+    <t>Automation WPR Project1777385</t>
+  </si>
+  <si>
+    <t>Warehousing &amp; Storage</t>
+  </si>
+  <si>
+    <t>22245 Spencer Ford</t>
+  </si>
+  <si>
+    <t>Lake Clarissaview</t>
+  </si>
+  <si>
+    <t>47942-9097</t>
+  </si>
+  <si>
+    <t>38518</t>
+  </si>
+  <si>
+    <t>Shayne</t>
+  </si>
+  <si>
+    <t>WPR006391</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 3959142</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 5227661</t>
+  </si>
+  <si>
+    <t>Post Secondary Education</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>9679 Windler Points</t>
+  </si>
+  <si>
+    <t>East Wava</t>
+  </si>
+  <si>
+    <t>71218-4286</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>Trina</t>
+  </si>
+  <si>
+    <t>HSRP006392</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 7224818</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>68558 Boyer Crest</t>
+  </si>
+  <si>
+    <t>North Huefurt</t>
+  </si>
+  <si>
+    <t>97551</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>HSRP006393</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -534,13 +694,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,8 +989,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -891,30 +1050,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -923,16 +1081,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -956,69 +1114,69 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -1045,13 +1203,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1071,39 +1230,39 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1118,40 +1277,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="63.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1181,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1193,10 +1352,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -1205,102 +1364,102 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="V1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="X1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>142</v>
+      <c r="Z1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>102</v>
-      </c>
-      <c r="N2" t="s">
-        <v>104</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1312,37 +1471,37 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
         <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>150</v>
+        <v>75</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1361,22 +1520,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1384,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1402,72 +1561,72 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -1489,38 +1648,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.3203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1541,7 +1700,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1550,51 +1709,51 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -1615,33 +1774,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.64453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1653,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1680,54 +1839,54 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -1754,34 +1913,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -1790,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -1805,48 +1964,48 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F47B89-92D3-4CD7-8B1B-57AB5E3F354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F0CBD-A812-4402-99DB-308D21AFD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
   <si>
     <t>UserName</t>
   </si>
@@ -139,9 +139,6 @@
     <t>999</t>
   </si>
   <si>
-    <t>100 RESILIENT CITIES</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -319,48 +316,9 @@
     <t>BillingNote Test</t>
   </si>
   <si>
-    <t>Automation V2 Project7921697</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>43901</t>
-  </si>
-  <si>
-    <t>2202267602</t>
-  </si>
-  <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>dominique.kessler@hotmail.com</t>
-  </si>
-  <si>
-    <t>5506461948</t>
-  </si>
-  <si>
-    <t>Materials &amp; Chemicals</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
-    <t>74737 Franecki Underpass</t>
-  </si>
-  <si>
-    <t>Bergestad</t>
-  </si>
-  <si>
-    <t>61337</t>
-  </si>
-  <si>
-    <t>Lonny</t>
-  </si>
-  <si>
-    <t>Letter of Assurance – Engineer</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -454,117 +412,12 @@
     <t>Jeffery</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>046 Dorian Key</t>
-  </si>
-  <si>
-    <t>Bauchview</t>
-  </si>
-  <si>
-    <t>63126-2316</t>
-  </si>
-  <si>
-    <t>5700</t>
-  </si>
-  <si>
-    <t>Bok</t>
-  </si>
-  <si>
-    <t>HSRP006387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation HSR Project </t>
-  </si>
-  <si>
-    <t>Automation WPR Project2348355</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>25892 Fahey Fords</t>
-  </si>
-  <si>
-    <t>Charleyfurt</t>
-  </si>
-  <si>
-    <t>65896</t>
-  </si>
-  <si>
-    <t>025023</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>WPR006388</t>
-  </si>
-  <si>
-    <t>Automation WPR Project6336645</t>
-  </si>
-  <si>
     <t>101 Moorgate</t>
   </si>
   <si>
     <t>Air Travel</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>460 Herschel Via</t>
-  </si>
-  <si>
-    <t>East Justin</t>
-  </si>
-  <si>
-    <t>83289-0351</t>
-  </si>
-  <si>
-    <t>03489</t>
-  </si>
-  <si>
-    <t>Myron</t>
-  </si>
-  <si>
-    <t>WPR006389</t>
-  </si>
-  <si>
-    <t>Automation WPR Project4740366</t>
-  </si>
-  <si>
-    <t>Retirement Communities</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>22638 Lueilwitz Mountains</t>
-  </si>
-  <si>
-    <t>Margertburgh</t>
-  </si>
-  <si>
-    <t>42923</t>
-  </si>
-  <si>
-    <t>25236</t>
-  </si>
-  <si>
-    <t>Maximo</t>
-  </si>
-  <si>
-    <t>WPR006390</t>
-  </si>
-  <si>
     <t>Automation WPR Project1777385</t>
   </si>
   <si>
@@ -589,36 +442,6 @@
     <t>WPR006391</t>
   </si>
   <si>
-    <t>Automation HSR Project 3959142</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 5227661</t>
-  </si>
-  <si>
-    <t>Post Secondary Education</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>9679 Windler Points</t>
-  </si>
-  <si>
-    <t>East Wava</t>
-  </si>
-  <si>
-    <t>71218-4286</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>Trina</t>
-  </si>
-  <si>
-    <t>HSRP006392</t>
-  </si>
-  <si>
     <t>Automation HSR Project 7224818</t>
   </si>
   <si>
@@ -644,6 +467,60 @@
   </si>
   <si>
     <t>HSRP006393</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Maegan</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2475539</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>43253</t>
+  </si>
+  <si>
+    <t>2202267753</t>
+  </si>
+  <si>
+    <t>Ernie</t>
+  </si>
+  <si>
+    <t>cammy.brakus@hotmail.com</t>
+  </si>
+  <si>
+    <t>5231167562</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4484667</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>9522 Rempel Hollow</t>
+  </si>
+  <si>
+    <t>Russelside</t>
+  </si>
+  <si>
+    <t>39006-5051</t>
+  </si>
+  <si>
+    <t>20252</t>
+  </si>
+  <si>
+    <t>2202267755</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1081,16 +958,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -1114,69 +991,69 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
       </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
         <v>76</v>
-      </c>
-      <c r="R1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -1230,39 +1107,39 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1277,30 +1154,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="63.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.4765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="21" max="22" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -1310,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1340,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1352,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
         <v>71</v>
-      </c>
-      <c r="P1" t="s">
-        <v>72</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -1364,102 +1240,102 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="R2" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1471,37 +1347,37 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s">
         <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>90</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>91</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>92</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>93</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1561,72 +1437,72 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
         <v>76</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -1654,18 +1530,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.3203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -1673,13 +1549,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1700,7 +1576,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1709,51 +1585,51 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
         <v>76</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -1774,25 +1650,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.64453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -1800,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1812,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1839,54 +1715,54 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
         <v>76</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -1931,16 +1807,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -1949,10 +1825,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -1964,48 +1840,48 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
   <si>
     <t>UserName</t>
   </si>
@@ -521,6 +521,150 @@
   </si>
   <si>
     <t>2202267755</t>
+  </si>
+  <si>
+    <t>Automation V2 Project203564</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>037 Silas Walks</t>
+  </si>
+  <si>
+    <t>South Virgilio</t>
+  </si>
+  <si>
+    <t>70017</t>
+  </si>
+  <si>
+    <t>39601</t>
+  </si>
+  <si>
+    <t>2202268159</t>
+  </si>
+  <si>
+    <t>Kiesha</t>
+  </si>
+  <si>
+    <t>carin.dare@yahoo.com</t>
+  </si>
+  <si>
+    <t>3934935862</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Northern Mariana Isl</t>
+  </si>
+  <si>
+    <t>974 Ward Highway</t>
+  </si>
+  <si>
+    <t>Luettgenbury</t>
+  </si>
+  <si>
+    <t>87448</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>Policy and/or Operations Schedule</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3636887</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>8268 Andreas Villages</t>
+  </si>
+  <si>
+    <t>Loweshire</t>
+  </si>
+  <si>
+    <t>89723</t>
+  </si>
+  <si>
+    <t>17025</t>
+  </si>
+  <si>
+    <t>2202268177</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>tory.kautzer@gmail.com</t>
+  </si>
+  <si>
+    <t>1145131349</t>
+  </si>
+  <si>
+    <t>Early Childcare</t>
+  </si>
+  <si>
+    <t>952 Soledad Mills</t>
+  </si>
+  <si>
+    <t>East Rosalynborough</t>
+  </si>
+  <si>
+    <t>47586-9537</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1572821</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>144 Beatris Rest</t>
+  </si>
+  <si>
+    <t>Tylermouth</t>
+  </si>
+  <si>
+    <t>43346</t>
+  </si>
+  <si>
+    <t>14365</t>
+  </si>
+  <si>
+    <t>2202268178</t>
+  </si>
+  <si>
+    <t>Alleen</t>
+  </si>
+  <si>
+    <t>forest.maggio@gmail.com</t>
+  </si>
+  <si>
+    <t>8905606588</t>
+  </si>
+  <si>
+    <t>Wellness Services</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>80237 Fiona Spurs</t>
+  </si>
+  <si>
+    <t>Halvorsonburgh</t>
+  </si>
+  <si>
+    <t>52672</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
   </si>
 </sst>
 </file>
@@ -1162,26 +1306,28 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.4765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.44921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.8125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.4375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.15625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.8125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.51171875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6484375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1284,58 +1430,58 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="Q2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="R2" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F0CBD-A812-4402-99DB-308D21AFD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F300EFE-48A5-4C67-8A5F-071596D972B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>UserName</t>
   </si>
@@ -415,9 +415,6 @@
     <t>101 Moorgate</t>
   </si>
   <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
     <t>Automation WPR Project1777385</t>
   </si>
   <si>
@@ -469,210 +466,80 @@
     <t>HSRP006393</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Maegan</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Irina</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2475539</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>43253</t>
-  </si>
-  <si>
-    <t>2202267753</t>
-  </si>
-  <si>
-    <t>Ernie</t>
-  </si>
-  <si>
-    <t>cammy.brakus@hotmail.com</t>
-  </si>
-  <si>
-    <t>5231167562</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4484667</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>9522 Rempel Hollow</t>
-  </si>
-  <si>
-    <t>Russelside</t>
-  </si>
-  <si>
-    <t>39006-5051</t>
-  </si>
-  <si>
-    <t>20252</t>
-  </si>
-  <si>
-    <t>2202267755</t>
-  </si>
-  <si>
-    <t>Automation V2 Project203564</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>037 Silas Walks</t>
-  </si>
-  <si>
-    <t>South Virgilio</t>
-  </si>
-  <si>
-    <t>70017</t>
-  </si>
-  <si>
-    <t>39601</t>
-  </si>
-  <si>
-    <t>2202268159</t>
-  </si>
-  <si>
-    <t>Kiesha</t>
-  </si>
-  <si>
-    <t>carin.dare@yahoo.com</t>
-  </si>
-  <si>
-    <t>3934935862</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Northern Mariana Isl</t>
-  </si>
-  <si>
-    <t>974 Ward Highway</t>
-  </si>
-  <si>
-    <t>Luettgenbury</t>
-  </si>
-  <si>
-    <t>87448</t>
-  </si>
-  <si>
-    <t>Terrance</t>
-  </si>
-  <si>
-    <t>Policy and/or Operations Schedule</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3636887</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>8268 Andreas Villages</t>
-  </si>
-  <si>
-    <t>Loweshire</t>
-  </si>
-  <si>
-    <t>89723</t>
-  </si>
-  <si>
-    <t>17025</t>
-  </si>
-  <si>
-    <t>2202268177</t>
-  </si>
-  <si>
-    <t>Ronny</t>
-  </si>
-  <si>
-    <t>tory.kautzer@gmail.com</t>
-  </si>
-  <si>
-    <t>1145131349</t>
-  </si>
-  <si>
-    <t>Early Childcare</t>
-  </si>
-  <si>
-    <t>952 Soledad Mills</t>
-  </si>
-  <si>
-    <t>East Rosalynborough</t>
-  </si>
-  <si>
-    <t>47586-9537</t>
-  </si>
-  <si>
-    <t>Alec</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1572821</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>144 Beatris Rest</t>
-  </si>
-  <si>
-    <t>Tylermouth</t>
-  </si>
-  <si>
-    <t>43346</t>
-  </si>
-  <si>
-    <t>14365</t>
-  </si>
-  <si>
-    <t>2202268178</t>
-  </si>
-  <si>
-    <t>Alleen</t>
-  </si>
-  <si>
-    <t>forest.maggio@gmail.com</t>
-  </si>
-  <si>
-    <t>8905606588</t>
-  </si>
-  <si>
-    <t>Wellness Services</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>80237 Fiona Spurs</t>
-  </si>
-  <si>
-    <t>Halvorsonburgh</t>
-  </si>
-  <si>
-    <t>52672</t>
-  </si>
-  <si>
-    <t>Cheyenne</t>
+    <t>MarketSector</t>
+  </si>
+  <si>
+    <t>Automation V2 Project7681544</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>4868</t>
+  </si>
+  <si>
+    <t>2202268262</t>
+  </si>
+  <si>
+    <t>Lurline</t>
+  </si>
+  <si>
+    <t>marge.jenkins@yahoo.com</t>
+  </si>
+  <si>
+    <t>4487435420</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Government/Municipal Buildings</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>692 Annamarie Fall</t>
+  </si>
+  <si>
+    <t>New Deirdre</t>
+  </si>
+  <si>
+    <t>52500-9839</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
+    <t>EnrollFee</t>
+  </si>
+  <si>
+    <t>ProgramFee</t>
+  </si>
+  <si>
+    <t>DiscountAppliedAmount</t>
+  </si>
+  <si>
+    <t>TotalFee</t>
+  </si>
+  <si>
+    <t>$3,150 USD</t>
+  </si>
+  <si>
+    <t>$4,225 USD</t>
+  </si>
+  <si>
+    <t>$1,625 USD</t>
+  </si>
+  <si>
+    <t>$5,850 USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +559,12 @@
       <sz val="11"/>
       <color rgb="FF111827"/>
       <name val="Museo-sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -715,12 +588,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1010,8 +885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1071,24 +946,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1224,14 +1099,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1296,41 +1171,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.8125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.4375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.15625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.8125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.51171875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.6484375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.671875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1427,61 +1314,76 @@
       <c r="AF1" t="s">
         <v>85</v>
       </c>
+      <c r="AG1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:37">
       <c r="A2" s="4" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="Q2" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="R2" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1524,6 +1426,21 @@
       </c>
       <c r="AF2" t="s">
         <v>93</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1542,22 +1459,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1676,21 +1593,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1742,40 +1659,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>139</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
       <c r="K2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" t="s">
         <v>142</v>
-      </c>
-      <c r="L2" t="s">
-        <v>143</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -1802,22 +1719,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1872,10 +1789,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1887,16 +1804,16 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
         <v>129</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>130</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>131</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -1905,10 +1822,10 @@
         <v>37</v>
       </c>
       <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
         <v>133</v>
-      </c>
-      <c r="M2" t="s">
-        <v>134</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -1935,20 +1852,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F300EFE-48A5-4C67-8A5F-071596D972B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1BF91-7688-4D19-BB2C-E1D432B620C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
   <si>
     <t>UserName</t>
   </si>
@@ -466,51 +466,9 @@
     <t>HSRP006393</t>
   </si>
   <si>
-    <t>MarketSector</t>
-  </si>
-  <si>
-    <t>Automation V2 Project7681544</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>4868</t>
-  </si>
-  <si>
-    <t>2202268262</t>
-  </si>
-  <si>
-    <t>Lurline</t>
-  </si>
-  <si>
-    <t>marge.jenkins@yahoo.com</t>
-  </si>
-  <si>
-    <t>4487435420</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>Government/Municipal Buildings</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>692 Annamarie Fall</t>
-  </si>
-  <si>
-    <t>New Deirdre</t>
-  </si>
-  <si>
-    <t>52500-9839</t>
-  </si>
-  <si>
-    <t>Darin</t>
-  </si>
-  <si>
     <t>EnrollFee</t>
   </si>
   <si>
@@ -533,6 +491,63 @@
   </si>
   <si>
     <t>$5,850 USD</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4009394</t>
+  </si>
+  <si>
+    <t>15909</t>
+  </si>
+  <si>
+    <t>2202268382</t>
+  </si>
+  <si>
+    <t>Audra</t>
+  </si>
+  <si>
+    <t>kina.quigley@hotmail.com</t>
+  </si>
+  <si>
+    <t>4231043739</t>
+  </si>
+  <si>
+    <t>Museums, Libraries</t>
+  </si>
+  <si>
+    <t>10349 Jerde Flats</t>
+  </si>
+  <si>
+    <t>Bayerchester</t>
+  </si>
+  <si>
+    <t>07432-3183</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Letter of Assurance – Designer</t>
+  </si>
+  <si>
+    <t>MarketSectorName</t>
+  </si>
+  <si>
+    <t>NoDiscEnrollFee</t>
+  </si>
+  <si>
+    <t>NoDiscProgramFee</t>
+  </si>
+  <si>
+    <t>NoDiscTotalFee</t>
+  </si>
+  <si>
+    <t>$9,000 USD</t>
+  </si>
+  <si>
+    <t>$6,500 USD</t>
+  </si>
+  <si>
+    <t>$2,500 USD</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,18 +1198,18 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1211,13 +1226,16 @@
     <col min="30" max="30" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="21.140625" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" customWidth="1"/>
+    <col min="33" max="33" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="18.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1315,75 +1333,84 @@
         <v>85</v>
       </c>
       <c r="AG1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AI1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AJ1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AK1" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="R2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1428,20 +1455,30 @@
         <v>93</v>
       </c>
       <c r="AG2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1BF91-7688-4D19-BB2C-E1D432B620C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B58330-D01E-4B59-A23C-EEE280B14EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="240">
   <si>
     <t>UserName</t>
   </si>
@@ -484,51 +484,6 @@
     <t>$3,150 USD</t>
   </si>
   <si>
-    <t>$4,225 USD</t>
-  </si>
-  <si>
-    <t>$1,625 USD</t>
-  </si>
-  <si>
-    <t>$5,850 USD</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4009394</t>
-  </si>
-  <si>
-    <t>15909</t>
-  </si>
-  <si>
-    <t>2202268382</t>
-  </si>
-  <si>
-    <t>Audra</t>
-  </si>
-  <si>
-    <t>kina.quigley@hotmail.com</t>
-  </si>
-  <si>
-    <t>4231043739</t>
-  </si>
-  <si>
-    <t>Museums, Libraries</t>
-  </si>
-  <si>
-    <t>10349 Jerde Flats</t>
-  </si>
-  <si>
-    <t>Bayerchester</t>
-  </si>
-  <si>
-    <t>07432-3183</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Letter of Assurance – Designer</t>
-  </si>
-  <si>
     <t>MarketSectorName</t>
   </si>
   <si>
@@ -541,19 +496,269 @@
     <t>NoDiscTotalFee</t>
   </si>
   <si>
-    <t>$9,000 USD</t>
-  </si>
-  <si>
-    <t>$6,500 USD</t>
-  </si>
-  <si>
-    <t>$2,500 USD</t>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
+    <t>5850</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Automation V2 Project7664610</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>78756</t>
+  </si>
+  <si>
+    <t>2202268515</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>wilma.blick@yahoo.com</t>
+  </si>
+  <si>
+    <t>1191273850</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>78984 Dwain Trail</t>
+  </si>
+  <si>
+    <t>Murraytown</t>
+  </si>
+  <si>
+    <t>34132</t>
+  </si>
+  <si>
+    <t>Alfonzo</t>
+  </si>
+  <si>
+    <t>Automation V2 Project5643830</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>35457</t>
+  </si>
+  <si>
+    <t>2202268516</t>
+  </si>
+  <si>
+    <t>Issac</t>
+  </si>
+  <si>
+    <t>misti.armstrong@yahoo.com</t>
+  </si>
+  <si>
+    <t>8078903951</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>0549 Herzog Club</t>
+  </si>
+  <si>
+    <t>Waelchiberg</t>
+  </si>
+  <si>
+    <t>09829</t>
+  </si>
+  <si>
+    <t>Deane</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6805729</t>
+  </si>
+  <si>
+    <t>Nei Mongol</t>
+  </si>
+  <si>
+    <t>9964 Tomasa Forest</t>
+  </si>
+  <si>
+    <t>Loreanside</t>
+  </si>
+  <si>
+    <t>31521</t>
+  </si>
+  <si>
+    <t>26931</t>
+  </si>
+  <si>
+    <t>2202268517</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>rosaura.schuster@yahoo.com</t>
+  </si>
+  <si>
+    <t>7159748411</t>
+  </si>
+  <si>
+    <t>Energy Production</t>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>48620 Krajcik Valley</t>
+  </si>
+  <si>
+    <t>Micahfurt</t>
+  </si>
+  <si>
+    <t>52577-4480</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6056574</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>77378 Norberto Harbor</t>
+  </si>
+  <si>
+    <t>Grahamton</t>
+  </si>
+  <si>
+    <t>63687</t>
+  </si>
+  <si>
+    <t>80291</t>
+  </si>
+  <si>
+    <t>2202268518</t>
+  </si>
+  <si>
+    <t>100 RESILIENT CITIES</t>
+  </si>
+  <si>
+    <t>Darrick</t>
+  </si>
+  <si>
+    <t>joesph.langworth@hotmail.com</t>
+  </si>
+  <si>
+    <t>9457438476</t>
+  </si>
+  <si>
+    <t>Water Travel</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>764 Larae Gardens</t>
+  </si>
+  <si>
+    <t>Grahamstad</t>
+  </si>
+  <si>
+    <t>81820-7143</t>
+  </si>
+  <si>
+    <t>Doretha</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>790 Brendon Shores</t>
+  </si>
+  <si>
+    <t>Kohlermouth</t>
+  </si>
+  <si>
+    <t>27006</t>
+  </si>
+  <si>
+    <t>Automation V2 Project5295053</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>707 Hickle Shoal</t>
+  </si>
+  <si>
+    <t>North Adrian</t>
+  </si>
+  <si>
+    <t>33197</t>
+  </si>
+  <si>
+    <t>14424</t>
+  </si>
+  <si>
+    <t>2202268519</t>
+  </si>
+  <si>
+    <t>Karyl</t>
+  </si>
+  <si>
+    <t>zack.yundt@hotmail.com</t>
+  </si>
+  <si>
+    <t>1336502775</t>
+  </si>
+  <si>
+    <t>Building Services</t>
+  </si>
+  <si>
+    <t>6225 Kirlin Common</t>
+  </si>
+  <si>
+    <t>Boyleberg</t>
+  </si>
+  <si>
+    <t>28453</t>
+  </si>
+  <si>
+    <t>Clayton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -900,8 +1105,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -961,24 +1166,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1114,14 +1319,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0078125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.23046875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1158,16 +1363,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1186,53 +1391,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="18.7109375" customWidth="1"/>
-    <col min="39" max="39" width="18.28515625" customWidth="1"/>
-    <col min="40" max="40" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.93359375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.68359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.93359375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.51953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="18.14453125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.99609375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -1333,7 +1539,7 @@
         <v>85</v>
       </c>
       <c r="AG1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AH1" t="s">
         <v>145</v>
@@ -1348,69 +1554,69 @@
         <v>148</v>
       </c>
       <c r="AL1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="AM1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AN1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="R2" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1458,27 +1664,128 @@
         <v>144</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>149</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AO2" s="6"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,22 +1803,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1630,21 +1937,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1756,22 +2063,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1889,20 +2196,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="248">
   <si>
     <t>UserName</t>
   </si>
@@ -752,6 +752,30 @@
   </si>
   <si>
     <t>Clayton</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>262 Weimann Causeway</t>
+  </si>
+  <si>
+    <t>Darnellview</t>
+  </si>
+  <si>
+    <t>24790-9917</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>23630 Lebsack Corner</t>
+  </si>
+  <si>
+    <t>New Rubin</t>
+  </si>
+  <si>
+    <t>04796</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1344,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0078125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.23046875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.27734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.63671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
@@ -1363,16 +1387,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="339">
   <si>
     <t>UserName</t>
   </si>
@@ -776,6 +776,279 @@
   </si>
   <si>
     <t>04796</t>
+  </si>
+  <si>
+    <t>Automation V2 Project738828</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>991 Maribeth Stream</t>
+  </si>
+  <si>
+    <t>Isrealmouth</t>
+  </si>
+  <si>
+    <t>88416</t>
+  </si>
+  <si>
+    <t>32130</t>
+  </si>
+  <si>
+    <t>2202268654</t>
+  </si>
+  <si>
+    <t>Damaris</t>
+  </si>
+  <si>
+    <t>latesha.rath@gmail.com</t>
+  </si>
+  <si>
+    <t>6481320668</t>
+  </si>
+  <si>
+    <t>Student Housing</t>
+  </si>
+  <si>
+    <t>41668 Alphonso View</t>
+  </si>
+  <si>
+    <t>Dickiview</t>
+  </si>
+  <si>
+    <t>62305-6424</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6622627</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>17137 Kuphal Cove</t>
+  </si>
+  <si>
+    <t>South Claudio</t>
+  </si>
+  <si>
+    <t>02013-4718</t>
+  </si>
+  <si>
+    <t>47121</t>
+  </si>
+  <si>
+    <t>2202268655</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>denny.gorczany@yahoo.com</t>
+  </si>
+  <si>
+    <t>5863983284</t>
+  </si>
+  <si>
+    <t>Medical Support</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>016 Jamal Path</t>
+  </si>
+  <si>
+    <t>Giashire</t>
+  </si>
+  <si>
+    <t>24880</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4502070</t>
+  </si>
+  <si>
+    <t>7832 Joel Gateway</t>
+  </si>
+  <si>
+    <t>Lueshire</t>
+  </si>
+  <si>
+    <t>78193</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>2202268656</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>hoyt.purdy@hotmail.com</t>
+  </si>
+  <si>
+    <t>7804792542</t>
+  </si>
+  <si>
+    <t>Primary or Secondary Education</t>
+  </si>
+  <si>
+    <t>Northern Mariana Isl</t>
+  </si>
+  <si>
+    <t>996 Whitney Ports</t>
+  </si>
+  <si>
+    <t>Marianofurt</t>
+  </si>
+  <si>
+    <t>25711</t>
+  </si>
+  <si>
+    <t>Amado</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1968605</t>
+  </si>
+  <si>
+    <t>3432 Wisozk Track</t>
+  </si>
+  <si>
+    <t>Wolffchester</t>
+  </si>
+  <si>
+    <t>14522</t>
+  </si>
+  <si>
+    <t>21952</t>
+  </si>
+  <si>
+    <t>2202268657</t>
+  </si>
+  <si>
+    <t>Jacklyn</t>
+  </si>
+  <si>
+    <t>carolin.davis@hotmail.com</t>
+  </si>
+  <si>
+    <t>6362877461</t>
+  </si>
+  <si>
+    <t>Corporate Real Estate</t>
+  </si>
+  <si>
+    <t>55622 Gerlach Mall</t>
+  </si>
+  <si>
+    <t>Lake Piaview</t>
+  </si>
+  <si>
+    <t>74365-2154</t>
+  </si>
+  <si>
+    <t>Maryjo</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4617943</t>
+  </si>
+  <si>
+    <t>85972 Lupe Brooks</t>
+  </si>
+  <si>
+    <t>Port Sandy</t>
+  </si>
+  <si>
+    <t>46237</t>
+  </si>
+  <si>
+    <t>64990</t>
+  </si>
+  <si>
+    <t>2202268658</t>
+  </si>
+  <si>
+    <t>Virgilio</t>
+  </si>
+  <si>
+    <t>tamala.moore@hotmail.com</t>
+  </si>
+  <si>
+    <t>7047563467</t>
+  </si>
+  <si>
+    <t>Museums, Libraries</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>331 Neta Street</t>
+  </si>
+  <si>
+    <t>Deirdrechester</t>
+  </si>
+  <si>
+    <t>30189</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6461772</t>
+  </si>
+  <si>
+    <t>6206 Ratke Lights</t>
+  </si>
+  <si>
+    <t>Port Tim</t>
+  </si>
+  <si>
+    <t>62484</t>
+  </si>
+  <si>
+    <t>36607</t>
+  </si>
+  <si>
+    <t>2202268659</t>
+  </si>
+  <si>
+    <t>Dorinda</t>
+  </si>
+  <si>
+    <t>kimbra.cartwright@gmail.com</t>
+  </si>
+  <si>
+    <t>3073206277</t>
+  </si>
+  <si>
+    <t>Education Support</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>3307 Schowalter Estates</t>
+  </si>
+  <si>
+    <t>Beahantown</t>
+  </si>
+  <si>
+    <t>97458-7236</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6681892</t>
   </si>
 </sst>
 </file>
@@ -1429,14 +1702,14 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.93359375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.68359375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.89453125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.93359375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.51953125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.8671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.484375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
@@ -1589,58 +1862,58 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="K2" t="s">
         <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="N2" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="Q2" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="R2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1715,7 +1988,7 @@
         <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>197</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B58330-D01E-4B59-A23C-EEE280B14EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F3A94-065C-415F-BB76-71C745BA20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="187">
   <si>
     <t>UserName</t>
   </si>
@@ -205,9 +205,6 @@
     <t>https://test-nuxt.wellcertified.com/</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -346,15 +343,6 @@
     <t>w633e80d90291d</t>
   </si>
   <si>
-    <t>36055 Halvorson Alley</t>
-  </si>
-  <si>
-    <t>Henrystad</t>
-  </si>
-  <si>
-    <t>26973</t>
-  </si>
-  <si>
     <t>Tajuana</t>
   </si>
   <si>
@@ -466,589 +454,145 @@
     <t>HSRP006393</t>
   </si>
   <si>
+    <t>EnrollFee</t>
+  </si>
+  <si>
+    <t>ProgramFee</t>
+  </si>
+  <si>
+    <t>DiscountAppliedAmount</t>
+  </si>
+  <si>
+    <t>TotalFee</t>
+  </si>
+  <si>
+    <t>$3,150 USD</t>
+  </si>
+  <si>
+    <t>MarketSectorName</t>
+  </si>
+  <si>
+    <t>NoDiscEnrollFee</t>
+  </si>
+  <si>
+    <t>NoDiscProgramFee</t>
+  </si>
+  <si>
+    <t>NoDiscTotalFee</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
+    <t>5850</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>23630 Lebsack Corner</t>
+  </si>
+  <si>
+    <t>New Rubin</t>
+  </si>
+  <si>
+    <t>04796</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>Government/Municipal Buildings</t>
   </si>
   <si>
-    <t>EnrollFee</t>
-  </si>
-  <si>
-    <t>ProgramFee</t>
-  </si>
-  <si>
-    <t>DiscountAppliedAmount</t>
-  </si>
-  <si>
-    <t>TotalFee</t>
-  </si>
-  <si>
-    <t>$3,150 USD</t>
-  </si>
-  <si>
-    <t>MarketSectorName</t>
-  </si>
-  <si>
-    <t>NoDiscEnrollFee</t>
-  </si>
-  <si>
-    <t>NoDiscProgramFee</t>
-  </si>
-  <si>
-    <t>NoDiscTotalFee</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>6500</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>4225</t>
-  </si>
-  <si>
-    <t>5850</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>Automation V2 Project7664610</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>78756</t>
-  </si>
-  <si>
-    <t>2202268515</t>
-  </si>
-  <si>
-    <t>Jonah</t>
-  </si>
-  <si>
-    <t>wilma.blick@yahoo.com</t>
-  </si>
-  <si>
-    <t>1191273850</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>78984 Dwain Trail</t>
-  </si>
-  <si>
-    <t>Murraytown</t>
-  </si>
-  <si>
-    <t>34132</t>
-  </si>
-  <si>
-    <t>Alfonzo</t>
-  </si>
-  <si>
-    <t>Automation V2 Project5643830</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>35457</t>
-  </si>
-  <si>
-    <t>2202268516</t>
-  </si>
-  <si>
-    <t>Issac</t>
-  </si>
-  <si>
-    <t>misti.armstrong@yahoo.com</t>
-  </si>
-  <si>
-    <t>8078903951</t>
-  </si>
-  <si>
-    <t>REIT</t>
-  </si>
-  <si>
-    <t>0549 Herzog Club</t>
-  </si>
-  <si>
-    <t>Waelchiberg</t>
-  </si>
-  <si>
-    <t>09829</t>
-  </si>
-  <si>
-    <t>Deane</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6805729</t>
-  </si>
-  <si>
-    <t>Nei Mongol</t>
-  </si>
-  <si>
-    <t>9964 Tomasa Forest</t>
-  </si>
-  <si>
-    <t>Loreanside</t>
-  </si>
-  <si>
-    <t>31521</t>
-  </si>
-  <si>
-    <t>26931</t>
-  </si>
-  <si>
-    <t>2202268517</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>rosaura.schuster@yahoo.com</t>
-  </si>
-  <si>
-    <t>7159748411</t>
-  </si>
-  <si>
-    <t>Energy Production</t>
-  </si>
-  <si>
-    <t>Fujian</t>
-  </si>
-  <si>
-    <t>48620 Krajcik Valley</t>
-  </si>
-  <si>
-    <t>Micahfurt</t>
-  </si>
-  <si>
-    <t>52577-4480</t>
-  </si>
-  <si>
-    <t>Mikel</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6056574</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>77378 Norberto Harbor</t>
-  </si>
-  <si>
-    <t>Grahamton</t>
-  </si>
-  <si>
-    <t>63687</t>
-  </si>
-  <si>
-    <t>80291</t>
-  </si>
-  <si>
-    <t>2202268518</t>
-  </si>
-  <si>
-    <t>100 RESILIENT CITIES</t>
-  </si>
-  <si>
-    <t>Darrick</t>
-  </si>
-  <si>
-    <t>joesph.langworth@hotmail.com</t>
-  </si>
-  <si>
-    <t>9457438476</t>
-  </si>
-  <si>
-    <t>Water Travel</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>764 Larae Gardens</t>
-  </si>
-  <si>
-    <t>Grahamstad</t>
-  </si>
-  <si>
-    <t>81820-7143</t>
-  </si>
-  <si>
-    <t>Doretha</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>790 Brendon Shores</t>
-  </si>
-  <si>
-    <t>Kohlermouth</t>
-  </si>
-  <si>
-    <t>27006</t>
-  </si>
-  <si>
-    <t>Automation V2 Project5295053</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>707 Hickle Shoal</t>
-  </si>
-  <si>
-    <t>North Adrian</t>
-  </si>
-  <si>
-    <t>33197</t>
-  </si>
-  <si>
-    <t>14424</t>
-  </si>
-  <si>
-    <t>2202268519</t>
-  </si>
-  <si>
-    <t>Karyl</t>
-  </si>
-  <si>
-    <t>zack.yundt@hotmail.com</t>
-  </si>
-  <si>
-    <t>1336502775</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>6225 Kirlin Common</t>
-  </si>
-  <si>
-    <t>Boyleberg</t>
-  </si>
-  <si>
-    <t>28453</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>262 Weimann Causeway</t>
-  </si>
-  <si>
-    <t>Darnellview</t>
-  </si>
-  <si>
-    <t>24790-9917</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>23630 Lebsack Corner</t>
-  </si>
-  <si>
-    <t>New Rubin</t>
-  </si>
-  <si>
-    <t>04796</t>
-  </si>
-  <si>
-    <t>Automation V2 Project738828</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>991 Maribeth Stream</t>
-  </si>
-  <si>
-    <t>Isrealmouth</t>
-  </si>
-  <si>
-    <t>88416</t>
-  </si>
-  <si>
-    <t>32130</t>
-  </si>
-  <si>
-    <t>2202268654</t>
-  </si>
-  <si>
-    <t>Damaris</t>
-  </si>
-  <si>
-    <t>latesha.rath@gmail.com</t>
-  </si>
-  <si>
-    <t>6481320668</t>
-  </si>
-  <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>41668 Alphonso View</t>
-  </si>
-  <si>
-    <t>Dickiview</t>
-  </si>
-  <si>
-    <t>62305-6424</t>
-  </si>
-  <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6622627</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>17137 Kuphal Cove</t>
-  </si>
-  <si>
-    <t>South Claudio</t>
-  </si>
-  <si>
-    <t>02013-4718</t>
-  </si>
-  <si>
-    <t>47121</t>
-  </si>
-  <si>
-    <t>2202268655</t>
-  </si>
-  <si>
-    <t>Coleman</t>
-  </si>
-  <si>
-    <t>denny.gorczany@yahoo.com</t>
-  </si>
-  <si>
-    <t>5863983284</t>
-  </si>
-  <si>
-    <t>Medical Support</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>016 Jamal Path</t>
-  </si>
-  <si>
-    <t>Giashire</t>
-  </si>
-  <si>
-    <t>24880</t>
-  </si>
-  <si>
-    <t>Shane</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4502070</t>
-  </si>
-  <si>
-    <t>7832 Joel Gateway</t>
-  </si>
-  <si>
-    <t>Lueshire</t>
-  </si>
-  <si>
-    <t>78193</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>2202268656</t>
-  </si>
-  <si>
-    <t>Paige</t>
-  </si>
-  <si>
-    <t>hoyt.purdy@hotmail.com</t>
-  </si>
-  <si>
-    <t>7804792542</t>
-  </si>
-  <si>
-    <t>Primary or Secondary Education</t>
-  </si>
-  <si>
-    <t>Northern Mariana Isl</t>
-  </si>
-  <si>
-    <t>996 Whitney Ports</t>
-  </si>
-  <si>
-    <t>Marianofurt</t>
-  </si>
-  <si>
-    <t>25711</t>
-  </si>
-  <si>
-    <t>Amado</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1968605</t>
-  </si>
-  <si>
-    <t>3432 Wisozk Track</t>
-  </si>
-  <si>
-    <t>Wolffchester</t>
-  </si>
-  <si>
-    <t>14522</t>
-  </si>
-  <si>
-    <t>21952</t>
-  </si>
-  <si>
-    <t>2202268657</t>
-  </si>
-  <si>
-    <t>Jacklyn</t>
-  </si>
-  <si>
-    <t>carolin.davis@hotmail.com</t>
-  </si>
-  <si>
-    <t>6362877461</t>
-  </si>
-  <si>
-    <t>Corporate Real Estate</t>
-  </si>
-  <si>
-    <t>55622 Gerlach Mall</t>
-  </si>
-  <si>
-    <t>Lake Piaview</t>
-  </si>
-  <si>
-    <t>74365-2154</t>
-  </si>
-  <si>
-    <t>Maryjo</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4617943</t>
-  </si>
-  <si>
-    <t>85972 Lupe Brooks</t>
-  </si>
-  <si>
-    <t>Port Sandy</t>
-  </si>
-  <si>
-    <t>46237</t>
-  </si>
-  <si>
-    <t>64990</t>
-  </si>
-  <si>
-    <t>2202268658</t>
-  </si>
-  <si>
-    <t>Virgilio</t>
-  </si>
-  <si>
-    <t>tamala.moore@hotmail.com</t>
-  </si>
-  <si>
-    <t>7047563467</t>
-  </si>
-  <si>
-    <t>Museums, Libraries</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>331 Neta Street</t>
-  </si>
-  <si>
-    <t>Deirdrechester</t>
-  </si>
-  <si>
-    <t>30189</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6461772</t>
-  </si>
-  <si>
-    <t>6206 Ratke Lights</t>
-  </si>
-  <si>
-    <t>Port Tim</t>
-  </si>
-  <si>
-    <t>62484</t>
-  </si>
-  <si>
-    <t>36607</t>
-  </si>
-  <si>
-    <t>2202268659</t>
-  </si>
-  <si>
-    <t>Dorinda</t>
-  </si>
-  <si>
-    <t>kimbra.cartwright@gmail.com</t>
-  </si>
-  <si>
-    <t>3073206277</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>3307 Schowalter Estates</t>
-  </si>
-  <si>
-    <t>Beahantown</t>
-  </si>
-  <si>
-    <t>97458-7236</t>
-  </si>
-  <si>
-    <t>Bridget</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6681892</t>
+    <t>Automation V2 Project3829047</t>
+  </si>
+  <si>
+    <t>19473</t>
+  </si>
+  <si>
+    <t>2202268689</t>
+  </si>
+  <si>
+    <t>Evonne</t>
+  </si>
+  <si>
+    <t>ferdinand.bailey@yahoo.com</t>
+  </si>
+  <si>
+    <t>2817478614</t>
+  </si>
+  <si>
+    <t>Investment Services</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>7280 D'Amore Key</t>
+  </si>
+  <si>
+    <t>Labadieview</t>
+  </si>
+  <si>
+    <t>51547</t>
+  </si>
+  <si>
+    <t>Automation V2 Project6985071</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>56969</t>
+  </si>
+  <si>
+    <t>2202268690</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>evan.rippin@hotmail.com</t>
+  </si>
+  <si>
+    <t>2928441533</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+  </si>
+  <si>
+    <t>54386 Mueller Island</t>
+  </si>
+  <si>
+    <t>Jacquilinechester</t>
+  </si>
+  <si>
+    <t>07231</t>
+  </si>
+  <si>
+    <t>9115</t>
+  </si>
+  <si>
+    <t>11615</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1494,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -1527,69 +1071,69 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
       </c>
       <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
         <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
         <v>118</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
-        <v>124</v>
-      </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -1616,14 +1160,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.27734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.015625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.63671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1652,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1660,16 +1204,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1690,30 +1234,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.93359375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.89453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.8671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.484375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -1729,10 +1273,10 @@
     <col min="31" max="31" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="32" max="32" customWidth="true" width="16.42578125" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="36" max="36" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="18.14453125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.99609375" collapsed="true"/>
@@ -1740,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1770,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1782,10 +1326,10 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -1794,126 +1338,126 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" t="s">
-        <v>85</v>
-      </c>
       <c r="AG1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AI1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL1" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>147</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>148</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="N2" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="Q2" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="R2" t="s">
-        <v>337</v>
+        <v>159</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1925,118 +1469,118 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
         <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" t="s">
-        <v>93</v>
-      </c>
       <c r="AG2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="AK2" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="N3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="O3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="Q3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="R3" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -2048,40 +1592,37 @@
         <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
         <v>13</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>90</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>92</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -2159,45 +1700,45 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
       <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
         <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -2206,7 +1747,7 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -2253,13 +1794,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2280,7 +1821,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -2289,51 +1830,51 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
         <v>75</v>
-      </c>
-      <c r="N1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -2380,7 +1921,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2392,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -2419,42 +1960,42 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -2463,10 +2004,10 @@
         <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -2544,13 +2085,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2558,13 +2099,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -2573,19 +2114,19 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F3A94-065C-415F-BB76-71C745BA20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD981CD-45C8-489F-8B70-1B476C94ABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="212">
   <si>
     <t>UserName</t>
   </si>
@@ -511,48 +511,9 @@
     <t>04796</t>
   </si>
   <si>
-    <t>Bridget</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>Government/Municipal Buildings</t>
   </si>
   <si>
-    <t>Automation V2 Project3829047</t>
-  </si>
-  <si>
-    <t>19473</t>
-  </si>
-  <si>
-    <t>2202268689</t>
-  </si>
-  <si>
-    <t>Evonne</t>
-  </si>
-  <si>
-    <t>ferdinand.bailey@yahoo.com</t>
-  </si>
-  <si>
-    <t>2817478614</t>
-  </si>
-  <si>
-    <t>Investment Services</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>7280 D'Amore Key</t>
-  </si>
-  <si>
-    <t>Labadieview</t>
-  </si>
-  <si>
-    <t>51547</t>
-  </si>
-  <si>
     <t>Automation V2 Project6985071</t>
   </si>
   <si>
@@ -593,6 +554,120 @@
   </si>
   <si>
     <t>11615</t>
+  </si>
+  <si>
+    <t>Ressie</t>
+  </si>
+  <si>
+    <t>gabriele.carter@gmail.com</t>
+  </si>
+  <si>
+    <t>3746478072</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2814159</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>37914 Kenneth Hill</t>
+  </si>
+  <si>
+    <t>Lake Erasmohaven</t>
+  </si>
+  <si>
+    <t>12444-0334</t>
+  </si>
+  <si>
+    <t>84152</t>
+  </si>
+  <si>
+    <t>2202268731</t>
+  </si>
+  <si>
+    <t>OwnerCity</t>
+  </si>
+  <si>
+    <t>OwnerStreet</t>
+  </si>
+  <si>
+    <t>OwnerPostalCode</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4002457</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>63865 O'Kon Plaza</t>
+  </si>
+  <si>
+    <t>Blairland</t>
+  </si>
+  <si>
+    <t>72500</t>
+  </si>
+  <si>
+    <t>50209</t>
+  </si>
+  <si>
+    <t>2202268733</t>
+  </si>
+  <si>
+    <t>Automation V2 Project123302</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>348 Fredrick Point</t>
+  </si>
+  <si>
+    <t>Christiansenshire</t>
+  </si>
+  <si>
+    <t>69798-2469</t>
+  </si>
+  <si>
+    <t>10618</t>
+  </si>
+  <si>
+    <t>2202268734</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>craig.gusikowski@hotmail.com</t>
+  </si>
+  <si>
+    <t>0627431600</t>
+  </si>
+  <si>
+    <t>Travel Support</t>
+  </si>
+  <si>
+    <t>670 Friesen Spurs</t>
+  </si>
+  <si>
+    <t>Willmsfurt</t>
+  </si>
+  <si>
+    <t>21542-0668</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
   </si>
 </sst>
 </file>
@@ -1232,57 +1307,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="18.14453125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.99609375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.87109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.89453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.37890625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.5234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.49609375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -1332,296 +1410,314 @@
         <v>70</v>
       </c>
       <c r="Q1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>75</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>84</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>140</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>142</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>143</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q2" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="R2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>159</v>
       </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO2" s="6"/>
+      <c r="AP2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR2" s="6"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O3" t="s">
         <v>150</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s">
         <v>154</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>32</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>34</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>86</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>89</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>92</v>
       </c>
     </row>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="241">
   <si>
     <t>UserName</t>
   </si>
@@ -668,6 +668,93 @@
   </si>
   <si>
     <t>Kelsey</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3634440</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>025 Yelena Fork</t>
+  </si>
+  <si>
+    <t>South Allan</t>
+  </si>
+  <si>
+    <t>67850-8727</t>
+  </si>
+  <si>
+    <t>69742</t>
+  </si>
+  <si>
+    <t>Automation V2 Project7320552</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>248 Hodkiewicz Stravenue</t>
+  </si>
+  <si>
+    <t>Adolphtown</t>
+  </si>
+  <si>
+    <t>91993</t>
+  </si>
+  <si>
+    <t>20496</t>
+  </si>
+  <si>
+    <t>2202268736</t>
+  </si>
+  <si>
+    <t>100 RESILIENT CITIES</t>
+  </si>
+  <si>
+    <t>Keitha</t>
+  </si>
+  <si>
+    <t>charis.shields@hotmail.com</t>
+  </si>
+  <si>
+    <t>3153841182</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>8743 Dania Light</t>
+  </si>
+  <si>
+    <t>Andersonville</t>
+  </si>
+  <si>
+    <t>17034</t>
+  </si>
+  <si>
+    <t>Automation V2 Project5072627</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>21283 Steven Heights</t>
+  </si>
+  <si>
+    <t>Klaratown</t>
+  </si>
+  <si>
+    <t>21988-3436</t>
+  </si>
+  <si>
+    <t>24436</t>
+  </si>
+  <si>
+    <t>2202268737</t>
   </si>
 </sst>
 </file>
@@ -1319,19 +1406,19 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.87109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.89453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.60546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.37890625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.78515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.5234375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="10.49609375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
@@ -1493,64 +1580,64 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="N2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="R2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="S2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="T2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="U2" t="s">
         <v>211</v>
@@ -1625,10 +1712,10 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
         <v>166</v>
@@ -1637,22 +1724,22 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
   <si>
     <t>UserName</t>
   </si>
@@ -755,6 +755,15 @@
   </si>
   <si>
     <t>2202268737</t>
+  </si>
+  <si>
+    <t>7244 Rau Station</t>
+  </si>
+  <si>
+    <t>Russton</t>
+  </si>
+  <si>
+    <t>65762-0220</t>
   </si>
 </sst>
 </file>
@@ -1322,14 +1331,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.74609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7890625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1366,16 +1375,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD981CD-45C8-489F-8B70-1B476C94ABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FCFF6-DE1C-4870-916E-521E751B778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="193">
   <si>
     <t>UserName</t>
   </si>
@@ -499,33 +499,9 @@
     <t>Mikel</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>23630 Lebsack Corner</t>
-  </si>
-  <si>
-    <t>New Rubin</t>
-  </si>
-  <si>
-    <t>04796</t>
-  </si>
-  <si>
     <t>Government/Municipal Buildings</t>
   </si>
   <si>
-    <t>Automation V2 Project6985071</t>
-  </si>
-  <si>
-    <t>Shanxi</t>
-  </si>
-  <si>
-    <t>56969</t>
-  </si>
-  <si>
-    <t>2202268690</t>
-  </si>
-  <si>
     <t>Hai</t>
   </si>
   <si>
@@ -541,60 +517,12 @@
     <t>Hebei</t>
   </si>
   <si>
-    <t>54386 Mueller Island</t>
-  </si>
-  <si>
-    <t>Jacquilinechester</t>
-  </si>
-  <si>
-    <t>07231</t>
-  </si>
-  <si>
     <t>9115</t>
   </si>
   <si>
     <t>11615</t>
   </si>
   <si>
-    <t>Ressie</t>
-  </si>
-  <si>
-    <t>gabriele.carter@gmail.com</t>
-  </si>
-  <si>
-    <t>3746478072</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2814159</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>37914 Kenneth Hill</t>
-  </si>
-  <si>
-    <t>Lake Erasmohaven</t>
-  </si>
-  <si>
-    <t>12444-0334</t>
-  </si>
-  <si>
-    <t>84152</t>
-  </si>
-  <si>
-    <t>2202268731</t>
-  </si>
-  <si>
     <t>OwnerCity</t>
   </si>
   <si>
@@ -604,138 +532,6 @@
     <t>OwnerPostalCode</t>
   </si>
   <si>
-    <t>Automation V2 Project4002457</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>63865 O'Kon Plaza</t>
-  </si>
-  <si>
-    <t>Blairland</t>
-  </si>
-  <si>
-    <t>72500</t>
-  </si>
-  <si>
-    <t>50209</t>
-  </si>
-  <si>
-    <t>2202268733</t>
-  </si>
-  <si>
-    <t>Automation V2 Project123302</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>348 Fredrick Point</t>
-  </si>
-  <si>
-    <t>Christiansenshire</t>
-  </si>
-  <si>
-    <t>69798-2469</t>
-  </si>
-  <si>
-    <t>10618</t>
-  </si>
-  <si>
-    <t>2202268734</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>craig.gusikowski@hotmail.com</t>
-  </si>
-  <si>
-    <t>0627431600</t>
-  </si>
-  <si>
-    <t>Travel Support</t>
-  </si>
-  <si>
-    <t>670 Friesen Spurs</t>
-  </si>
-  <si>
-    <t>Willmsfurt</t>
-  </si>
-  <si>
-    <t>21542-0668</t>
-  </si>
-  <si>
-    <t>Kelsey</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3634440</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>025 Yelena Fork</t>
-  </si>
-  <si>
-    <t>South Allan</t>
-  </si>
-  <si>
-    <t>67850-8727</t>
-  </si>
-  <si>
-    <t>69742</t>
-  </si>
-  <si>
-    <t>Automation V2 Project7320552</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>248 Hodkiewicz Stravenue</t>
-  </si>
-  <si>
-    <t>Adolphtown</t>
-  </si>
-  <si>
-    <t>91993</t>
-  </si>
-  <si>
-    <t>20496</t>
-  </si>
-  <si>
-    <t>2202268736</t>
-  </si>
-  <si>
-    <t>100 RESILIENT CITIES</t>
-  </si>
-  <si>
-    <t>Keitha</t>
-  </si>
-  <si>
-    <t>charis.shields@hotmail.com</t>
-  </si>
-  <si>
-    <t>3153841182</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>8743 Dania Light</t>
-  </si>
-  <si>
-    <t>Andersonville</t>
-  </si>
-  <si>
-    <t>17034</t>
-  </si>
-  <si>
     <t>Automation V2 Project5072627</t>
   </si>
   <si>
@@ -764,13 +560,63 @@
   </si>
   <si>
     <t>65762-0220</t>
+  </si>
+  <si>
+    <t>Automation V2 Project339087</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>3327 Cartwright Row</t>
+  </si>
+  <si>
+    <t>Port Kary</t>
+  </si>
+  <si>
+    <t>49687</t>
+  </si>
+  <si>
+    <t>3421</t>
+  </si>
+  <si>
+    <t>2202268745</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Zachery</t>
+  </si>
+  <si>
+    <t>tom.morissette@yahoo.com</t>
+  </si>
+  <si>
+    <t>9099440354</t>
+  </si>
+  <si>
+    <t>Affordable Housing</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>0280 Vella Alley</t>
+  </si>
+  <si>
+    <t>Bernhardfort</t>
+  </si>
+  <si>
+    <t>86690</t>
+  </si>
+  <si>
+    <t>Sherrell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1115,10 +961,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1176,26 +1022,26 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1329,16 +1175,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.74609375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7890625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1378,13 +1224,13 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1405,55 +1251,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.60546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="28.78515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.49609375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="22" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -1506,13 +1352,13 @@
         <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="R1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -1589,67 +1435,67 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="Q2" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="R2" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="T2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="U2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="V2" t="s">
         <v>32</v>
@@ -1694,7 +1540,7 @@
         <v>92</v>
       </c>
       <c r="AJ2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>149</v>
@@ -1712,64 +1558,64 @@
         <v>151</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AR2" s="6"/>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="O3" t="s">
         <v>150</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="T3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U3" t="s">
         <v>154</v>
@@ -1831,24 +1677,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1965,23 +1811,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2091,24 +1937,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2224,22 +2070,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="201">
   <si>
     <t>UserName</t>
   </si>
@@ -611,12 +611,37 @@
   </si>
   <si>
     <t>Sherrell</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>rutha.mclaughlin@gmail.com</t>
+  </si>
+  <si>
+    <t>9236317742</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>148 Kozey Row</t>
+  </si>
+  <si>
+    <t>McClureton</t>
+  </si>
+  <si>
+    <t>Bradley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -963,8 +988,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1024,24 +1049,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1177,14 +1202,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1257,49 +1282,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="22" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -1679,22 +1704,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1813,21 +1838,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1939,22 +1964,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2072,20 +2097,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.01953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.44921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.79296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.8359375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2137,34 +2162,34 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D4140C-8C03-4FFF-89D3-971CE279FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F69F02-F335-4052-9053-C7615F331F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="221">
   <si>
     <t>UserName</t>
   </si>
@@ -310,9 +310,6 @@
     <t>BillingNote Test</t>
   </si>
   <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -376,60 +373,9 @@
     <t>Jeffery</t>
   </si>
   <si>
-    <t>101 Moorgate</t>
-  </si>
-  <si>
-    <t>Automation WPR Project1777385</t>
-  </si>
-  <si>
-    <t>Warehousing &amp; Storage</t>
-  </si>
-  <si>
-    <t>22245 Spencer Ford</t>
-  </si>
-  <si>
-    <t>Lake Clarissaview</t>
-  </si>
-  <si>
-    <t>47942-9097</t>
-  </si>
-  <si>
-    <t>38518</t>
-  </si>
-  <si>
-    <t>Shayne</t>
-  </si>
-  <si>
-    <t>WPR006391</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 7224818</t>
-  </si>
-  <si>
     <t>Oil &amp; Gas</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>68558 Boyer Crest</t>
-  </si>
-  <si>
-    <t>North Huefurt</t>
-  </si>
-  <si>
-    <t>97551</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Amos</t>
-  </si>
-  <si>
-    <t>HSRP006393</t>
-  </si>
-  <si>
     <t>EnrollFee</t>
   </si>
   <si>
@@ -466,424 +412,289 @@
     <t>2500</t>
   </si>
   <si>
+    <t>Government/Municipal Buildings</t>
+  </si>
+  <si>
+    <t>OwnerCity</t>
+  </si>
+  <si>
+    <t>OwnerStreet</t>
+  </si>
+  <si>
+    <t>OwnerPostalCode</t>
+  </si>
+  <si>
+    <t>7244 Rau Station</t>
+  </si>
+  <si>
+    <t>Russton</t>
+  </si>
+  <si>
+    <t>65762-0220</t>
+  </si>
+  <si>
+    <t>Automation V2 Project610837</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>8706 Schuppe Pines</t>
+  </si>
+  <si>
+    <t>Jasthaven</t>
+  </si>
+  <si>
+    <t>38347</t>
+  </si>
+  <si>
+    <t>42846</t>
+  </si>
+  <si>
+    <t>2202268897</t>
+  </si>
+  <si>
+    <t>Jimmie</t>
+  </si>
+  <si>
+    <t>walter.murphy@hotmail.com</t>
+  </si>
+  <si>
+    <t>6487663582</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>72213 Dean Ferry</t>
+  </si>
+  <si>
+    <t>Haagmouth</t>
+  </si>
+  <si>
+    <t>32423-5872</t>
+  </si>
+  <si>
+    <t>6855</t>
+  </si>
+  <si>
+    <t>9355</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Policy and/or Operations Schedule</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Jazmin</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>ron.feil@hotmail.com</t>
+  </si>
+  <si>
+    <t>0345911466</t>
+  </si>
+  <si>
+    <t>07299 Wilton Forge</t>
+  </si>
+  <si>
+    <t>Lake Vanesa</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>abhishek.gupta@wellcertified.com</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>100 RESILIENT CITIES</t>
+  </si>
+  <si>
+    <t>Automation WPR Project227546</t>
+  </si>
+  <si>
+    <t>Air Travel</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>77640 Vern Stream</t>
+  </si>
+  <si>
+    <t>East Shonburgh</t>
+  </si>
+  <si>
+    <t>57298-2498</t>
+  </si>
+  <si>
+    <t>20071</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>WPR006579</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 2446579</t>
+  </si>
+  <si>
+    <t>Multifamily Housing (market rate)</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>95072 Ortiz Point</t>
+  </si>
+  <si>
+    <t>Bridgettefort</t>
+  </si>
+  <si>
+    <t>02769</t>
+  </si>
+  <si>
+    <t>48698</t>
+  </si>
+  <si>
+    <t>Shawanda</t>
+  </si>
+  <si>
+    <t>HSRP006581</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1923465</t>
+  </si>
+  <si>
+    <t>026 Windler Curve</t>
+  </si>
+  <si>
+    <t>Schmittside</t>
+  </si>
+  <si>
+    <t>24681</t>
+  </si>
+  <si>
+    <t>82384</t>
+  </si>
+  <si>
+    <t>2202269246</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
+    <t>emmanuel.larkin@hotmail.com</t>
+  </si>
+  <si>
+    <t>2987830852</t>
+  </si>
+  <si>
+    <t>Education Support</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>20905 Lowe Knoll</t>
+  </si>
+  <si>
+    <t>New Anglaview</t>
+  </si>
+  <si>
+    <t>89540-3432</t>
+  </si>
+  <si>
+    <t>4284</t>
+  </si>
+  <si>
+    <t>5909</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>NoPurseCount</t>
+  </si>
+  <si>
+    <t>YesPurseCount</t>
+  </si>
+  <si>
+    <t>ScorecardPartCount</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4472680</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>43707 Kling Walks</t>
+  </si>
+  <si>
+    <t>Nicolasside</t>
+  </si>
+  <si>
+    <t>98020-0133</t>
+  </si>
+  <si>
+    <t>72306</t>
+  </si>
+  <si>
+    <t>2202269249</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>michael.mckenzie@gmail.com</t>
+  </si>
+  <si>
+    <t>4623511673</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>856 Hills Track</t>
+  </si>
+  <si>
+    <t>Lake Venaview</t>
+  </si>
+  <si>
+    <t>86017-9841</t>
+  </si>
+  <si>
     <t>4225</t>
   </si>
   <si>
     <t>5850</t>
   </si>
   <si>
-    <t>Government/Municipal Buildings</t>
-  </si>
-  <si>
-    <t>OwnerCity</t>
-  </si>
-  <si>
-    <t>OwnerStreet</t>
-  </si>
-  <si>
-    <t>OwnerPostalCode</t>
-  </si>
-  <si>
-    <t>7244 Rau Station</t>
-  </si>
-  <si>
-    <t>Russton</t>
-  </si>
-  <si>
-    <t>65762-0220</t>
-  </si>
-  <si>
-    <t>Automation V2 Project6784172</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>030 Darius Crest</t>
-  </si>
-  <si>
-    <t>West Titusville</t>
-  </si>
-  <si>
-    <t>80963-1888</t>
-  </si>
-  <si>
-    <t>7511</t>
-  </si>
-  <si>
-    <t>2202268892</t>
-  </si>
-  <si>
-    <t>Margarito</t>
-  </si>
-  <si>
-    <t>altagracia.mayert@hotmail.com</t>
-  </si>
-  <si>
-    <t>3478025671</t>
-  </si>
-  <si>
-    <t>Travel Support</t>
-  </si>
-  <si>
-    <t>605 Dion Throughway</t>
-  </si>
-  <si>
-    <t>East Hsiu</t>
-  </si>
-  <si>
-    <t>46009-8491</t>
-  </si>
-  <si>
-    <t>Dario</t>
-  </si>
-  <si>
-    <t>Automation V2 Project610837</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>8706 Schuppe Pines</t>
-  </si>
-  <si>
-    <t>Jasthaven</t>
-  </si>
-  <si>
-    <t>38347</t>
-  </si>
-  <si>
-    <t>42846</t>
-  </si>
-  <si>
-    <t>2202268897</t>
-  </si>
-  <si>
-    <t>Jimmie</t>
-  </si>
-  <si>
-    <t>walter.murphy@hotmail.com</t>
-  </si>
-  <si>
-    <t>6487663582</t>
-  </si>
-  <si>
-    <t>Guizhou</t>
-  </si>
-  <si>
-    <t>72213 Dean Ferry</t>
-  </si>
-  <si>
-    <t>Haagmouth</t>
-  </si>
-  <si>
-    <t>32423-5872</t>
-  </si>
-  <si>
-    <t>6855</t>
-  </si>
-  <si>
-    <t>9355</t>
-  </si>
-  <si>
-    <t>Marilyn</t>
-  </si>
-  <si>
-    <t>Policy and/or Operations Schedule</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Jazmin</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>ron.feil@hotmail.com</t>
-  </si>
-  <si>
-    <t>0345911466</t>
-  </si>
-  <si>
-    <t>07299 Wilton Forge</t>
-  </si>
-  <si>
-    <t>Lake Vanesa</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>abhishek.gupta@wellcertified.com</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 7177356</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>NGOs, Non-profit Charitable Organizations</t>
-  </si>
-  <si>
-    <t>1119 Will Ferry</t>
-  </si>
-  <si>
-    <t>West Nathanaelville</t>
-  </si>
-  <si>
-    <t>53537</t>
-  </si>
-  <si>
-    <t>29944</t>
-  </si>
-  <si>
-    <t>Donnie</t>
-  </si>
-  <si>
-    <t>HSRP006571</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 5681350</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>0465 Turcotte Burgs</t>
-  </si>
-  <si>
-    <t>Zboncakside</t>
-  </si>
-  <si>
-    <t>46632</t>
-  </si>
-  <si>
-    <t>32042</t>
-  </si>
-  <si>
-    <t>Alonzo</t>
-  </si>
-  <si>
-    <t>HSRP006572</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 4799827</t>
-  </si>
-  <si>
-    <t>100 RESILIENT CITIES</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>317 Marcelene Plain</t>
-  </si>
-  <si>
-    <t>New Easter</t>
-  </si>
-  <si>
-    <t>00269</t>
-  </si>
-  <si>
-    <t>6360</t>
-  </si>
-  <si>
-    <t>Andera</t>
-  </si>
-  <si>
-    <t>HSRP006573</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 594739</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>3240 Maureen Viaduct</t>
-  </si>
-  <si>
-    <t>East Alphonse</t>
-  </si>
-  <si>
-    <t>56479-9934</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1082716</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>096 Thompson Rapid</t>
-  </si>
-  <si>
-    <t>Feilborough</t>
-  </si>
-  <si>
-    <t>16343-9311</t>
-  </si>
-  <si>
-    <t>17664</t>
-  </si>
-  <si>
-    <t>Millie</t>
-  </si>
-  <si>
-    <t>HSRP006575</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 5319236</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>247 Hand Expressway</t>
-  </si>
-  <si>
-    <t>South Gwynside</t>
-  </si>
-  <si>
-    <t>11978-7950</t>
-  </si>
-  <si>
-    <t>45910</t>
-  </si>
-  <si>
-    <t>Tyron</t>
-  </si>
-  <si>
-    <t>HSRP006576</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 3136703</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>3225 Legros Trail</t>
-  </si>
-  <si>
-    <t>Hodkiewiczville</t>
-  </si>
-  <si>
-    <t>74372</t>
-  </si>
-  <si>
-    <t>26320</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>HSRP006577</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 6465666</t>
-  </si>
-  <si>
-    <t>Automation WPR Project3613419</t>
-  </si>
-  <si>
-    <t>Retirement Communities</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>4476 Tori Pike</t>
-  </si>
-  <si>
-    <t>Heidenreichfurt</t>
-  </si>
-  <si>
-    <t>13314</t>
-  </si>
-  <si>
-    <t>24331</t>
-  </si>
-  <si>
-    <t>Donte</t>
-  </si>
-  <si>
-    <t>WPR006578</t>
-  </si>
-  <si>
-    <t>Automation WPR Project227546</t>
-  </si>
-  <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>77640 Vern Stream</t>
-  </si>
-  <si>
-    <t>East Shonburgh</t>
-  </si>
-  <si>
-    <t>57298-2498</t>
-  </si>
-  <si>
-    <t>20071</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>WPR006579</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1233889</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 6463511</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 2446579</t>
-  </si>
-  <si>
-    <t>Multifamily Housing (market rate)</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>95072 Ortiz Point</t>
-  </si>
-  <si>
-    <t>Bridgettefort</t>
-  </si>
-  <si>
-    <t>02769</t>
-  </si>
-  <si>
-    <t>48698</t>
-  </si>
-  <si>
-    <t>Shawanda</t>
-  </si>
-  <si>
-    <t>HSRP006581</t>
+    <t>Brenton</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
@@ -940,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -948,6 +759,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1231,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1268,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1382,13 +1194,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -1400,34 +1212,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
-        <v>108</v>
-      </c>
       <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
         <v>110</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>111</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>112</v>
-      </c>
-      <c r="P2" t="s">
-        <v>113</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1501,13 +1313,13 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1526,60 +1338,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.48828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.3984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.8125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5859375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.984375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.4609375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.015625" collapsed="true" bestFit="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:47">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1629,13 +1444,13 @@
         <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -1652,127 +1467,136 @@
       <c r="X1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>133</v>
-      </c>
       <c r="AM1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="AN1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AO1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AP1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AQ1" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="R2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="S2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="T2" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="U2" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1784,127 +1608,136 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>86</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>89</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU2" s="6"/>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
         <v>136</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR2" s="6"/>
-    </row>
-    <row r="3" spans="1:44">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" t="s">
-        <v>171</v>
-      </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" t="s">
-        <v>142</v>
-      </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="Q3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="R3" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="T3" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="U3" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1915,37 +1748,37 @@
       <c r="X3" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2035,34 +1868,34 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
@@ -2071,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2099,18 +1932,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.8125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.8046875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -2165,40 +1998,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2225,19 +2058,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.14453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -2295,31 +2128,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2328,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2423,34 +2256,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F69F02-F335-4052-9053-C7615F331F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF105A9-35F4-462E-BB98-DD55ABD0575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>UserName</t>
   </si>
@@ -358,9 +358,6 @@
     <t>41621</t>
   </si>
   <si>
-    <t>WELLP06386</t>
-  </si>
-  <si>
     <t>Delores</t>
   </si>
   <si>
@@ -574,57 +571,6 @@
     <t>HSRP006581</t>
   </si>
   <si>
-    <t>Automation V2 Project1923465</t>
-  </si>
-  <si>
-    <t>026 Windler Curve</t>
-  </si>
-  <si>
-    <t>Schmittside</t>
-  </si>
-  <si>
-    <t>24681</t>
-  </si>
-  <si>
-    <t>82384</t>
-  </si>
-  <si>
-    <t>2202269246</t>
-  </si>
-  <si>
-    <t>Valentine</t>
-  </si>
-  <si>
-    <t>emmanuel.larkin@hotmail.com</t>
-  </si>
-  <si>
-    <t>2987830852</t>
-  </si>
-  <si>
-    <t>Education Support</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>20905 Lowe Knoll</t>
-  </si>
-  <si>
-    <t>New Anglaview</t>
-  </si>
-  <si>
-    <t>89540-3432</t>
-  </si>
-  <si>
-    <t>4284</t>
-  </si>
-  <si>
-    <t>5909</t>
-  </si>
-  <si>
-    <t>Benedict</t>
-  </si>
-  <si>
     <t>NoPurseCount</t>
   </si>
   <si>
@@ -695,13 +641,15 @@
   </si>
   <si>
     <t>86</t>
+  </si>
+  <si>
+    <t>WELLP06616</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1047,10 +995,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1080,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1107,30 +1055,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1194,7 +1142,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
@@ -1230,16 +1178,16 @@
         <v>107</v>
       </c>
       <c r="M2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" t="s">
         <v>109</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>110</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>111</v>
-      </c>
-      <c r="P2" t="s">
-        <v>112</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1264,16 +1212,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1313,13 +1261,13 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1340,58 +1288,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90234375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.48828125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.3984375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.8125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5859375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.984375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.4609375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="14.015625" collapsed="true" bestFit="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1444,13 +1392,13 @@
         <v>69</v>
       </c>
       <c r="Q1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" t="s">
         <v>128</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" t="s">
-        <v>129</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -1468,13 +1416,13 @@
         <v>74</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="Z1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AB1" t="s">
         <v>62</v>
@@ -1510,93 +1458,93 @@
         <v>83</v>
       </c>
       <c r="AM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR1" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>121</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="Q2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="R2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="S2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="T2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="U2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1608,13 +1556,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="Z2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="AA2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1650,94 +1598,94 @@
         <v>91</v>
       </c>
       <c r="AM2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AS2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>135</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>136</v>
-      </c>
-      <c r="H3" t="s">
-        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" t="s">
         <v>140</v>
       </c>
-      <c r="M3" t="s">
-        <v>141</v>
-      </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>144</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="S3" t="s">
-        <v>146</v>
-      </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1796,24 +1744,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1930,23 +1878,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1998,40 +1946,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>175</v>
-      </c>
-      <c r="I2" t="s">
-        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" t="s">
         <v>177</v>
-      </c>
-      <c r="L2" t="s">
-        <v>178</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2056,24 +2004,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2128,31 +2076,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>165</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>166</v>
-      </c>
-      <c r="I2" t="s">
-        <v>167</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2161,10 +2109,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" t="s">
         <v>168</v>
-      </c>
-      <c r="M2" t="s">
-        <v>169</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2189,22 +2137,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2256,34 +2204,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
       <c r="I2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
         <v>157</v>
-      </c>
-      <c r="J2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>158</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
   <si>
     <t>UserName</t>
   </si>
@@ -644,12 +644,49 @@
   </si>
   <si>
     <t>WELLP06616</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1039970</t>
+  </si>
+  <si>
+    <t>Water Travel</t>
+  </si>
+  <si>
+    <t>23003</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>27707 Rhonda Prairie</t>
+  </si>
+  <si>
+    <t>East Magalyfurt</t>
+  </si>
+  <si>
+    <t>98135</t>
+  </si>
+  <si>
+    <t>WELLP06618</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>garret.conroy@hotmail.com</t>
+  </si>
+  <si>
+    <t>7265650116</t>
+  </si>
+  <si>
+    <t>Mariam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -997,8 +1034,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1061,24 +1098,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.390625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.67578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.01171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1142,16 +1180,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1160,34 +1198,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1214,14 +1252,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1294,52 +1332,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1746,22 +1784,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1880,21 +1918,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2006,22 +2044,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2139,20 +2177,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF105A9-35F4-462E-BB98-DD55ABD0575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F482DE6-4999-4748-906D-C7809805DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>UserName</t>
   </si>
@@ -337,39 +337,6 @@
     <t>w633e80d90291d</t>
   </si>
   <si>
-    <t>Automation portfolio 3759932</t>
-  </si>
-  <si>
-    <t>Fitness &amp; Recreation</t>
-  </si>
-  <si>
-    <t>47084</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>585 Adrianna Port</t>
-  </si>
-  <si>
-    <t>East Cornelia</t>
-  </si>
-  <si>
-    <t>41621</t>
-  </si>
-  <si>
-    <t>Delores</t>
-  </si>
-  <si>
-    <t>concha.simonis@gmail.com</t>
-  </si>
-  <si>
-    <t>1846144814</t>
-  </si>
-  <si>
-    <t>Jeffery</t>
-  </si>
-  <si>
     <t>Oil &amp; Gas</t>
   </si>
   <si>
@@ -665,9 +632,6 @@
   </si>
   <si>
     <t>98135</t>
-  </si>
-  <si>
-    <t>WELLP06618</t>
   </si>
   <si>
     <t>Stephanie</t>
@@ -686,7 +650,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1034,8 +997,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1065,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1098,25 +1061,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.390625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.67578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.01171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1180,16 +1143,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1198,34 +1161,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1252,14 +1215,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1299,13 +1262,13 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1332,52 +1295,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1430,13 +1393,13 @@
         <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -1454,13 +1417,13 @@
         <v>74</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Z1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AA1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AB1" t="s">
         <v>62</v>
@@ -1496,93 +1459,93 @@
         <v>83</v>
       </c>
       <c r="AM1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AN1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AO1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AQ1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AR1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AS1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AT1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="R2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="S2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="T2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="U2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1594,13 +1557,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Z2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AA2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1636,94 +1599,94 @@
         <v>91</v>
       </c>
       <c r="AM2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" t="s">
         <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" t="s">
-        <v>148</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1784,22 +1747,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1918,21 +1881,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1984,40 +1947,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2044,22 +2007,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2114,31 +2077,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2147,10 +2110,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2177,20 +2140,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2242,34 +2205,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F482DE6-4999-4748-906D-C7809805DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA00CA3-2D72-4391-BC8C-276CBA41C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
-    <sheet name="Faculty" sheetId="7" r:id="rId3"/>
-    <sheet name="V2Project" sheetId="3" r:id="rId4"/>
+    <sheet name="V2Project" sheetId="3" r:id="rId2"/>
+    <sheet name="Portfolio" sheetId="2" r:id="rId3"/>
+    <sheet name="Faculty" sheetId="7" r:id="rId4"/>
     <sheet name="Exam" sheetId="6" r:id="rId5"/>
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
@@ -565,9 +565,6 @@
     <t>72306</t>
   </si>
   <si>
-    <t>2202269249</t>
-  </si>
-  <si>
     <t>Cleo</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>Mariam</t>
+  </si>
+  <si>
+    <t>2202269424</t>
   </si>
 </sst>
 </file>
@@ -1052,245 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" t="s">
-        <v>200</v>
-      </c>
-      <c r="N2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1485,13 +1251,13 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1518,34 +1284,34 @@
         <v>149</v>
       </c>
       <c r="L2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" t="s">
         <v>178</v>
       </c>
-      <c r="M2" t="s">
-        <v>179</v>
-      </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" t="s">
         <v>182</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>183</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>184</v>
       </c>
-      <c r="S2" t="s">
-        <v>185</v>
-      </c>
       <c r="T2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1557,13 +1323,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>190</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>191</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1605,13 +1371,13 @@
         <v>111</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>113</v>
@@ -1734,6 +1500,240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA00CA3-2D72-4391-BC8C-276CBA41C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FDA2C-5ACB-467C-8BA3-F241AD462A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,6 @@
     <t>86</t>
   </si>
   <si>
-    <t>WELLP06616</t>
-  </si>
-  <si>
     <t>Automation portfolio 1039970</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>2202269424</t>
+  </si>
+  <si>
+    <t>WELLP06618</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
         <v>191</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>148</v>
@@ -1613,34 +1613,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
         <v>195</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>197</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>198</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>199</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>200</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>201</v>
-      </c>
-      <c r="P2" t="s">
-        <v>202</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FDA2C-5ACB-467C-8BA3-F241AD462A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4C686-B67E-44F5-B6FA-8AC88DF4BCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
     <t>2202269424</t>
   </si>
   <si>
-    <t>WELLP06618</t>
+    <t>WELLP06616</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -707,7 +707,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -995,10 +994,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1059,53 +1058,53 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1182,7 +1181,7 @@
       <c r="X1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" t="s">
         <v>170</v>
       </c>
       <c r="Z1" t="s">
@@ -1508,30 +1507,30 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1665,16 +1664,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1745,24 +1744,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1879,23 +1878,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2005,24 +2004,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2138,22 +2137,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="239">
   <si>
     <t>UserName</t>
   </si>
@@ -644,12 +644,118 @@
   </si>
   <si>
     <t>WELLP06616</t>
+  </si>
+  <si>
+    <t>Automation portfolio 6456855</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>44886</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>3204 Hane Meadows</t>
+  </si>
+  <si>
+    <t>New Sidneyburgh</t>
+  </si>
+  <si>
+    <t>42025-9596</t>
+  </si>
+  <si>
+    <t>WELLP06737</t>
+  </si>
+  <si>
+    <t>Jamey</t>
+  </si>
+  <si>
+    <t>shon.murphy@yahoo.com</t>
+  </si>
+  <si>
+    <t>6945265422</t>
+  </si>
+  <si>
+    <t>Vonnie</t>
+  </si>
+  <si>
+    <t>Automation portfolio 45395</t>
+  </si>
+  <si>
+    <t>Post Secondary Education</t>
+  </si>
+  <si>
+    <t>12939</t>
+  </si>
+  <si>
+    <t>23601 Schoen Valley</t>
+  </si>
+  <si>
+    <t>South Lilliam</t>
+  </si>
+  <si>
+    <t>18323-6682</t>
+  </si>
+  <si>
+    <t>WELLP06764</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>jorge.mclaughlin@gmail.com</t>
+  </si>
+  <si>
+    <t>0528439124</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1730094</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>8616</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>620 Seth Roads</t>
+  </si>
+  <si>
+    <t>Lake Herman</t>
+  </si>
+  <si>
+    <t>02253</t>
+  </si>
+  <si>
+    <t>WELLP06765</t>
+  </si>
+  <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
+    <t>merlin.runolfsdottir@yahoo.com</t>
+  </si>
+  <si>
+    <t>6945020474</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -996,8 +1102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1060,52 +1166,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1512,25 +1618,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1594,16 +1700,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1612,34 +1718,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="N2" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="O2" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1666,14 +1772,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1746,22 +1852,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1880,21 +1986,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2006,22 +2112,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2139,20 +2245,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4C686-B67E-44F5-B6FA-8AC88DF4BCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B638A8A-3BDE-4374-91B0-88E4846C3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
     <t>2202269424</t>
   </si>
   <si>
-    <t>WELLP06616</t>
+    <t>WELLP06618</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1058,53 +1058,53 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1507,30 +1507,30 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1664,16 +1664,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1744,24 +1744,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1878,23 +1878,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2004,24 +2004,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2137,22 +2137,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B638A8A-3BDE-4374-91B0-88E4846C3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9213D5E-D1DF-427B-80E7-61413A421ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="202">
   <si>
     <t>UserName</t>
   </si>
@@ -415,9 +415,6 @@
     <t>42846</t>
   </si>
   <si>
-    <t>2202268897</t>
-  </si>
-  <si>
     <t>Jimmie</t>
   </si>
   <si>
@@ -607,43 +604,40 @@
     <t>86</t>
   </si>
   <si>
-    <t>Automation portfolio 1039970</t>
-  </si>
-  <si>
-    <t>Water Travel</t>
-  </si>
-  <si>
-    <t>23003</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>27707 Rhonda Prairie</t>
-  </si>
-  <si>
-    <t>East Magalyfurt</t>
-  </si>
-  <si>
-    <t>98135</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>garret.conroy@hotmail.com</t>
-  </si>
-  <si>
-    <t>7265650116</t>
-  </si>
-  <si>
-    <t>Mariam</t>
-  </si>
-  <si>
-    <t>2202269424</t>
-  </si>
-  <si>
-    <t>WELLP06618</t>
+    <t>Automation portfolio 5897567</t>
+  </si>
+  <si>
+    <t>Investment Services</t>
+  </si>
+  <si>
+    <t>38908</t>
+  </si>
+  <si>
+    <t>92727 Mann Brooks</t>
+  </si>
+  <si>
+    <t>West Delshire</t>
+  </si>
+  <si>
+    <t>99683</t>
+  </si>
+  <si>
+    <t>WELLP06769</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>janie.koepp@hotmail.com</t>
+  </si>
+  <si>
+    <t>0059086403</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>2202270535</t>
   </si>
 </sst>
 </file>
@@ -994,10 +988,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1027,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1054,57 +1048,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1182,13 +1176,13 @@
         <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB1" t="s">
         <v>62</v>
@@ -1250,67 +1244,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>174</v>
-      </c>
-      <c r="H2" t="s">
-        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>177</v>
       </c>
-      <c r="M2" t="s">
-        <v>178</v>
-      </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>182</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>183</v>
       </c>
-      <c r="S2" t="s">
-        <v>184</v>
-      </c>
       <c r="T2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1322,13 +1316,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>189</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>190</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1370,34 +1364,34 @@
         <v>111</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="AS2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
-      <c r="A3" t="s">
-        <v>127</v>
+      <c r="A3" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -1421,13 +1415,13 @@
         <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
         <v>128</v>
-      </c>
-      <c r="M3" t="s">
-        <v>129</v>
       </c>
       <c r="N3" t="s">
         <v>101</v>
@@ -1436,22 +1430,22 @@
         <v>112</v>
       </c>
       <c r="P3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>132</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>133</v>
       </c>
-      <c r="S3" t="s">
-        <v>134</v>
-      </c>
       <c r="T3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1506,31 +1500,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1594,16 +1588,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" t="s">
-        <v>192</v>
-      </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1612,34 +1606,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" t="s">
         <v>194</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>195</v>
       </c>
-      <c r="K2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>198</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>199</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>200</v>
-      </c>
-      <c r="P2" t="s">
-        <v>201</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1664,16 +1658,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1744,24 +1738,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1878,23 +1872,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1946,40 +1940,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>162</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>163</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
         <v>165</v>
-      </c>
-      <c r="L2" t="s">
-        <v>166</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2004,24 +1998,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2076,31 +2070,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>154</v>
-      </c>
-      <c r="I2" t="s">
-        <v>155</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2109,10 +2103,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
         <v>156</v>
-      </c>
-      <c r="M2" t="s">
-        <v>157</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2137,22 +2131,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2204,34 +2198,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
         <v>145</v>
-      </c>
-      <c r="J2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9213D5E-D1DF-427B-80E7-61413A421ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA5752-0E55-4C09-86AF-ACF3545A2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="224">
   <si>
     <t>UserName</t>
   </si>
@@ -505,9 +505,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>WPR006579</t>
-  </si>
-  <si>
     <t>Automation HSR Project 2446579</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     <t>Shawanda</t>
   </si>
   <si>
-    <t>HSRP006581</t>
-  </si>
-  <si>
     <t>NoPurseCount</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>99683</t>
   </si>
   <si>
-    <t>WELLP06769</t>
-  </si>
-  <si>
     <t>Enrique</t>
   </si>
   <si>
@@ -638,6 +629,81 @@
   </si>
   <si>
     <t>2202270535</t>
+  </si>
+  <si>
+    <t>CoachingContacts</t>
+  </si>
+  <si>
+    <t>CommunicationNotes</t>
+  </si>
+  <si>
+    <t>AccountNotes</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Goals and vision for applying WELL at scale</t>
+  </si>
+  <si>
+    <t>Scope of initiative</t>
+  </si>
+  <si>
+    <t>Communication notes testing</t>
+  </si>
+  <si>
+    <t>Challenges notes testing</t>
+  </si>
+  <si>
+    <t>Account notes testing</t>
+  </si>
+  <si>
+    <t>WELLP06767</t>
+  </si>
+  <si>
+    <t>Melanie (melanie.koch@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>WELL Performance Rating scope &amp; premises</t>
+  </si>
+  <si>
+    <t>WELL Performance Rating goals and vision</t>
+  </si>
+  <si>
+    <t>RelationshipManager</t>
+  </si>
+  <si>
+    <t>WellReviewer</t>
+  </si>
+  <si>
+    <t>Joelle (joelle.jach@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Ramitha (ramitha.ravishankar@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>GBCI (well@gbci.org)</t>
+  </si>
+  <si>
+    <t>Shekhar (shekhar.chikara@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Eleftherios (eleftherios.zacharakis@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Marc (Marc@gbci.org)</t>
+  </si>
+  <si>
+    <t>2202271073</t>
+  </si>
+  <si>
+    <t>HSRP006856</t>
+  </si>
+  <si>
+    <t>WPR006780</t>
   </si>
 </sst>
 </file>
@@ -693,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -701,6 +767,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -988,10 +1057,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1048,57 +1117,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.1796875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.1796875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.54296875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.1796875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.81640625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1176,13 +1245,13 @@
         <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB1" t="s">
         <v>62</v>
@@ -1244,67 +1313,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
         <v>171</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>172</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>174</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
         <v>177</v>
-      </c>
-      <c r="N2" t="s">
-        <v>179</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>181</v>
       </c>
-      <c r="R2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" t="s">
-        <v>183</v>
-      </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1316,13 +1385,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA2" t="s">
         <v>187</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>189</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1364,13 +1433,13 @@
         <v>111</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>113</v>
@@ -1385,7 +1454,7 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -1498,36 +1567,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
-  <dimension ref="A1:S2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="41.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1585,16 +1660,34 @@
       <c r="S1" t="s">
         <v>74</v>
       </c>
+      <c r="T1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" t="s">
+        <v>201</v>
+      </c>
+      <c r="X1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -1606,34 +1699,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>194</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>195</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" t="s">
         <v>197</v>
-      </c>
-      <c r="N2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" t="s">
-        <v>200</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1643,10 +1736,29 @@
       </c>
       <c r="S2" t="s">
         <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>210</v>
+      </c>
+      <c r="U2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" t="s">
+        <v>208</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1658,16 +1770,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1738,24 +1850,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1866,32 +1978,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="41.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="39.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1937,43 +2052,58 @@
       <c r="O1" t="s">
         <v>74</v>
       </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
         <v>160</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>161</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>162</v>
-      </c>
-      <c r="I2" t="s">
-        <v>163</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
         <v>164</v>
-      </c>
-      <c r="L2" t="s">
-        <v>165</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -1983,6 +2113,21 @@
       </c>
       <c r="O2" t="s">
         <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" t="s">
+        <v>219</v>
+      </c>
+      <c r="T2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1992,33 +2137,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2067,10 +2217,25 @@
       <c r="P1" t="s">
         <v>74</v>
       </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U1" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -2116,10 +2281,26 @@
       </c>
       <c r="P2" t="s">
         <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2131,22 +2312,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA5752-0E55-4C09-86AF-ACF3545A2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2A72E-F5A2-4E4C-B5D8-B059771FA972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="236">
   <si>
     <t>UserName</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Account notes testing</t>
   </si>
   <si>
-    <t>WELLP06767</t>
-  </si>
-  <si>
     <t>Melanie (melanie.koch@wellcertified.com)</t>
   </si>
   <si>
@@ -704,12 +701,52 @@
   </si>
   <si>
     <t>WPR006780</t>
+  </si>
+  <si>
+    <t>ProjectVersion</t>
+  </si>
+  <si>
+    <t>SpaceTypes</t>
+  </si>
+  <si>
+    <t>OwnerType</t>
+  </si>
+  <si>
+    <t>Project test1</t>
+  </si>
+  <si>
+    <t>WELL v2-Pilot</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>Location Test</t>
+  </si>
+  <si>
+    <t>Cultural Institutions</t>
+  </si>
+  <si>
+    <t>For sale/lease</t>
+  </si>
+  <si>
+    <t>WELLP06934</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Tenancy</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1059,8 +1096,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1123,52 +1160,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.1796875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.1796875" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.54296875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.1796875" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.81640625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.1796875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.54296875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1313,7 +1350,7 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>168</v>
@@ -1568,41 +1605,45 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="41.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.453125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.36328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="37.6328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.4609375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1678,10 +1719,22 @@
       <c r="Y1" t="s">
         <v>203</v>
       </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>188</v>
@@ -1738,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U2" t="s">
         <v>207</v>
@@ -1754,6 +1807,18 @@
       </c>
       <c r="Y2" t="s">
         <v>205</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1772,14 +1837,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1852,22 +1917,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1978,35 +2043,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="41.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="39.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.90625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="23" max="23" width="13.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -2062,15 +2129,24 @@
         <v>199</v>
       </c>
       <c r="S1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T1" t="s">
         <v>213</v>
       </c>
-      <c r="T1" t="s">
-        <v>214</v>
+      <c r="U1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -2115,19 +2191,28 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" t="s">
         <v>211</v>
       </c>
-      <c r="Q2" t="s">
-        <v>212</v>
-      </c>
       <c r="R2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>219</v>
       </c>
-      <c r="T2" t="s">
-        <v>220</v>
+      <c r="U2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V2" t="s">
+        <v>235</v>
+      </c>
+      <c r="W2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2137,38 +2222,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="36.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2227,15 +2312,27 @@
         <v>199</v>
       </c>
       <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
         <v>213</v>
       </c>
-      <c r="U1" t="s">
-        <v>214</v>
+      <c r="V1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -2283,19 +2380,25 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R2" t="s">
         <v>211</v>
       </c>
-      <c r="R2" t="s">
-        <v>212</v>
-      </c>
       <c r="S2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>216</v>
       </c>
-      <c r="U2" t="s">
-        <v>217</v>
+      <c r="V2" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2">
+        <v>48698</v>
       </c>
     </row>
   </sheetData>
@@ -2314,20 +2417,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
   <si>
     <t>UserName</t>
   </si>
@@ -740,6 +740,60 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 109097</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>4559 Despina Course</t>
+  </si>
+  <si>
+    <t>Jackieside</t>
+  </si>
+  <si>
+    <t>72617-2723</t>
+  </si>
+  <si>
+    <t>25622</t>
+  </si>
+  <si>
+    <t>Margrett</t>
+  </si>
+  <si>
+    <t>HSRP006965</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 5731585</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>723 Heidenreich Tunnel</t>
+  </si>
+  <si>
+    <t>Jonnaborough</t>
+  </si>
+  <si>
+    <t>21617-1145</t>
+  </si>
+  <si>
+    <t>47268</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>HSRP006970</t>
   </si>
 </sst>
 </file>
@@ -2051,26 +2105,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.84375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.1953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.8828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.9375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="41.7265625" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="39.90625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
-    <col min="23" max="23" width="13.4453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.4453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2146,40 +2200,40 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2A72E-F5A2-4E4C-B5D8-B059771FA972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1EF56-9ECC-49D1-BEB7-1F93A09D1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Exam" sheetId="6" r:id="rId5"/>
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
-    <sheet name="Membership" sheetId="8" r:id="rId8"/>
+    <sheet name="Equity" sheetId="9" r:id="rId8"/>
+    <sheet name="Membership" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
   <si>
     <t>UserName</t>
   </si>
@@ -697,12 +698,6 @@
     <t>2202271073</t>
   </si>
   <si>
-    <t>HSRP006856</t>
-  </si>
-  <si>
-    <t>WPR006780</t>
-  </si>
-  <si>
     <t>ProjectVersion</t>
   </si>
   <si>
@@ -724,29 +719,34 @@
     <t>Location Test</t>
   </si>
   <si>
-    <t>Cultural Institutions</t>
-  </si>
-  <si>
-    <t>For sale/lease</t>
-  </si>
-  <si>
-    <t>WELLP06934</t>
-  </si>
-  <si>
     <t>Fitness</t>
   </si>
   <si>
     <t>Tenancy</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Student Dining Spaces</t>
+  </si>
+  <si>
+    <t>EquityName</t>
+  </si>
+  <si>
+    <t>WPR006939</t>
+  </si>
+  <si>
+    <t>HSRP006950</t>
+  </si>
+  <si>
+    <t>WELLP07003</t>
+  </si>
+  <si>
+    <t>75,750.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -796,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -807,6 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,8 +1097,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1154,58 +1155,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="AJ3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.1796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.1796875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.1796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.54296875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.81640625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.1796875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.1796875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.54296875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.1796875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.81640625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1605,45 +1606,45 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.453125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="41.36328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="37.6328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.4609375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="41.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.6328125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1723,18 +1724,21 @@
         <v>13</v>
       </c>
       <c r="AA1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC1" t="s">
         <v>223</v>
       </c>
-      <c r="AB1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>225</v>
+      <c r="AD1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>188</v>
@@ -1809,16 +1813,19 @@
         <v>205</v>
       </c>
       <c r="Z2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AC2" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -1837,14 +1844,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1917,22 +1924,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2043,37 +2050,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="39.90625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
-    <col min="23" max="23" width="13.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="41.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="39.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -2135,18 +2142,21 @@
         <v>213</v>
       </c>
       <c r="U1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W1" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="X1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -2206,13 +2216,16 @@
         <v>219</v>
       </c>
       <c r="U2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V2" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" t="s">
         <v>229</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="W2" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2222,38 +2235,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Y2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="36.6328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.26953125" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2318,21 +2331,24 @@
         <v>213</v>
       </c>
       <c r="V1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
       </c>
       <c r="X1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Y1" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -2395,10 +2411,13 @@
         <v>216</v>
       </c>
       <c r="V2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="W2">
         <v>48698</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2408,6 +2427,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF52901-90FE-455B-BEA8-FC50D01098D5}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEA2DE-44FE-4DF1-AA87-197E84162088}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2417,20 +2459,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1EF56-9ECC-49D1-BEB7-1F93A09D1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF30FBA-53F6-4B03-ACA1-D6B7302FDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="263">
   <si>
     <t>UserName</t>
   </si>
@@ -398,24 +398,6 @@
     <t>65762-0220</t>
   </si>
   <si>
-    <t>Automation V2 Project610837</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>8706 Schuppe Pines</t>
-  </si>
-  <si>
-    <t>Jasthaven</t>
-  </si>
-  <si>
-    <t>38347</t>
-  </si>
-  <si>
-    <t>42846</t>
-  </si>
-  <si>
     <t>Jimmie</t>
   </si>
   <si>
@@ -476,60 +458,12 @@
     <t>abhishek.gupta@wellcertified.com</t>
   </si>
   <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
-    <t>Automation WPR Project227546</t>
-  </si>
-  <si>
     <t>Air Travel</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>77640 Vern Stream</t>
-  </si>
-  <si>
-    <t>East Shonburgh</t>
-  </si>
-  <si>
-    <t>57298-2498</t>
-  </si>
-  <si>
-    <t>20071</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 2446579</t>
-  </si>
-  <si>
-    <t>Multifamily Housing (market rate)</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>95072 Ortiz Point</t>
-  </si>
-  <si>
-    <t>Bridgettefort</t>
-  </si>
-  <si>
-    <t>02769</t>
-  </si>
-  <si>
-    <t>48698</t>
-  </si>
-  <si>
-    <t>Shawanda</t>
-  </si>
-  <si>
     <t>NoPurseCount</t>
   </si>
   <si>
@@ -539,57 +473,15 @@
     <t>ScorecardPartCount</t>
   </si>
   <si>
-    <t>Automation V2 Project4472680</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>43707 Kling Walks</t>
-  </si>
-  <si>
-    <t>Nicolasside</t>
-  </si>
-  <si>
-    <t>98020-0133</t>
-  </si>
-  <si>
-    <t>72306</t>
-  </si>
-  <si>
-    <t>Cleo</t>
-  </si>
-  <si>
-    <t>michael.mckenzie@gmail.com</t>
-  </si>
-  <si>
-    <t>4623511673</t>
-  </si>
-  <si>
-    <t>REIT</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>856 Hills Track</t>
-  </si>
-  <si>
-    <t>Lake Venaview</t>
-  </si>
-  <si>
-    <t>86017-9841</t>
-  </si>
-  <si>
     <t>4225</t>
   </si>
   <si>
     <t>5850</t>
   </si>
   <si>
-    <t>Brenton</t>
-  </si>
-  <si>
     <t>216</t>
   </si>
   <si>
@@ -599,39 +491,6 @@
     <t>86</t>
   </si>
   <si>
-    <t>Automation portfolio 5897567</t>
-  </si>
-  <si>
-    <t>Investment Services</t>
-  </si>
-  <si>
-    <t>38908</t>
-  </si>
-  <si>
-    <t>92727 Mann Brooks</t>
-  </si>
-  <si>
-    <t>West Delshire</t>
-  </si>
-  <si>
-    <t>99683</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>janie.koepp@hotmail.com</t>
-  </si>
-  <si>
-    <t>0059086403</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>2202270535</t>
-  </si>
-  <si>
     <t>CoachingContacts</t>
   </si>
   <si>
@@ -677,15 +536,6 @@
     <t>WellReviewer</t>
   </si>
   <si>
-    <t>Joelle (joelle.jach@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Ramitha (ramitha.ravishankar@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>GBCI (well@gbci.org)</t>
-  </si>
-  <si>
     <t>Shekhar (shekhar.chikara@wellcertified.com)</t>
   </si>
   <si>
@@ -695,9 +545,6 @@
     <t>Marc (Marc@gbci.org)</t>
   </si>
   <si>
-    <t>2202271073</t>
-  </si>
-  <si>
     <t>ProjectVersion</t>
   </si>
   <si>
@@ -719,9 +566,6 @@
     <t>Location Test</t>
   </si>
   <si>
-    <t>Fitness</t>
-  </si>
-  <si>
     <t>Tenancy</t>
   </si>
   <si>
@@ -731,22 +575,260 @@
     <t>EquityName</t>
   </si>
   <si>
-    <t>WPR006939</t>
-  </si>
-  <si>
-    <t>HSRP006950</t>
-  </si>
-  <si>
-    <t>WELLP07003</t>
-  </si>
-  <si>
     <t>75,750.00</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>georgina.herman@hotmail.com</t>
+  </si>
+  <si>
+    <t>8344827387</t>
+  </si>
+  <si>
+    <t>204 Gino Knolls</t>
+  </si>
+  <si>
+    <t>Hermanshire</t>
+  </si>
+  <si>
+    <t>47108</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 3183235</t>
+  </si>
+  <si>
+    <t>Retirement Communities</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>7050 Napoleon Pines</t>
+  </si>
+  <si>
+    <t>Murraytown</t>
+  </si>
+  <si>
+    <t>93233-2983</t>
+  </si>
+  <si>
+    <t>20562</t>
+  </si>
+  <si>
+    <t>Elvin</t>
+  </si>
+  <si>
+    <t>HSRP007045</t>
+  </si>
+  <si>
+    <t>2202272380</t>
+  </si>
+  <si>
+    <t>Sabrina Stanger (sabrina.stanger@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Tori (victoria.shepherd@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Paige (pmcknight@gbci.org)</t>
+  </si>
+  <si>
+    <t>Automation WPR Project7473173</t>
+  </si>
+  <si>
+    <t>101 Moorgate</t>
+  </si>
+  <si>
+    <t>Warehousing &amp; Storage</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>318 Willard Grove</t>
+  </si>
+  <si>
+    <t>New Miesha</t>
+  </si>
+  <si>
+    <t>50181-0544</t>
+  </si>
+  <si>
+    <t>7502</t>
+  </si>
+  <si>
+    <t>WPR007052</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2709566</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>781 Stiedemann Lane</t>
+  </si>
+  <si>
+    <t>Lake Rossbury</t>
+  </si>
+  <si>
+    <t>35401</t>
+  </si>
+  <si>
+    <t>51379</t>
+  </si>
+  <si>
+    <t>Automation V2 Project485969</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>87848 Renner Meadows</t>
+  </si>
+  <si>
+    <t>Hesselhaven</t>
+  </si>
+  <si>
+    <t>02714-3603</t>
+  </si>
+  <si>
+    <t>46616</t>
+  </si>
+  <si>
+    <t>2202272413</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3884630</t>
+  </si>
+  <si>
+    <t>Media, PR &amp; Communications</t>
+  </si>
+  <si>
+    <t>10720</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>53427 Schaden Knoll</t>
+  </si>
+  <si>
+    <t>Port Nelson</t>
+  </si>
+  <si>
+    <t>73220-7408</t>
+  </si>
+  <si>
+    <t>WELLP07058</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>vicky.gleason@yahoo.com</t>
+  </si>
+  <si>
+    <t>5612407269</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Office Spaces</t>
+  </si>
+  <si>
+    <t>$ 30,000.00 USD</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1221855</t>
+  </si>
+  <si>
+    <t>Consultancies</t>
+  </si>
+  <si>
+    <t>36481</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>9736 Windler Cliffs</t>
+  </si>
+  <si>
+    <t>Leandrohaven</t>
+  </si>
+  <si>
+    <t>15501-4162</t>
+  </si>
+  <si>
+    <t>WELLP07059</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>santa.marquardt@hotmail.com</t>
+  </si>
+  <si>
+    <t>1832377825</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>For sale/lease</t>
+  </si>
+  <si>
+    <t>Automation portfolio 5489308</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>33362</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>354 Delena Garden</t>
+  </si>
+  <si>
+    <t>East Garrettborough</t>
+  </si>
+  <si>
+    <t>29463</t>
+  </si>
+  <si>
+    <t>WELLP07060</t>
+  </si>
+  <si>
+    <t>Zenaida</t>
+  </si>
+  <si>
+    <t>carrol.langosh@hotmail.com</t>
+  </si>
+  <si>
+    <t>8160068437</t>
+  </si>
+  <si>
+    <t>Wen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -807,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1095,10 +1177,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1128,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1159,54 +1241,54 @@
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.1796875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.1796875" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.54296875" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.1796875" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.81640625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1283,13 +1365,13 @@
         <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="Z1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="AB1" t="s">
         <v>62</v>
@@ -1351,67 +1433,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="Q2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" t="s">
         <v>181</v>
       </c>
-      <c r="T2" t="s">
-        <v>174</v>
-      </c>
       <c r="U2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1423,13 +1505,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="Z2" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="AA2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
@@ -1471,64 +1553,64 @@
         <v>111</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
         <v>101</v>
@@ -1537,22 +1619,22 @@
         <v>112</v>
       </c>
       <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" t="s">
         <v>130</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" t="s">
-        <v>132</v>
-      </c>
-      <c r="S3" t="s">
-        <v>133</v>
-      </c>
-      <c r="T3" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" t="s">
-        <v>136</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1608,40 +1690,40 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="41.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.6328125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.9609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.01953125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.8046875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="29.30078125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.96875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1703,51 +1785,51 @@
         <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="U1" t="s">
         <v>81</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="X1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="Y1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="Z1" t="s">
         <v>13</v>
       </c>
       <c r="AA1" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="AB1" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="AD1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" ht="30">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1756,34 +1838,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1795,37 +1877,37 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="U2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="V2" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="W2" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="Y2" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="Z2" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="AA2" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>30000</v>
+        <v>250</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1842,16 +1924,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1922,24 +2004,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2052,32 +2134,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="41.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="39.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2133,22 +2215,22 @@
         <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="T1" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="V1" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="W1" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="X1" t="s">
         <v>102</v>
@@ -2156,40 +2238,40 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2201,31 +2283,31 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="Q2" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="S2" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="T2" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="U2" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="V2" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="W2" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2241,29 +2323,29 @@
       <selection activeCell="Z1" sqref="Z1:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -2322,25 +2404,25 @@
         <v>77</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="U1" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="V1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
       </c>
       <c r="X1" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
         <v>102</v>
@@ -2348,31 +2430,31 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2381,10 +2463,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2396,28 +2478,28 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="U2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="V2" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="W2">
         <v>48698</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2434,14 +2516,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2457,22 +2539,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2524,34 +2606,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
         <v>139</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" t="s">
-        <v>145</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="258">
   <si>
     <t>UserName</t>
   </si>
@@ -794,6 +794,18 @@
   </si>
   <si>
     <t>HSRP006970</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>7496 Lindsay Court</t>
+  </si>
+  <si>
+    <t>Heaneychester</t>
+  </si>
+  <si>
+    <t>32549</t>
   </si>
 </sst>
 </file>
@@ -1891,14 +1903,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.16015625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1935,16 +1947,16 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="379">
   <si>
     <t>UserName</t>
   </si>
@@ -1014,6 +1014,162 @@
   </si>
   <si>
     <t>Karen (karen.quintana@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4388469</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>572 Lubowitz Cove</t>
+  </si>
+  <si>
+    <t>Lehnertown</t>
+  </si>
+  <si>
+    <t>56886-3973</t>
+  </si>
+  <si>
+    <t>53721</t>
+  </si>
+  <si>
+    <t>2202272598</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3222142</t>
+  </si>
+  <si>
+    <t>Ningxia</t>
+  </si>
+  <si>
+    <t>0733 Abernathy Common</t>
+  </si>
+  <si>
+    <t>South Edmundo</t>
+  </si>
+  <si>
+    <t>90523-8146</t>
+  </si>
+  <si>
+    <t>66863</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4672162</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>5430 Ebert Terrace</t>
+  </si>
+  <si>
+    <t>Rathport</t>
+  </si>
+  <si>
+    <t>68598</t>
+  </si>
+  <si>
+    <t>30612</t>
+  </si>
+  <si>
+    <t>2202272600</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2103211</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>78711 Jacqualine Garden</t>
+  </si>
+  <si>
+    <t>Pollichshire</t>
+  </si>
+  <si>
+    <t>32773-5921</t>
+  </si>
+  <si>
+    <t>45560</t>
+  </si>
+  <si>
+    <t>2202272601</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1055886</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>906 Alberto Mission</t>
+  </si>
+  <si>
+    <t>Buckridgebury</t>
+  </si>
+  <si>
+    <t>17318-3959</t>
+  </si>
+  <si>
+    <t>54864</t>
+  </si>
+  <si>
+    <t>2202272602</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2182532</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>810 Effertz Locks</t>
+  </si>
+  <si>
+    <t>South Cameronfort</t>
+  </si>
+  <si>
+    <t>40046-1711</t>
+  </si>
+  <si>
+    <t>18793</t>
+  </si>
+  <si>
+    <t>Automation V2 Project442406</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>72656 Cummings Fall</t>
+  </si>
+  <si>
+    <t>East Tyrell</t>
+  </si>
+  <si>
+    <t>07210</t>
+  </si>
+  <si>
+    <t>8532</t>
+  </si>
+  <si>
+    <t>Automation V2 Project4980327</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>076 Cartwright Hill</t>
+  </si>
+  <si>
+    <t>Joneston</t>
+  </si>
+  <si>
+    <t>75391</t>
+  </si>
+  <si>
+    <t>9712</t>
   </si>
 </sst>
 </file>
@@ -1435,16 +1591,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.08203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
@@ -1625,10 +1781,10 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -1637,22 +1793,22 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="K2" t="s">
         <v>66</v>
@@ -1766,10 +1922,10 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -1778,22 +1934,22 @@
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="K3" t="s">
         <v>131</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="398">
   <si>
     <t>UserName</t>
   </si>
@@ -1170,6 +1170,63 @@
   </si>
   <si>
     <t>9712</t>
+  </si>
+  <si>
+    <t>Automation V2 Project3898382</t>
+  </si>
+  <si>
+    <t>5173 Elfreda Roads</t>
+  </si>
+  <si>
+    <t>North Diego</t>
+  </si>
+  <si>
+    <t>22038-8728</t>
+  </si>
+  <si>
+    <t>2438</t>
+  </si>
+  <si>
+    <t>2202272641</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>emmett.dietrich@hotmail.com</t>
+  </si>
+  <si>
+    <t>5580505887</t>
+  </si>
+  <si>
+    <t>Personal Finance</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>6146 Marian Corners</t>
+  </si>
+  <si>
+    <t>West Cindafort</t>
+  </si>
+  <si>
+    <t>42470-6776</t>
+  </si>
+  <si>
+    <t>Refugio</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>4328 Grant Pines</t>
+  </si>
+  <si>
+    <t>East Dominickburgh</t>
+  </si>
+  <si>
+    <t>13519-1518</t>
   </si>
 </sst>
 </file>
@@ -1593,25 +1650,25 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.08203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.73046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.765625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.62890625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.62109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -1629,11 +1686,11 @@
     <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
     <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
     <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
@@ -1781,67 +1838,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>389</v>
       </c>
       <c r="Q2" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="R2" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="S2" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="T2" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -2274,14 +2331,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.16015625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2318,16 +2375,16 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="443">
   <si>
     <t>UserName</t>
   </si>
@@ -1227,6 +1227,141 @@
   </si>
   <si>
     <t>13519-1518</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3386090</t>
+  </si>
+  <si>
+    <t>46768</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>97348 Waters Hill</t>
+  </si>
+  <si>
+    <t>Jenellland</t>
+  </si>
+  <si>
+    <t>17304-1646</t>
+  </si>
+  <si>
+    <t>WELLP07133</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>karri.gleichner@hotmail.com</t>
+  </si>
+  <si>
+    <t>0206552567</t>
+  </si>
+  <si>
+    <t>Tynisha</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2538556</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>40313</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>400 Garry Course</t>
+  </si>
+  <si>
+    <t>Mohrtown</t>
+  </si>
+  <si>
+    <t>61642-3111</t>
+  </si>
+  <si>
+    <t>WELLP07134</t>
+  </si>
+  <si>
+    <t>Vern</t>
+  </si>
+  <si>
+    <t>felisa.crist@hotmail.com</t>
+  </si>
+  <si>
+    <t>2808075671</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Automation portfolio 2343247</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>35226</t>
+  </si>
+  <si>
+    <t>82753 Sandy Prairie</t>
+  </si>
+  <si>
+    <t>Lake Santos</t>
+  </si>
+  <si>
+    <t>60876</t>
+  </si>
+  <si>
+    <t>WELLP07136</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>rosalyn.gaylord@gmail.com</t>
+  </si>
+  <si>
+    <t>8971038170</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Automation portfolio 1695885</t>
+  </si>
+  <si>
+    <t>36706</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>02266 Darci Ramp</t>
+  </si>
+  <si>
+    <t>Shermanland</t>
+  </si>
+  <si>
+    <t>38555-1839</t>
+  </si>
+  <si>
+    <t>WELLP07137</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>millard.huels@hotmail.com</t>
+  </si>
+  <si>
+    <t>4411720046</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
   </si>
 </sst>
 </file>
@@ -2103,18 +2238,18 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.82421875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.78515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.609375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.69140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.9609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.80859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.66015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
@@ -2225,16 +2360,16 @@
     </row>
     <row r="2" spans="1:30" ht="30">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -2243,34 +2378,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>433</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="N2" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="O2" t="s">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>442</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="467">
   <si>
     <t>UserName</t>
   </si>
@@ -1362,6 +1362,78 @@
   </si>
   <si>
     <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1904145</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>1881 O'Reilly Underpass</t>
+  </si>
+  <si>
+    <t>East Robert</t>
+  </si>
+  <si>
+    <t>78878-5342</t>
+  </si>
+  <si>
+    <t>66082</t>
+  </si>
+  <si>
+    <t>2202272937</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2128589</t>
+  </si>
+  <si>
+    <t>Packing &amp; Shipping</t>
+  </si>
+  <si>
+    <t>8120 Wilderman Trail</t>
+  </si>
+  <si>
+    <t>South Mohamedport</t>
+  </si>
+  <si>
+    <t>84305</t>
+  </si>
+  <si>
+    <t>47364</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>WPR007141</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 1138515</t>
+  </si>
+  <si>
+    <t>Travel Support</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>24591 Murphy Hills</t>
+  </si>
+  <si>
+    <t>East Thedaview</t>
+  </si>
+  <si>
+    <t>37929</t>
+  </si>
+  <si>
+    <t>11400</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>HSRP007142</t>
   </si>
 </sst>
 </file>
@@ -1787,8 +1859,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.73046875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
@@ -1973,10 +2045,10 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>387</v>
@@ -1985,22 +2057,22 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
         <v>277</v>
@@ -2680,18 +2752,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.60546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -2778,40 +2850,40 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>462</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>463</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>464</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2865,19 +2937,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.8203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.29296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.23046875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.171875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -2970,31 +3042,31 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -3003,10 +3075,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>455</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>456</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="501">
   <si>
     <t>UserName</t>
   </si>
@@ -1434,6 +1434,108 @@
   </si>
   <si>
     <t>HSRP007142</t>
+  </si>
+  <si>
+    <t>Automation portfolio 6774762</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>12620</t>
+  </si>
+  <si>
+    <t>969 Deidre Expressway</t>
+  </si>
+  <si>
+    <t>North Jeffersonview</t>
+  </si>
+  <si>
+    <t>26745-8382</t>
+  </si>
+  <si>
+    <t>WELLP07144</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4164397</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>19850</t>
+  </si>
+  <si>
+    <t>36872 Legros Mews</t>
+  </si>
+  <si>
+    <t>Stephaneport</t>
+  </si>
+  <si>
+    <t>62905</t>
+  </si>
+  <si>
+    <t>WELLP07145</t>
+  </si>
+  <si>
+    <t>Viki</t>
+  </si>
+  <si>
+    <t>pamelia.cremin@gmail.com</t>
+  </si>
+  <si>
+    <t>0548554450</t>
+  </si>
+  <si>
+    <t>Dionne</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3977561</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>7548</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>8456 Lind Tunnel</t>
+  </si>
+  <si>
+    <t>Langoshburgh</t>
+  </si>
+  <si>
+    <t>68409-2257</t>
+  </si>
+  <si>
+    <t>WELLP07149</t>
+  </si>
+  <si>
+    <t>Traci</t>
+  </si>
+  <si>
+    <t>latashia.ernser@yahoo.com</t>
+  </si>
+  <si>
+    <t>8831331102</t>
+  </si>
+  <si>
+    <t>Voncile</t>
+  </si>
+  <si>
+    <t>Retail Spaces</t>
+  </si>
+  <si>
+    <t>Automation portfolio 3589872</t>
+  </si>
+  <si>
+    <t>Building Services</t>
+  </si>
+  <si>
+    <t>48071</t>
   </si>
 </sst>
 </file>
@@ -2316,12 +2418,12 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.9609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.80859375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.31640625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.15625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
@@ -2335,7 +2437,7 @@
     <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="11.4609375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.4453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -2432,16 +2534,16 @@
     </row>
     <row r="2" spans="1:30" ht="30">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -2450,34 +2552,34 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>434</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K2" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L2" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M2" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="N2" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="O2" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="P2" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -2513,10 +2615,10 @@
         <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>325</v>
+        <v>497</v>
       </c>
       <c r="AC2" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>236</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="509">
   <si>
     <t>UserName</t>
   </si>
@@ -1536,6 +1536,30 @@
   </si>
   <si>
     <t>48071</t>
+  </si>
+  <si>
+    <t>Xenia</t>
+  </si>
+  <si>
+    <t>Myrle</t>
+  </si>
+  <si>
+    <t>lewis.thiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>2687605502</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>219 Borer Grove</t>
+  </si>
+  <si>
+    <t>East Danille</t>
+  </si>
+  <si>
+    <t>Alona</t>
   </si>
 </sst>
 </file>
@@ -3255,17 +3279,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.01953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.37109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.78515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.07421875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6953125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -3320,34 +3344,34 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>507</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>506</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>508</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF30FBA-53F6-4B03-ACA1-D6B7302FDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E54B432-DBCB-4B3F-9626-D99BDFE8992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="260">
   <si>
     <t>UserName</t>
   </si>
@@ -137,9 +137,6 @@
     <t>999</t>
   </si>
   <si>
-    <t>Montana</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -389,15 +386,6 @@
     <t>OwnerPostalCode</t>
   </si>
   <si>
-    <t>7244 Rau Station</t>
-  </si>
-  <si>
-    <t>Russton</t>
-  </si>
-  <si>
-    <t>65762-0220</t>
-  </si>
-  <si>
     <t>Jimmie</t>
   </si>
   <si>
@@ -434,36 +422,12 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Jazmin</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>ron.feil@hotmail.com</t>
-  </si>
-  <si>
-    <t>0345911466</t>
-  </si>
-  <si>
-    <t>07299 Wilton Forge</t>
-  </si>
-  <si>
-    <t>Lake Vanesa</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
     <t>abhishek.gupta@wellcertified.com</t>
   </si>
   <si>
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
     <t>NoPurseCount</t>
   </si>
   <si>
@@ -473,9 +437,6 @@
     <t>ScorecardPartCount</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>4225</t>
   </si>
   <si>
@@ -521,9 +482,6 @@
     <t>Account notes testing</t>
   </si>
   <si>
-    <t>Melanie (melanie.koch@wellcertified.com)</t>
-  </si>
-  <si>
     <t>WELL Performance Rating scope &amp; premises</t>
   </si>
   <si>
@@ -578,57 +536,6 @@
     <t>75,750.00</t>
   </si>
   <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>georgina.herman@hotmail.com</t>
-  </si>
-  <si>
-    <t>8344827387</t>
-  </si>
-  <si>
-    <t>204 Gino Knolls</t>
-  </si>
-  <si>
-    <t>Hermanshire</t>
-  </si>
-  <si>
-    <t>47108</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 3183235</t>
-  </si>
-  <si>
-    <t>Retirement Communities</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>7050 Napoleon Pines</t>
-  </si>
-  <si>
-    <t>Murraytown</t>
-  </si>
-  <si>
-    <t>93233-2983</t>
-  </si>
-  <si>
-    <t>20562</t>
-  </si>
-  <si>
-    <t>Elvin</t>
-  </si>
-  <si>
-    <t>HSRP007045</t>
-  </si>
-  <si>
-    <t>2202272380</t>
-  </si>
-  <si>
     <t>Sabrina Stanger (sabrina.stanger@wellcertified.com)</t>
   </si>
   <si>
@@ -638,486 +545,24 @@
     <t>Paige (pmcknight@gbci.org)</t>
   </si>
   <si>
-    <t>Automation WPR Project7473173</t>
-  </si>
-  <si>
-    <t>101 Moorgate</t>
-  </si>
-  <si>
-    <t>Warehousing &amp; Storage</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>318 Willard Grove</t>
-  </si>
-  <si>
-    <t>New Miesha</t>
-  </si>
-  <si>
-    <t>50181-0544</t>
-  </si>
-  <si>
-    <t>7502</t>
-  </si>
-  <si>
-    <t>WPR007052</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2709566</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>781 Stiedemann Lane</t>
-  </si>
-  <si>
-    <t>Lake Rossbury</t>
-  </si>
-  <si>
-    <t>35401</t>
-  </si>
-  <si>
-    <t>51379</t>
-  </si>
-  <si>
-    <t>Automation V2 Project485969</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>87848 Renner Meadows</t>
-  </si>
-  <si>
-    <t>Hesselhaven</t>
-  </si>
-  <si>
-    <t>02714-3603</t>
-  </si>
-  <si>
-    <t>46616</t>
-  </si>
-  <si>
-    <t>2202272413</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3884630</t>
-  </si>
-  <si>
-    <t>Media, PR &amp; Communications</t>
-  </si>
-  <si>
-    <t>10720</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>53427 Schaden Knoll</t>
-  </si>
-  <si>
-    <t>Port Nelson</t>
-  </si>
-  <si>
-    <t>73220-7408</t>
-  </si>
-  <si>
-    <t>WELLP07058</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>vicky.gleason@yahoo.com</t>
-  </si>
-  <si>
-    <t>5612407269</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Office Spaces</t>
-  </si>
-  <si>
     <t>$ 30,000.00 USD</t>
   </si>
   <si>
-    <t>Automation portfolio 1221855</t>
-  </si>
-  <si>
-    <t>Consultancies</t>
-  </si>
-  <si>
-    <t>36481</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>9736 Windler Cliffs</t>
-  </si>
-  <si>
-    <t>Leandrohaven</t>
-  </si>
-  <si>
-    <t>15501-4162</t>
-  </si>
-  <si>
-    <t>WELLP07059</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>santa.marquardt@hotmail.com</t>
-  </si>
-  <si>
-    <t>1832377825</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>For sale/lease</t>
   </si>
   <si>
-    <t>Automation portfolio 5489308</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>33362</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
-    <t>354 Delena Garden</t>
-  </si>
-  <si>
-    <t>East Garrettborough</t>
-  </si>
-  <si>
-    <t>29463</t>
-  </si>
-  <si>
-    <t>WELLP07060</t>
-  </si>
-  <si>
-    <t>Zenaida</t>
-  </si>
-  <si>
-    <t>carrol.langosh@hotmail.com</t>
-  </si>
-  <si>
-    <t>8160068437</t>
-  </si>
-  <si>
-    <t>Wen</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5042514</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>17076</t>
-  </si>
-  <si>
-    <t>900 Yost Parkway</t>
-  </si>
-  <si>
-    <t>Johnsmouth</t>
-  </si>
-  <si>
-    <t>34720-3258</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3926920</t>
-  </si>
-  <si>
-    <t>Clinical Services</t>
-  </si>
-  <si>
-    <t>49391</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>02909 Tom Island</t>
-  </si>
-  <si>
-    <t>Tyronehaven</t>
-  </si>
-  <si>
-    <t>96873</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1279520</t>
-  </si>
-  <si>
     <t>100 Percent Group Limited</t>
   </si>
   <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>14012</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>99964 Miguel Falls</t>
-  </si>
-  <si>
-    <t>Lake Noble</t>
-  </si>
-  <si>
-    <t>04997-0432</t>
-  </si>
-  <si>
-    <t>WELLP07066</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>hector.hagenes@hotmail.com</t>
-  </si>
-  <si>
-    <t>1387408551</t>
-  </si>
-  <si>
-    <t>Nichole</t>
-  </si>
-  <si>
-    <t>Convention Centers</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6795991</t>
-  </si>
-  <si>
-    <t>21892</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>67180 Lillian Springs</t>
-  </si>
-  <si>
-    <t>Port Peter</t>
-  </si>
-  <si>
-    <t>40357</t>
-  </si>
-  <si>
-    <t>WELLP07067</t>
-  </si>
-  <si>
-    <t>Denna</t>
-  </si>
-  <si>
-    <t>alexia.padberg@gmail.com</t>
-  </si>
-  <si>
-    <t>6765048252</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1211367</t>
-  </si>
-  <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>34124</t>
-  </si>
-  <si>
-    <t>1526 Dusty Lock</t>
-  </si>
-  <si>
-    <t>Lake Carey</t>
-  </si>
-  <si>
-    <t>66340-2076</t>
-  </si>
-  <si>
-    <t>WELLP07068</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>robbie.jacobson@gmail.com</t>
-  </si>
-  <si>
-    <t>0203420649</t>
-  </si>
-  <si>
-    <t>Collene</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Mona (mona.holtkoetter@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2695810</t>
-  </si>
-  <si>
-    <t>17841</t>
-  </si>
-  <si>
-    <t>759 Kovacek Plaza</t>
-  </si>
-  <si>
-    <t>Adalbertoville</t>
-  </si>
-  <si>
-    <t>40117</t>
-  </si>
-  <si>
-    <t>WELLP07069</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>doris.okon@yahoo.com</t>
-  </si>
-  <si>
-    <t>3866554759</t>
-  </si>
-  <si>
-    <t>Lucio</t>
-  </si>
-  <si>
-    <t>Dwelling Units</t>
-  </si>
-  <si>
     <t>Karen (karen.quintana@wellcertified.com)</t>
   </si>
   <si>
-    <t>Automation V2 Project4388469</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>572 Lubowitz Cove</t>
-  </si>
-  <si>
-    <t>Lehnertown</t>
-  </si>
-  <si>
-    <t>56886-3973</t>
-  </si>
-  <si>
-    <t>53721</t>
-  </si>
-  <si>
-    <t>2202272598</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3222142</t>
-  </si>
-  <si>
-    <t>Ningxia</t>
-  </si>
-  <si>
-    <t>0733 Abernathy Common</t>
-  </si>
-  <si>
-    <t>South Edmundo</t>
-  </si>
-  <si>
-    <t>90523-8146</t>
-  </si>
-  <si>
-    <t>66863</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4672162</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>5430 Ebert Terrace</t>
-  </si>
-  <si>
-    <t>Rathport</t>
-  </si>
-  <si>
-    <t>68598</t>
-  </si>
-  <si>
-    <t>30612</t>
-  </si>
-  <si>
-    <t>2202272600</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2103211</t>
-  </si>
-  <si>
-    <t>Hunan</t>
-  </si>
-  <si>
-    <t>78711 Jacqualine Garden</t>
-  </si>
-  <si>
-    <t>Pollichshire</t>
-  </si>
-  <si>
-    <t>32773-5921</t>
-  </si>
-  <si>
-    <t>45560</t>
-  </si>
-  <si>
     <t>2202272601</t>
   </si>
   <si>
-    <t>Automation V2 Project1055886</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>906 Alberto Mission</t>
-  </si>
-  <si>
-    <t>Buckridgebury</t>
-  </si>
-  <si>
-    <t>17318-3959</t>
-  </si>
-  <si>
-    <t>54864</t>
-  </si>
-  <si>
-    <t>2202272602</t>
-  </si>
-  <si>
     <t>Automation V2 Project2182532</t>
   </si>
   <si>
@@ -1136,60 +581,6 @@
     <t>18793</t>
   </si>
   <si>
-    <t>Automation V2 Project442406</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>72656 Cummings Fall</t>
-  </si>
-  <si>
-    <t>East Tyrell</t>
-  </si>
-  <si>
-    <t>07210</t>
-  </si>
-  <si>
-    <t>8532</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4980327</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>076 Cartwright Hill</t>
-  </si>
-  <si>
-    <t>Joneston</t>
-  </si>
-  <si>
-    <t>75391</t>
-  </si>
-  <si>
-    <t>9712</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3898382</t>
-  </si>
-  <si>
-    <t>5173 Elfreda Roads</t>
-  </si>
-  <si>
-    <t>North Diego</t>
-  </si>
-  <si>
-    <t>22038-8728</t>
-  </si>
-  <si>
-    <t>2438</t>
-  </si>
-  <si>
-    <t>2202272641</t>
-  </si>
-  <si>
     <t>Soon</t>
   </si>
   <si>
@@ -1229,141 +620,6 @@
     <t>13519-1518</t>
   </si>
   <si>
-    <t>Automation portfolio 3386090</t>
-  </si>
-  <si>
-    <t>46768</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>97348 Waters Hill</t>
-  </si>
-  <si>
-    <t>Jenellland</t>
-  </si>
-  <si>
-    <t>17304-1646</t>
-  </si>
-  <si>
-    <t>WELLP07133</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>karri.gleichner@hotmail.com</t>
-  </si>
-  <si>
-    <t>0206552567</t>
-  </si>
-  <si>
-    <t>Tynisha</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2538556</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage</t>
-  </si>
-  <si>
-    <t>40313</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>400 Garry Course</t>
-  </si>
-  <si>
-    <t>Mohrtown</t>
-  </si>
-  <si>
-    <t>61642-3111</t>
-  </si>
-  <si>
-    <t>WELLP07134</t>
-  </si>
-  <si>
-    <t>Vern</t>
-  </si>
-  <si>
-    <t>felisa.crist@hotmail.com</t>
-  </si>
-  <si>
-    <t>2808075671</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2343247</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>35226</t>
-  </si>
-  <si>
-    <t>82753 Sandy Prairie</t>
-  </si>
-  <si>
-    <t>Lake Santos</t>
-  </si>
-  <si>
-    <t>60876</t>
-  </si>
-  <si>
-    <t>WELLP07136</t>
-  </si>
-  <si>
-    <t>Herb</t>
-  </si>
-  <si>
-    <t>rosalyn.gaylord@gmail.com</t>
-  </si>
-  <si>
-    <t>8971038170</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1695885</t>
-  </si>
-  <si>
-    <t>36706</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>02266 Darci Ramp</t>
-  </si>
-  <si>
-    <t>Shermanland</t>
-  </si>
-  <si>
-    <t>38555-1839</t>
-  </si>
-  <si>
-    <t>WELLP07137</t>
-  </si>
-  <si>
-    <t>Vance</t>
-  </si>
-  <si>
-    <t>millard.huels@hotmail.com</t>
-  </si>
-  <si>
-    <t>4411720046</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
     <t>Automation V2 Project1904145</t>
   </si>
   <si>
@@ -1436,72 +692,6 @@
     <t>HSRP007142</t>
   </si>
   <si>
-    <t>Automation portfolio 6774762</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>12620</t>
-  </si>
-  <si>
-    <t>969 Deidre Expressway</t>
-  </si>
-  <si>
-    <t>North Jeffersonview</t>
-  </si>
-  <si>
-    <t>26745-8382</t>
-  </si>
-  <si>
-    <t>WELLP07144</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4164397</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>19850</t>
-  </si>
-  <si>
-    <t>36872 Legros Mews</t>
-  </si>
-  <si>
-    <t>Stephaneport</t>
-  </si>
-  <si>
-    <t>62905</t>
-  </si>
-  <si>
-    <t>WELLP07145</t>
-  </si>
-  <si>
-    <t>Viki</t>
-  </si>
-  <si>
-    <t>pamelia.cremin@gmail.com</t>
-  </si>
-  <si>
-    <t>0548554450</t>
-  </si>
-  <si>
-    <t>Dionne</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3977561</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>7548</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>8456 Lind Tunnel</t>
   </si>
   <si>
@@ -1511,9 +701,6 @@
     <t>68409-2257</t>
   </si>
   <si>
-    <t>WELLP07149</t>
-  </si>
-  <si>
     <t>Traci</t>
   </si>
   <si>
@@ -1560,6 +747,72 @@
   </si>
   <si>
     <t>Alona</t>
+  </si>
+  <si>
+    <t>WELLP07185</t>
+  </si>
+  <si>
+    <t>Christy</t>
+  </si>
+  <si>
+    <t>Bambi</t>
+  </si>
+  <si>
+    <t>dakota.lubowitz@gmail.com</t>
+  </si>
+  <si>
+    <t>0114775186</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>508 Corkery Extension</t>
+  </si>
+  <si>
+    <t>Lake Olastad</t>
+  </si>
+  <si>
+    <t>Grisel</t>
+  </si>
+  <si>
+    <t>monika.bechtelar@hotmail.com</t>
+  </si>
+  <si>
+    <t>0013100742</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>8625 Hilll Mount</t>
+  </si>
+  <si>
+    <t>Waelchihaven</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Miquel</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>sonny.willms@yahoo.com</t>
+  </si>
+  <si>
+    <t>7758427180</t>
+  </si>
+  <si>
+    <t>7374 Olson Ferry</t>
+  </si>
+  <si>
+    <t>West Eusebiafurt</t>
+  </si>
+  <si>
+    <t>Holly</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1981,27 +1234,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.62890625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.62109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -2019,11 +1271,11 @@
     <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
@@ -2031,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2061,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
@@ -2073,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" t="s">
         <v>116</v>
-      </c>
-      <c r="R1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>117</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -2094,144 +1346,144 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" t="s">
-        <v>83</v>
-      </c>
       <c r="AM1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR1" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>109</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>444</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>445</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>447</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
-        <v>388</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="Q2" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="R2" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="S2" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="T2" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="U2" t="s">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -2243,136 +1495,136 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Z2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AB2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
         <v>12</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" t="s">
-        <v>91</v>
-      </c>
       <c r="AM2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" t="s">
         <v>121</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>122</v>
       </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" t="s">
         <v>126</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>130</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -2384,37 +1636,37 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>88</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>90</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2428,45 +1680,44 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.859375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.31640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.15625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="41.45703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.4609375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -2475,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -2508,102 +1759,102 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
         <v>19</v>
       </c>
       <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
       <c r="T1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="U1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="W1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="X1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Y1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="Z1" t="s">
         <v>13</v>
       </c>
       <c r="AA1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="AC1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AD1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="30">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" t="s">
-        <v>500</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>489</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
-        <v>490</v>
+        <v>220</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>221</v>
       </c>
       <c r="M2" t="s">
-        <v>493</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
-        <v>494</v>
+        <v>223</v>
       </c>
       <c r="O2" t="s">
-        <v>495</v>
+        <v>224</v>
       </c>
       <c r="P2" t="s">
-        <v>496</v>
+        <v>225</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -2615,37 +1866,37 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="V2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>174</v>
-      </c>
       <c r="AB2" t="s">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="AC2" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2664,14 +1915,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.2578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.16015625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2691,39 +1942,39 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2767,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -2785,72 +2036,72 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
       </c>
       <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
         <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
       <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2878,18 +2129,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.60546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.94921875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
@@ -2902,13 +2153,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2929,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -2938,78 +2189,78 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
-        <v>77</v>
-      </c>
       <c r="R1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" t="s">
-        <v>166</v>
-      </c>
       <c r="U1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="V1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>460</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>464</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
-        <v>465</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -3021,31 +2272,31 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" t="s">
-        <v>178</v>
-      </c>
-      <c r="W2" t="s">
-        <v>177</v>
-      </c>
       <c r="X2" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3063,19 +2314,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.8203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.29296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.23046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -3088,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -3100,7 +2351,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -3127,84 +2378,84 @@
         <v>19</v>
       </c>
       <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
       <c r="S1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" t="s">
         <v>152</v>
       </c>
-      <c r="T1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U1" t="s">
-        <v>166</v>
-      </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
       </c>
       <c r="X1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Y1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Z1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>204</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
-        <v>454</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" t="s">
-        <v>455</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -3216,28 +2467,28 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="T2" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="U2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="V2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="W2">
         <v>48698</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +2512,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3280,15 +2531,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.01953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.37109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5234375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.78515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.69140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.97265625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
@@ -3297,16 +2548,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -3315,10 +2566,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -3330,48 +2581,48 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>501</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>502</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
-        <v>507</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>257</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF30FBA-53F6-4B03-ACA1-D6B7302FDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32866062-D852-4323-B5AF-9B3E9A3FA636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="252">
   <si>
     <t>UserName</t>
   </si>
@@ -137,9 +137,6 @@
     <t>999</t>
   </si>
   <si>
-    <t>Montana</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>ProjectID</t>
   </si>
   <si>
-    <t>gokulthiru22@gmail.com</t>
-  </si>
-  <si>
     <t>CardNumber</t>
   </si>
   <si>
@@ -389,15 +383,6 @@
     <t>OwnerPostalCode</t>
   </si>
   <si>
-    <t>7244 Rau Station</t>
-  </si>
-  <si>
-    <t>Russton</t>
-  </si>
-  <si>
-    <t>65762-0220</t>
-  </si>
-  <si>
     <t>Jimmie</t>
   </si>
   <si>
@@ -434,36 +419,12 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Jazmin</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>ron.feil@hotmail.com</t>
-  </si>
-  <si>
-    <t>0345911466</t>
-  </si>
-  <si>
-    <t>07299 Wilton Forge</t>
-  </si>
-  <si>
-    <t>Lake Vanesa</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
     <t>abhishek.gupta@wellcertified.com</t>
   </si>
   <si>
     <t>100 RESILIENT CITIES</t>
   </si>
   <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
     <t>NoPurseCount</t>
   </si>
   <si>
@@ -473,9 +434,6 @@
     <t>ScorecardPartCount</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>4225</t>
   </si>
   <si>
@@ -521,9 +479,6 @@
     <t>Account notes testing</t>
   </si>
   <si>
-    <t>Melanie (melanie.koch@wellcertified.com)</t>
-  </si>
-  <si>
     <t>WELL Performance Rating scope &amp; premises</t>
   </si>
   <si>
@@ -578,57 +533,6 @@
     <t>75,750.00</t>
   </si>
   <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>georgina.herman@hotmail.com</t>
-  </si>
-  <si>
-    <t>8344827387</t>
-  </si>
-  <si>
-    <t>204 Gino Knolls</t>
-  </si>
-  <si>
-    <t>Hermanshire</t>
-  </si>
-  <si>
-    <t>47108</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 3183235</t>
-  </si>
-  <si>
-    <t>Retirement Communities</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>7050 Napoleon Pines</t>
-  </si>
-  <si>
-    <t>Murraytown</t>
-  </si>
-  <si>
-    <t>93233-2983</t>
-  </si>
-  <si>
-    <t>20562</t>
-  </si>
-  <si>
-    <t>Elvin</t>
-  </si>
-  <si>
-    <t>HSRP007045</t>
-  </si>
-  <si>
-    <t>2202272380</t>
-  </si>
-  <si>
     <t>Sabrina Stanger (sabrina.stanger@wellcertified.com)</t>
   </si>
   <si>
@@ -638,928 +542,253 @@
     <t>Paige (pmcknight@gbci.org)</t>
   </si>
   <si>
-    <t>Automation WPR Project7473173</t>
+    <t>$ 30,000.00 USD</t>
+  </si>
+  <si>
+    <t>For sale/lease</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Karen (karen.quintana@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>2202272601</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2182532</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>810 Effertz Locks</t>
+  </si>
+  <si>
+    <t>South Cameronfort</t>
+  </si>
+  <si>
+    <t>40046-1711</t>
+  </si>
+  <si>
+    <t>18793</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>emmett.dietrich@hotmail.com</t>
+  </si>
+  <si>
+    <t>5580505887</t>
+  </si>
+  <si>
+    <t>Personal Finance</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>6146 Marian Corners</t>
+  </si>
+  <si>
+    <t>West Cindafort</t>
+  </si>
+  <si>
+    <t>42470-6776</t>
+  </si>
+  <si>
+    <t>Refugio</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>4328 Grant Pines</t>
+  </si>
+  <si>
+    <t>East Dominickburgh</t>
+  </si>
+  <si>
+    <t>13519-1518</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1904145</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>1881 O'Reilly Underpass</t>
+  </si>
+  <si>
+    <t>East Robert</t>
+  </si>
+  <si>
+    <t>78878-5342</t>
+  </si>
+  <si>
+    <t>66082</t>
+  </si>
+  <si>
+    <t>2202272937</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2128589</t>
+  </si>
+  <si>
+    <t>Packing &amp; Shipping</t>
+  </si>
+  <si>
+    <t>8120 Wilderman Trail</t>
+  </si>
+  <si>
+    <t>South Mohamedport</t>
+  </si>
+  <si>
+    <t>84305</t>
+  </si>
+  <si>
+    <t>47364</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>WPR007141</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 1138515</t>
+  </si>
+  <si>
+    <t>Travel Support</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>24591 Murphy Hills</t>
+  </si>
+  <si>
+    <t>East Thedaview</t>
+  </si>
+  <si>
+    <t>37929</t>
+  </si>
+  <si>
+    <t>11400</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>HSRP007142</t>
+  </si>
+  <si>
+    <t>Retail Spaces</t>
+  </si>
+  <si>
+    <t>Xenia</t>
+  </si>
+  <si>
+    <t>Myrle</t>
+  </si>
+  <si>
+    <t>lewis.thiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>2687605502</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>219 Borer Grove</t>
+  </si>
+  <si>
+    <t>East Danille</t>
+  </si>
+  <si>
+    <t>Alona</t>
+  </si>
+  <si>
+    <t>welluiautomationtesting@gmail.com</t>
+  </si>
+  <si>
+    <t>Automation portfolio 5280655</t>
   </si>
   <si>
     <t>101 Moorgate</t>
   </si>
   <si>
-    <t>Warehousing &amp; Storage</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>318 Willard Grove</t>
-  </si>
-  <si>
-    <t>New Miesha</t>
-  </si>
-  <si>
-    <t>50181-0544</t>
-  </si>
-  <si>
-    <t>7502</t>
-  </si>
-  <si>
-    <t>WPR007052</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2709566</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>781 Stiedemann Lane</t>
-  </si>
-  <si>
-    <t>Lake Rossbury</t>
-  </si>
-  <si>
-    <t>35401</t>
-  </si>
-  <si>
-    <t>51379</t>
-  </si>
-  <si>
-    <t>Automation V2 Project485969</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>87848 Renner Meadows</t>
-  </si>
-  <si>
-    <t>Hesselhaven</t>
-  </si>
-  <si>
-    <t>02714-3603</t>
-  </si>
-  <si>
-    <t>46616</t>
-  </si>
-  <si>
-    <t>2202272413</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3884630</t>
-  </si>
-  <si>
-    <t>Media, PR &amp; Communications</t>
-  </si>
-  <si>
-    <t>10720</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>53427 Schaden Knoll</t>
-  </si>
-  <si>
-    <t>Port Nelson</t>
-  </si>
-  <si>
-    <t>73220-7408</t>
-  </si>
-  <si>
-    <t>WELLP07058</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>vicky.gleason@yahoo.com</t>
-  </si>
-  <si>
-    <t>5612407269</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Office Spaces</t>
-  </si>
-  <si>
-    <t>$ 30,000.00 USD</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1221855</t>
-  </si>
-  <si>
-    <t>Consultancies</t>
-  </si>
-  <si>
-    <t>36481</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>9736 Windler Cliffs</t>
-  </si>
-  <si>
-    <t>Leandrohaven</t>
-  </si>
-  <si>
-    <t>15501-4162</t>
-  </si>
-  <si>
-    <t>WELLP07059</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>santa.marquardt@hotmail.com</t>
-  </si>
-  <si>
-    <t>1832377825</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>For sale/lease</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5489308</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>33362</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>354 Delena Garden</t>
-  </si>
-  <si>
-    <t>East Garrettborough</t>
-  </si>
-  <si>
-    <t>29463</t>
-  </si>
-  <si>
-    <t>WELLP07060</t>
-  </si>
-  <si>
-    <t>Zenaida</t>
-  </si>
-  <si>
-    <t>carrol.langosh@hotmail.com</t>
-  </si>
-  <si>
-    <t>8160068437</t>
-  </si>
-  <si>
-    <t>Wen</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5042514</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>17076</t>
-  </si>
-  <si>
-    <t>900 Yost Parkway</t>
-  </si>
-  <si>
-    <t>Johnsmouth</t>
-  </si>
-  <si>
-    <t>34720-3258</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3926920</t>
-  </si>
-  <si>
-    <t>Clinical Services</t>
-  </si>
-  <si>
-    <t>49391</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>02909 Tom Island</t>
-  </si>
-  <si>
-    <t>Tyronehaven</t>
-  </si>
-  <si>
-    <t>96873</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1279520</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>14012</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>99964 Miguel Falls</t>
-  </si>
-  <si>
-    <t>Lake Noble</t>
-  </si>
-  <si>
-    <t>04997-0432</t>
-  </si>
-  <si>
-    <t>WELLP07066</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>hector.hagenes@hotmail.com</t>
-  </si>
-  <si>
-    <t>1387408551</t>
-  </si>
-  <si>
-    <t>Nichole</t>
-  </si>
-  <si>
-    <t>Convention Centers</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6795991</t>
-  </si>
-  <si>
-    <t>21892</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>67180 Lillian Springs</t>
-  </si>
-  <si>
-    <t>Port Peter</t>
-  </si>
-  <si>
-    <t>40357</t>
-  </si>
-  <si>
-    <t>WELLP07067</t>
-  </si>
-  <si>
-    <t>Denna</t>
-  </si>
-  <si>
-    <t>alexia.padberg@gmail.com</t>
-  </si>
-  <si>
-    <t>6765048252</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1211367</t>
-  </si>
-  <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>34124</t>
-  </si>
-  <si>
-    <t>1526 Dusty Lock</t>
-  </si>
-  <si>
-    <t>Lake Carey</t>
-  </si>
-  <si>
-    <t>66340-2076</t>
-  </si>
-  <si>
-    <t>WELLP07068</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>robbie.jacobson@gmail.com</t>
-  </si>
-  <si>
-    <t>0203420649</t>
-  </si>
-  <si>
-    <t>Collene</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Mona (mona.holtkoetter@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2695810</t>
-  </si>
-  <si>
-    <t>17841</t>
-  </si>
-  <si>
-    <t>759 Kovacek Plaza</t>
-  </si>
-  <si>
-    <t>Adalbertoville</t>
-  </si>
-  <si>
-    <t>40117</t>
-  </si>
-  <si>
-    <t>WELLP07069</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>doris.okon@yahoo.com</t>
-  </si>
-  <si>
-    <t>3866554759</t>
-  </si>
-  <si>
-    <t>Lucio</t>
-  </si>
-  <si>
-    <t>Dwelling Units</t>
-  </si>
-  <si>
-    <t>Karen (karen.quintana@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4388469</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>572 Lubowitz Cove</t>
-  </si>
-  <si>
-    <t>Lehnertown</t>
-  </si>
-  <si>
-    <t>56886-3973</t>
-  </si>
-  <si>
-    <t>53721</t>
-  </si>
-  <si>
-    <t>2202272598</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3222142</t>
-  </si>
-  <si>
-    <t>Ningxia</t>
-  </si>
-  <si>
-    <t>0733 Abernathy Common</t>
-  </si>
-  <si>
-    <t>South Edmundo</t>
-  </si>
-  <si>
-    <t>90523-8146</t>
-  </si>
-  <si>
-    <t>66863</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4672162</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>5430 Ebert Terrace</t>
-  </si>
-  <si>
-    <t>Rathport</t>
-  </si>
-  <si>
-    <t>68598</t>
-  </si>
-  <si>
-    <t>30612</t>
-  </si>
-  <si>
-    <t>2202272600</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2103211</t>
-  </si>
-  <si>
-    <t>Hunan</t>
-  </si>
-  <si>
-    <t>78711 Jacqualine Garden</t>
-  </si>
-  <si>
-    <t>Pollichshire</t>
-  </si>
-  <si>
-    <t>32773-5921</t>
-  </si>
-  <si>
-    <t>45560</t>
-  </si>
-  <si>
-    <t>2202272601</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1055886</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>906 Alberto Mission</t>
-  </si>
-  <si>
-    <t>Buckridgebury</t>
-  </si>
-  <si>
-    <t>17318-3959</t>
-  </si>
-  <si>
-    <t>54864</t>
-  </si>
-  <si>
-    <t>2202272602</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2182532</t>
-  </si>
-  <si>
-    <t>Qinghai</t>
-  </si>
-  <si>
-    <t>810 Effertz Locks</t>
-  </si>
-  <si>
-    <t>South Cameronfort</t>
-  </si>
-  <si>
-    <t>40046-1711</t>
-  </si>
-  <si>
-    <t>18793</t>
-  </si>
-  <si>
-    <t>Automation V2 Project442406</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>72656 Cummings Fall</t>
-  </si>
-  <si>
-    <t>East Tyrell</t>
-  </si>
-  <si>
-    <t>07210</t>
-  </si>
-  <si>
-    <t>8532</t>
-  </si>
-  <si>
-    <t>Automation V2 Project4980327</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>076 Cartwright Hill</t>
-  </si>
-  <si>
-    <t>Joneston</t>
-  </si>
-  <si>
-    <t>75391</t>
-  </si>
-  <si>
-    <t>9712</t>
-  </si>
-  <si>
-    <t>Automation V2 Project3898382</t>
-  </si>
-  <si>
-    <t>5173 Elfreda Roads</t>
-  </si>
-  <si>
-    <t>North Diego</t>
-  </si>
-  <si>
-    <t>22038-8728</t>
-  </si>
-  <si>
-    <t>2438</t>
-  </si>
-  <si>
-    <t>2202272641</t>
-  </si>
-  <si>
-    <t>Soon</t>
-  </si>
-  <si>
-    <t>emmett.dietrich@hotmail.com</t>
-  </si>
-  <si>
-    <t>5580505887</t>
-  </si>
-  <si>
-    <t>Personal Finance</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>6146 Marian Corners</t>
-  </si>
-  <si>
-    <t>West Cindafort</t>
-  </si>
-  <si>
-    <t>42470-6776</t>
-  </si>
-  <si>
-    <t>Refugio</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>4328 Grant Pines</t>
-  </si>
-  <si>
-    <t>East Dominickburgh</t>
-  </si>
-  <si>
-    <t>13519-1518</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3386090</t>
-  </si>
-  <si>
-    <t>46768</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>97348 Waters Hill</t>
-  </si>
-  <si>
-    <t>Jenellland</t>
-  </si>
-  <si>
-    <t>17304-1646</t>
-  </si>
-  <si>
-    <t>WELLP07133</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>karri.gleichner@hotmail.com</t>
-  </si>
-  <si>
-    <t>0206552567</t>
-  </si>
-  <si>
-    <t>Tynisha</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2538556</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage</t>
-  </si>
-  <si>
-    <t>40313</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>400 Garry Course</t>
-  </si>
-  <si>
-    <t>Mohrtown</t>
-  </si>
-  <si>
-    <t>61642-3111</t>
-  </si>
-  <si>
-    <t>WELLP07134</t>
-  </si>
-  <si>
-    <t>Vern</t>
-  </si>
-  <si>
-    <t>felisa.crist@hotmail.com</t>
-  </si>
-  <si>
-    <t>2808075671</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Automation portfolio 2343247</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>35226</t>
-  </si>
-  <si>
-    <t>82753 Sandy Prairie</t>
-  </si>
-  <si>
-    <t>Lake Santos</t>
-  </si>
-  <si>
-    <t>60876</t>
-  </si>
-  <si>
-    <t>WELLP07136</t>
-  </si>
-  <si>
-    <t>Herb</t>
-  </si>
-  <si>
-    <t>rosalyn.gaylord@gmail.com</t>
-  </si>
-  <si>
-    <t>8971038170</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Automation portfolio 1695885</t>
-  </si>
-  <si>
-    <t>36706</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>02266 Darci Ramp</t>
-  </si>
-  <si>
-    <t>Shermanland</t>
-  </si>
-  <si>
-    <t>38555-1839</t>
-  </si>
-  <si>
-    <t>WELLP07137</t>
-  </si>
-  <si>
-    <t>Vance</t>
-  </si>
-  <si>
-    <t>millard.huels@hotmail.com</t>
-  </si>
-  <si>
-    <t>4411720046</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1904145</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>1881 O'Reilly Underpass</t>
-  </si>
-  <si>
-    <t>East Robert</t>
-  </si>
-  <si>
-    <t>78878-5342</t>
-  </si>
-  <si>
-    <t>66082</t>
-  </si>
-  <si>
-    <t>2202272937</t>
-  </si>
-  <si>
-    <t>Automation WPR Project2128589</t>
-  </si>
-  <si>
-    <t>Packing &amp; Shipping</t>
-  </si>
-  <si>
-    <t>8120 Wilderman Trail</t>
-  </si>
-  <si>
-    <t>South Mohamedport</t>
-  </si>
-  <si>
-    <t>84305</t>
-  </si>
-  <si>
-    <t>47364</t>
-  </si>
-  <si>
-    <t>Liliana</t>
-  </si>
-  <si>
-    <t>WPR007141</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1138515</t>
-  </si>
-  <si>
-    <t>Travel Support</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>24591 Murphy Hills</t>
-  </si>
-  <si>
-    <t>East Thedaview</t>
-  </si>
-  <si>
-    <t>37929</t>
-  </si>
-  <si>
-    <t>11400</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>HSRP007142</t>
-  </si>
-  <si>
-    <t>Automation portfolio 6774762</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>12620</t>
-  </si>
-  <si>
-    <t>969 Deidre Expressway</t>
-  </si>
-  <si>
-    <t>North Jeffersonview</t>
-  </si>
-  <si>
-    <t>26745-8382</t>
-  </si>
-  <si>
-    <t>WELLP07144</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4164397</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>19850</t>
-  </si>
-  <si>
-    <t>36872 Legros Mews</t>
-  </si>
-  <si>
-    <t>Stephaneport</t>
-  </si>
-  <si>
-    <t>62905</t>
-  </si>
-  <si>
-    <t>WELLP07145</t>
-  </si>
-  <si>
-    <t>Viki</t>
-  </si>
-  <si>
-    <t>pamelia.cremin@gmail.com</t>
-  </si>
-  <si>
-    <t>0548554450</t>
-  </si>
-  <si>
-    <t>Dionne</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3977561</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>7548</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>8456 Lind Tunnel</t>
-  </si>
-  <si>
-    <t>Langoshburgh</t>
-  </si>
-  <si>
-    <t>68409-2257</t>
-  </si>
-  <si>
-    <t>WELLP07149</t>
-  </si>
-  <si>
-    <t>Traci</t>
-  </si>
-  <si>
-    <t>latashia.ernser@yahoo.com</t>
-  </si>
-  <si>
-    <t>8831331102</t>
-  </si>
-  <si>
-    <t>Voncile</t>
-  </si>
-  <si>
-    <t>Retail Spaces</t>
-  </si>
-  <si>
-    <t>Automation portfolio 3589872</t>
-  </si>
-  <si>
-    <t>Building Services</t>
-  </si>
-  <si>
-    <t>48071</t>
-  </si>
-  <si>
-    <t>Xenia</t>
-  </si>
-  <si>
-    <t>Myrle</t>
-  </si>
-  <si>
-    <t>lewis.thiel@hotmail.com</t>
-  </si>
-  <si>
-    <t>2687605502</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>219 Borer Grove</t>
-  </si>
-  <si>
-    <t>East Danille</t>
-  </si>
-  <si>
-    <t>Alona</t>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>30843</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>073 Wilderman Garden</t>
+  </si>
+  <si>
+    <t>New Nellstad</t>
+  </si>
+  <si>
+    <t>91266</t>
+  </si>
+  <si>
+    <t>WELLP07212</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>dennis.metz@yahoo.com</t>
+  </si>
+  <si>
+    <t>4467594653</t>
+  </si>
+  <si>
+    <t>Melita</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4835776</t>
+  </si>
+  <si>
+    <t>Corporate Real Estate</t>
+  </si>
+  <si>
+    <t>39726</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>3987 Reynolds Walks</t>
+  </si>
+  <si>
+    <t>Toytown</t>
+  </si>
+  <si>
+    <t>82350-8171</t>
+  </si>
+  <si>
+    <t>WELLP07213</t>
+  </si>
+  <si>
+    <t>Lonnie</t>
+  </si>
+  <si>
+    <t>lissa.hegmann@gmail.com</t>
+  </si>
+  <si>
+    <t>0980072626</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +1144,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1948,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1975,63 +1204,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.24609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.921875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.62890625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.71875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.62109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.12109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.90625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.90625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.6328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
     <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
     <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.609375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.40625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.9140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.1796875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.6328125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2061,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
@@ -2073,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
         <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>117</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -2094,144 +1322,144 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>83</v>
-      </c>
       <c r="AM1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS1" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>108</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>449</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>445</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
-        <v>386</v>
+        <v>181</v>
       </c>
       <c r="N2" t="s">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="Q2" t="s">
-        <v>390</v>
+        <v>185</v>
       </c>
       <c r="R2" t="s">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="S2" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="T2" t="s">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="U2" t="s">
-        <v>393</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -2243,136 +1471,136 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Z2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AB2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
         <v>12</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="AE2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>91</v>
-      </c>
       <c r="AM2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AS2" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>366</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
         <v>121</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>122</v>
       </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" t="s">
         <v>125</v>
-      </c>
-      <c r="R3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>130</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -2384,37 +1612,37 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="AE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>88</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>89</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2426,47 +1654,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.859375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.31640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.9453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.953125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.15625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="41.45703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.453125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="37.54296875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.4609375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -2475,16 +1704,16 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -2508,102 +1737,105 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
         <v>19</v>
       </c>
       <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
-        <v>75</v>
-      </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="U1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="W1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Z1" t="s">
         <v>13</v>
       </c>
       <c r="AA1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="AC1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="AD1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" t="s">
-        <v>500</v>
+        <v>242</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J2" t="s">
-        <v>489</v>
+        <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>493</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>494</v>
+        <v>249</v>
       </c>
       <c r="O2" t="s">
-        <v>495</v>
+        <v>250</v>
       </c>
       <c r="P2" t="s">
-        <v>496</v>
+        <v>251</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -2615,37 +1847,40 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>326</v>
+        <v>172</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="V2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA2" t="s">
         <v>159</v>
       </c>
-      <c r="W2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>174</v>
-      </c>
       <c r="AB2" t="s">
-        <v>497</v>
+        <v>217</v>
       </c>
       <c r="AC2" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>236</v>
+        <v>169</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2662,16 +1897,16 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.234375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.2578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.16015625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.71875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2691,39 +1926,39 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2742,24 +1977,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2767,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -2785,72 +2020,72 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
       </c>
       <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
-        <v>75</v>
-      </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2870,45 +2105,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F8409-99F8-4FFC-AA3A-80D15FF5718E}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="30.95703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.53515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.60546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7265625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.81640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2929,7 +2164,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -2938,78 +2173,81 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>77</v>
-      </c>
       <c r="R1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="V1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="W1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
-        <v>465</v>
+        <v>215</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -3021,31 +2259,34 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" t="s">
-        <v>178</v>
-      </c>
       <c r="W2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3055,40 +2296,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z2"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.18359375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.8203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.29296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.23046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.39453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.86328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.7265625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -3100,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -3127,84 +2368,87 @@
         <v>19</v>
       </c>
       <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
       <c r="S1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="U1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
       </c>
       <c r="X1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Y1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Z1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" t="s">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="M2" t="s">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -3216,28 +2460,31 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="S2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="T2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="U2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="V2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="W2">
         <v>48698</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3254,14 +2501,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3277,36 +2524,36 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.01953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.37109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.96875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.78515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.4921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.07421875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6953125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -3315,10 +2562,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -3330,48 +2577,48 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
-        <v>75</v>
-      </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>501</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>502</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>507</v>
+        <v>224</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91735\Documents\Project WellCertified\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32866062-D852-4323-B5AF-9B3E9A3FA636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1AE163-15A1-4C78-AA24-FE197B3D5A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="252">
   <si>
     <t>UserName</t>
   </si>
@@ -419,376 +419,376 @@
     <t>Alaska</t>
   </si>
   <si>
+    <t>100 RESILIENT CITIES</t>
+  </si>
+  <si>
+    <t>NoPurseCount</t>
+  </si>
+  <si>
+    <t>YesPurseCount</t>
+  </si>
+  <si>
+    <t>ScorecardPartCount</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
+    <t>5850</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>CoachingContacts</t>
+  </si>
+  <si>
+    <t>CommunicationNotes</t>
+  </si>
+  <si>
+    <t>AccountNotes</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Goals and vision for applying WELL at scale</t>
+  </si>
+  <si>
+    <t>Scope of initiative</t>
+  </si>
+  <si>
+    <t>Communication notes testing</t>
+  </si>
+  <si>
+    <t>Challenges notes testing</t>
+  </si>
+  <si>
+    <t>Account notes testing</t>
+  </si>
+  <si>
+    <t>WELL Performance Rating scope &amp; premises</t>
+  </si>
+  <si>
+    <t>WELL Performance Rating goals and vision</t>
+  </si>
+  <si>
+    <t>RelationshipManager</t>
+  </si>
+  <si>
+    <t>WellReviewer</t>
+  </si>
+  <si>
+    <t>Shekhar (shekhar.chikara@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Eleftherios (eleftherios.zacharakis@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Marc (Marc@gbci.org)</t>
+  </si>
+  <si>
+    <t>ProjectVersion</t>
+  </si>
+  <si>
+    <t>SpaceTypes</t>
+  </si>
+  <si>
+    <t>OwnerType</t>
+  </si>
+  <si>
+    <t>Project test1</t>
+  </si>
+  <si>
+    <t>WELL v2-Pilot</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>Location Test</t>
+  </si>
+  <si>
+    <t>Tenancy</t>
+  </si>
+  <si>
+    <t>Student Dining Spaces</t>
+  </si>
+  <si>
+    <t>EquityName</t>
+  </si>
+  <si>
+    <t>75,750.00</t>
+  </si>
+  <si>
+    <t>Sabrina Stanger (sabrina.stanger@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Tori (victoria.shepherd@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>Paige (pmcknight@gbci.org)</t>
+  </si>
+  <si>
+    <t>$ 30,000.00 USD</t>
+  </si>
+  <si>
+    <t>For sale/lease</t>
+  </si>
+  <si>
+    <t>100 Percent Group Limited</t>
+  </si>
+  <si>
+    <t>Karen (karen.quintana@wellcertified.com)</t>
+  </si>
+  <si>
+    <t>2202272601</t>
+  </si>
+  <si>
+    <t>Automation V2 Project2182532</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>810 Effertz Locks</t>
+  </si>
+  <si>
+    <t>South Cameronfort</t>
+  </si>
+  <si>
+    <t>40046-1711</t>
+  </si>
+  <si>
+    <t>18793</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>emmett.dietrich@hotmail.com</t>
+  </si>
+  <si>
+    <t>5580505887</t>
+  </si>
+  <si>
+    <t>Personal Finance</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>6146 Marian Corners</t>
+  </si>
+  <si>
+    <t>West Cindafort</t>
+  </si>
+  <si>
+    <t>42470-6776</t>
+  </si>
+  <si>
+    <t>Refugio</t>
+  </si>
+  <si>
+    <t>Automation V2 Project1904145</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>1881 O'Reilly Underpass</t>
+  </si>
+  <si>
+    <t>East Robert</t>
+  </si>
+  <si>
+    <t>78878-5342</t>
+  </si>
+  <si>
+    <t>66082</t>
+  </si>
+  <si>
+    <t>2202272937</t>
+  </si>
+  <si>
+    <t>Automation WPR Project2128589</t>
+  </si>
+  <si>
+    <t>Packing &amp; Shipping</t>
+  </si>
+  <si>
+    <t>8120 Wilderman Trail</t>
+  </si>
+  <si>
+    <t>South Mohamedport</t>
+  </si>
+  <si>
+    <t>84305</t>
+  </si>
+  <si>
+    <t>47364</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>WPR007141</t>
+  </si>
+  <si>
+    <t>Automation HSR Project 1138515</t>
+  </si>
+  <si>
+    <t>Travel Support</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>24591 Murphy Hills</t>
+  </si>
+  <si>
+    <t>East Thedaview</t>
+  </si>
+  <si>
+    <t>37929</t>
+  </si>
+  <si>
+    <t>11400</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>HSRP007142</t>
+  </si>
+  <si>
+    <t>Retail Spaces</t>
+  </si>
+  <si>
+    <t>Xenia</t>
+  </si>
+  <si>
+    <t>Myrle</t>
+  </si>
+  <si>
+    <t>lewis.thiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>2687605502</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>219 Borer Grove</t>
+  </si>
+  <si>
+    <t>East Danille</t>
+  </si>
+  <si>
+    <t>Alona</t>
+  </si>
+  <si>
+    <t>welluiautomationtesting@gmail.com</t>
+  </si>
+  <si>
+    <t>101 Moorgate</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4835776</t>
+  </si>
+  <si>
+    <t>Corporate Real Estate</t>
+  </si>
+  <si>
+    <t>39726</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>3987 Reynolds Walks</t>
+  </si>
+  <si>
+    <t>Toytown</t>
+  </si>
+  <si>
+    <t>82350-8171</t>
+  </si>
+  <si>
+    <t>Lonnie</t>
+  </si>
+  <si>
+    <t>lissa.hegmann@gmail.com</t>
+  </si>
+  <si>
+    <t>0980072626</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
+  </si>
+  <si>
     <t>abhishek.gupta@wellcertified.com</t>
   </si>
   <si>
-    <t>100 RESILIENT CITIES</t>
-  </si>
-  <si>
-    <t>NoPurseCount</t>
-  </si>
-  <si>
-    <t>YesPurseCount</t>
-  </si>
-  <si>
-    <t>ScorecardPartCount</t>
-  </si>
-  <si>
-    <t>4225</t>
-  </si>
-  <si>
-    <t>5850</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>CoachingContacts</t>
-  </si>
-  <si>
-    <t>CommunicationNotes</t>
-  </si>
-  <si>
-    <t>AccountNotes</t>
-  </si>
-  <si>
-    <t>Goals</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Goals and vision for applying WELL at scale</t>
-  </si>
-  <si>
-    <t>Scope of initiative</t>
-  </si>
-  <si>
-    <t>Communication notes testing</t>
-  </si>
-  <si>
-    <t>Challenges notes testing</t>
-  </si>
-  <si>
-    <t>Account notes testing</t>
-  </si>
-  <si>
-    <t>WELL Performance Rating scope &amp; premises</t>
-  </si>
-  <si>
-    <t>WELL Performance Rating goals and vision</t>
-  </si>
-  <si>
-    <t>RelationshipManager</t>
-  </si>
-  <si>
-    <t>WellReviewer</t>
-  </si>
-  <si>
-    <t>Shekhar (shekhar.chikara@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Eleftherios (eleftherios.zacharakis@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Marc (Marc@gbci.org)</t>
-  </si>
-  <si>
-    <t>ProjectVersion</t>
-  </si>
-  <si>
-    <t>SpaceTypes</t>
-  </si>
-  <si>
-    <t>OwnerType</t>
-  </si>
-  <si>
-    <t>Project test1</t>
-  </si>
-  <si>
-    <t>WELL v2-Pilot</t>
-  </si>
-  <si>
-    <t>LocationName</t>
-  </si>
-  <si>
-    <t>Location Test</t>
-  </si>
-  <si>
-    <t>Tenancy</t>
-  </si>
-  <si>
-    <t>Student Dining Spaces</t>
-  </si>
-  <si>
-    <t>EquityName</t>
-  </si>
-  <si>
-    <t>75,750.00</t>
-  </si>
-  <si>
-    <t>Sabrina Stanger (sabrina.stanger@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Tori (victoria.shepherd@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>Paige (pmcknight@gbci.org)</t>
-  </si>
-  <si>
-    <t>$ 30,000.00 USD</t>
-  </si>
-  <si>
-    <t>For sale/lease</t>
-  </si>
-  <si>
-    <t>100 Percent Group Limited</t>
-  </si>
-  <si>
-    <t>Karen (karen.quintana@wellcertified.com)</t>
-  </si>
-  <si>
-    <t>2202272601</t>
-  </si>
-  <si>
-    <t>Automation V2 Project2182532</t>
-  </si>
-  <si>
-    <t>Qinghai</t>
-  </si>
-  <si>
-    <t>810 Effertz Locks</t>
-  </si>
-  <si>
-    <t>South Cameronfort</t>
-  </si>
-  <si>
-    <t>40046-1711</t>
-  </si>
-  <si>
-    <t>18793</t>
-  </si>
-  <si>
-    <t>Soon</t>
-  </si>
-  <si>
-    <t>emmett.dietrich@hotmail.com</t>
-  </si>
-  <si>
-    <t>5580505887</t>
-  </si>
-  <si>
-    <t>Personal Finance</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>6146 Marian Corners</t>
-  </si>
-  <si>
-    <t>West Cindafort</t>
-  </si>
-  <si>
-    <t>42470-6776</t>
-  </si>
-  <si>
-    <t>Refugio</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>4328 Grant Pines</t>
-  </si>
-  <si>
-    <t>East Dominickburgh</t>
-  </si>
-  <si>
-    <t>13519-1518</t>
-  </si>
-  <si>
-    <t>Automation V2 Project1904145</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>1881 O'Reilly Underpass</t>
-  </si>
-  <si>
-    <t>East Robert</t>
-  </si>
-  <si>
-    <t>78878-5342</t>
-  </si>
-  <si>
-    <t>66082</t>
-  </si>
-  <si>
-    <t>2202272937</t>
-  </si>
-  <si>
-    <t>Automation WPR Project2128589</t>
-  </si>
-  <si>
-    <t>Packing &amp; Shipping</t>
-  </si>
-  <si>
-    <t>8120 Wilderman Trail</t>
-  </si>
-  <si>
-    <t>South Mohamedport</t>
-  </si>
-  <si>
-    <t>84305</t>
-  </si>
-  <si>
-    <t>47364</t>
-  </si>
-  <si>
-    <t>Liliana</t>
-  </si>
-  <si>
-    <t>WPR007141</t>
-  </si>
-  <si>
-    <t>Automation HSR Project 1138515</t>
-  </si>
-  <si>
-    <t>Travel Support</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>24591 Murphy Hills</t>
-  </si>
-  <si>
-    <t>East Thedaview</t>
-  </si>
-  <si>
-    <t>37929</t>
-  </si>
-  <si>
-    <t>11400</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>HSRP007142</t>
-  </si>
-  <si>
-    <t>Retail Spaces</t>
-  </si>
-  <si>
-    <t>Xenia</t>
-  </si>
-  <si>
-    <t>Myrle</t>
-  </si>
-  <si>
-    <t>lewis.thiel@hotmail.com</t>
-  </si>
-  <si>
-    <t>2687605502</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>219 Borer Grove</t>
-  </si>
-  <si>
-    <t>East Danille</t>
-  </si>
-  <si>
-    <t>Alona</t>
-  </si>
-  <si>
-    <t>welluiautomationtesting@gmail.com</t>
-  </si>
-  <si>
-    <t>Automation portfolio 5280655</t>
-  </si>
-  <si>
-    <t>101 Moorgate</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>30843</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>073 Wilderman Garden</t>
-  </si>
-  <si>
-    <t>New Nellstad</t>
-  </si>
-  <si>
-    <t>91266</t>
-  </si>
-  <si>
-    <t>WELLP07212</t>
-  </si>
-  <si>
-    <t>Hannah</t>
-  </si>
-  <si>
-    <t>dennis.metz@yahoo.com</t>
-  </si>
-  <si>
-    <t>4467594653</t>
-  </si>
-  <si>
-    <t>Melita</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4835776</t>
-  </si>
-  <si>
-    <t>Corporate Real Estate</t>
-  </si>
-  <si>
-    <t>39726</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>3987 Reynolds Walks</t>
-  </si>
-  <si>
-    <t>Toytown</t>
-  </si>
-  <si>
-    <t>82350-8171</t>
-  </si>
-  <si>
-    <t>WELLP07213</t>
-  </si>
-  <si>
-    <t>Lonnie</t>
-  </si>
-  <si>
-    <t>lissa.hegmann@gmail.com</t>
-  </si>
-  <si>
-    <t>0980072626</t>
-  </si>
-  <si>
-    <t>Thaddeus</t>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>308 Larry Springs</t>
+  </si>
+  <si>
+    <t>Borershire</t>
+  </si>
+  <si>
+    <t>19428-1862</t>
+  </si>
+  <si>
+    <t>WELLP07236</t>
+  </si>
+  <si>
+    <t>Automation portfolio 938140</t>
+  </si>
+  <si>
+    <t>Investment Services</t>
+  </si>
+  <si>
+    <t>25161</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>385 Royce Light</t>
+  </si>
+  <si>
+    <t>Reynaldaville</t>
+  </si>
+  <si>
+    <t>09857</t>
+  </si>
+  <si>
+    <t>WELLP07239</t>
+  </si>
+  <si>
+    <t>Allyson</t>
+  </si>
+  <si>
+    <t>kristle.gleason@hotmail.com</t>
+  </si>
+  <si>
+    <t>4083649132</t>
+  </si>
+  <si>
+    <t>Miss</t>
   </si>
 </sst>
 </file>
@@ -1141,13 +1141,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1204,56 +1204,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DDA08-C4FB-4E43-ADE7-EDDAA41E68CF}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="18.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.90625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.90625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.6328125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
     <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
     <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.1796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.1796875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.1796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.6328125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.81640625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1331,13 +1331,13 @@
         <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
         <v>61</v>
@@ -1399,67 +1399,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
         <v>180</v>
       </c>
-      <c r="M2" t="s">
-        <v>181</v>
-      </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>185</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>186</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" t="s">
         <v>187</v>
-      </c>
-      <c r="T2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U2" t="s">
-        <v>188</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1471,13 +1471,13 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>136</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>137</v>
       </c>
       <c r="AB2" t="s">
         <v>63</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AE2" t="s">
         <v>82</v>
@@ -1519,13 +1519,13 @@
         <v>109</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>104</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>111</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
@@ -1552,22 +1552,22 @@
         <v>110</v>
       </c>
       <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
         <v>175</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>176</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>177</v>
-      </c>
-      <c r="H3" t="s">
-        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
         <v>126</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AE3" t="s">
         <v>82</v>
@@ -1656,41 +1656,41 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.50390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.9453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.9921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.890625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="25.01171875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="41.453125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.44140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="37.54296875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -1752,34 +1752,34 @@
         <v>72</v>
       </c>
       <c r="T1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
         <v>79</v>
       </c>
       <c r="V1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" t="s">
         <v>139</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>140</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>141</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>142</v>
       </c>
       <c r="Z1" t="s">
         <v>13</v>
       </c>
       <c r="AA1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>156</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>157</v>
       </c>
       <c r="AD1" t="s">
         <v>100</v>
@@ -1799,7 +1799,7 @@
         <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1847,40 +1847,40 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" t="s">
         <v>146</v>
       </c>
-      <c r="V2" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" t="s">
-        <v>147</v>
-      </c>
       <c r="X2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" t="s">
         <v>143</v>
       </c>
-      <c r="Y2" t="s">
-        <v>144</v>
-      </c>
       <c r="Z2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" t="s">
         <v>158</v>
       </c>
-      <c r="AA2" t="s">
-        <v>159</v>
-      </c>
       <c r="AB2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1891,25 +1891,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA1BAA-A15F-4FC5-B79A-8DB6B7F32D60}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6328125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1937,22 +1941,34 @@
       <c r="I1" t="s">
         <v>66</v>
       </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -1962,6 +1978,18 @@
       </c>
       <c r="H2" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1974,27 +2002,26 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M1" sqref="M1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2111,28 +2138,28 @@
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.453125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7265625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="39.81640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -2188,22 +2215,22 @@
         <v>75</v>
       </c>
       <c r="R1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" t="s">
-        <v>151</v>
-      </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" t="s">
         <v>156</v>
-      </c>
-      <c r="W1" t="s">
-        <v>157</v>
       </c>
       <c r="X1" t="s">
         <v>100</v>
@@ -2214,40 +2241,40 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2259,34 +2286,34 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" t="s">
-        <v>149</v>
-      </c>
       <c r="R2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" t="s">
         <v>152</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>153</v>
       </c>
-      <c r="T2" t="s">
-        <v>154</v>
-      </c>
       <c r="U2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W2" t="s">
         <v>161</v>
       </c>
-      <c r="V2" t="s">
-        <v>163</v>
-      </c>
-      <c r="W2" t="s">
-        <v>162</v>
-      </c>
       <c r="X2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2302,28 +2329,28 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="34.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.77734375" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2383,25 +2410,25 @@
         <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" t="s">
-        <v>151</v>
-      </c>
       <c r="V1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
       </c>
       <c r="X1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" t="s">
         <v>156</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>157</v>
       </c>
       <c r="Z1" t="s">
         <v>100</v>
@@ -2412,10 +2439,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -2424,19 +2451,19 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -2445,10 +2472,10 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2460,31 +2487,31 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" t="s">
         <v>148</v>
       </c>
-      <c r="R2" t="s">
-        <v>149</v>
-      </c>
       <c r="S2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" t="s">
         <v>166</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>167</v>
       </c>
-      <c r="U2" t="s">
-        <v>168</v>
-      </c>
       <c r="V2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W2">
         <v>48698</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2501,14 +2528,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2524,22 +2551,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2591,34 +2618,34 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" t="s">
         <v>218</v>
       </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" t="s">
-        <v>223</v>
-      </c>
       <c r="K2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\WellFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1AE163-15A1-4C78-AA24-FE197B3D5A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B954DF3-41D6-4495-BDBE-A2E9D72CAEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="239">
   <si>
     <t>UserName</t>
   </si>
@@ -701,42 +701,6 @@
     <t>welluiautomationtesting@gmail.com</t>
   </si>
   <si>
-    <t>101 Moorgate</t>
-  </si>
-  <si>
-    <t>Automation portfolio 4835776</t>
-  </si>
-  <si>
-    <t>Corporate Real Estate</t>
-  </si>
-  <si>
-    <t>39726</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>3987 Reynolds Walks</t>
-  </si>
-  <si>
-    <t>Toytown</t>
-  </si>
-  <si>
-    <t>82350-8171</t>
-  </si>
-  <si>
-    <t>Lonnie</t>
-  </si>
-  <si>
-    <t>lissa.hegmann@gmail.com</t>
-  </si>
-  <si>
-    <t>0980072626</t>
-  </si>
-  <si>
-    <t>Thaddeus</t>
-  </si>
-  <si>
     <t>abhishek.gupta@wellcertified.com</t>
   </si>
   <si>
@@ -750,9 +714,6 @@
   </si>
   <si>
     <t>19428-1862</t>
-  </si>
-  <si>
-    <t>WELLP07236</t>
   </si>
   <si>
     <t>Automation portfolio 938140</t>
@@ -795,7 +756,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1144,10 +1104,10 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1177,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1208,53 +1168,53 @@
       <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="62.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1654,43 +1614,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA429754-6532-434F-8D5F-1B15F28EE35F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.35546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.76953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.9921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.890625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="25.01171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="41.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -1788,15 +1748,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="30">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
         <v>128</v>
@@ -1808,34 +1768,34 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="N2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="O2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1880,6 +1840,101 @@
         <v>168</v>
       </c>
       <c r="AE2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="30">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1897,20 +1952,20 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1959,16 +2014,16 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -2005,23 +2060,23 @@
       <selection activeCell="M1" sqref="M1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2138,28 +2193,28 @@
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="41.77734375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="41.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -2329,29 +2384,29 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.77734375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="45.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2528,9 +2583,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -2551,22 +2606,22 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B954DF3-41D6-4495-BDBE-A2E9D72CAEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C9F528-3B4E-4957-81B7-F12255BAF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Exam" sheetId="6" r:id="rId5"/>
     <sheet name="Hsr" sheetId="4" r:id="rId6"/>
     <sheet name="Wpr" sheetId="5" r:id="rId7"/>
-    <sheet name="Equity" sheetId="9" r:id="rId8"/>
+    <sheet name="Wer" sheetId="9" r:id="rId8"/>
     <sheet name="Membership" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="241">
   <si>
     <t>UserName</t>
   </si>
@@ -524,9 +524,6 @@
     <t>Student Dining Spaces</t>
   </si>
   <si>
-    <t>EquityName</t>
-  </si>
-  <si>
     <t>75,750.00</t>
   </si>
   <si>
@@ -750,6 +747,15 @@
   </si>
   <si>
     <t>Miss</t>
+  </si>
+  <si>
+    <t>WERSelectMember</t>
+  </si>
+  <si>
+    <t>WERlocations</t>
+  </si>
+  <si>
+    <t>WERlocationsize</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -817,6 +823,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1137,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1359,67 +1368,67 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" t="s">
-        <v>192</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" t="s">
         <v>179</v>
       </c>
-      <c r="M2" t="s">
-        <v>180</v>
-      </c>
       <c r="N2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>184</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>185</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" t="s">
         <v>186</v>
-      </c>
-      <c r="T2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U2" t="s">
-        <v>187</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -1446,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE2" t="s">
         <v>82</v>
@@ -1500,10 +1509,10 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
         <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
@@ -1512,22 +1521,22 @@
         <v>110</v>
       </c>
       <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>175</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>176</v>
-      </c>
-      <c r="H3" t="s">
-        <v>177</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
         <v>126</v>
@@ -1578,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE3" t="s">
         <v>82</v>
@@ -1616,7 +1625,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1750,13 +1759,13 @@
     </row>
     <row r="2" spans="1:31" ht="30">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
       </c>
       <c r="D2" t="s">
         <v>128</v>
@@ -1768,34 +1777,34 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" t="s">
         <v>230</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>231</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>232</v>
       </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
       <c r="M2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" t="s">
         <v>235</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>236</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>237</v>
-      </c>
-      <c r="P2" t="s">
-        <v>238</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -1807,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U2" t="s">
         <v>145</v>
@@ -1831,27 +1840,27 @@
         <v>158</v>
       </c>
       <c r="AB2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="30">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -1863,34 +1872,34 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" t="s">
         <v>230</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>231</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>232</v>
       </c>
-      <c r="L3" t="s">
-        <v>233</v>
-      </c>
       <c r="M3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" t="s">
         <v>235</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>236</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>237</v>
-      </c>
-      <c r="P3" t="s">
-        <v>238</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
@@ -1902,7 +1911,7 @@
         <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
         <v>145</v>
@@ -1926,16 +1935,16 @@
         <v>158</v>
       </c>
       <c r="AB3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2014,16 +2023,16 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>226</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -2296,40 +2305,40 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
         <v>205</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" t="s">
-        <v>208</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
         <v>209</v>
-      </c>
-      <c r="L2" t="s">
-        <v>210</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2365,10 +2374,10 @@
         <v>161</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2380,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2494,10 +2503,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -2509,16 +2518,16 @@
         <v>128</v>
       </c>
       <c r="F2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
         <v>196</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>198</v>
-      </c>
-      <c r="I2" t="s">
-        <v>199</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -2527,10 +2536,10 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
         <v>200</v>
-      </c>
-      <c r="M2" t="s">
-        <v>201</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -2548,13 +2557,13 @@
         <v>148</v>
       </c>
       <c r="S2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" t="s">
         <v>165</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>166</v>
-      </c>
-      <c r="U2" t="s">
-        <v>167</v>
       </c>
       <c r="V2" t="s">
         <v>160</v>
@@ -2563,10 +2572,10 @@
         <v>48698</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2577,20 +2586,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF52901-90FE-455B-BEA8-FC50D01098D5}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>163</v>
+    <row r="1" spans="1:16">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="M2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2673,34 +2751,34 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" t="s">
         <v>217</v>
       </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>219</v>
-      </c>
-      <c r="J2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" t="s">
-        <v>220</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C9F528-3B4E-4957-81B7-F12255BAF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4371-6D70-469A-ADF6-C3D5ED3E34CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="250">
   <si>
     <t>UserName</t>
   </si>
@@ -756,6 +756,33 @@
   </si>
   <si>
     <t>WERlocationsize</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Automation WER Project5863780</t>
+  </si>
+  <si>
+    <t>6475 Kassulke Burg</t>
+  </si>
+  <si>
+    <t>South Julietview</t>
+  </si>
+  <si>
+    <t>71467-2676</t>
+  </si>
+  <si>
+    <t>37149</t>
+  </si>
+  <si>
+    <t>Kori</t>
+  </si>
+  <si>
+    <t>WER007277</t>
   </si>
 </sst>
 </file>
@@ -2594,17 +2621,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2658,8 +2688,44 @@
       </c>
     </row>
     <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="262">
   <si>
     <t>UserName</t>
   </si>
@@ -783,12 +783,49 @@
   </si>
   <si>
     <t>WER007277</t>
+  </si>
+  <si>
+    <t>Automation portfolio 4279454</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>20993</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>404 O'Connell Oval</t>
+  </si>
+  <si>
+    <t>West Fidelamouth</t>
+  </si>
+  <si>
+    <t>95416-6481</t>
+  </si>
+  <si>
+    <t>WELLP07281</t>
+  </si>
+  <si>
+    <t>Concha</t>
+  </si>
+  <si>
+    <t>mack.gusikowski@yahoo.com</t>
+  </si>
+  <si>
+    <t>3109768520</t>
+  </si>
+  <si>
+    <t>Julianne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1142,8 +1179,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1206,51 +1243,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="62.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="62.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1658,35 +1695,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.62890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.23828125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.93359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.14453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.8515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.74609375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.41015625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.56640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -1881,16 +1918,16 @@
     </row>
     <row r="3" spans="1:31" ht="30">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1899,34 +1936,34 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
@@ -1990,18 +2027,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2098,21 +2135,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2231,26 +2268,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="41.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -2422,27 +2459,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2621,20 +2658,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2752,20 +2789,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WellFrontendTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4371-6D70-469A-ADF6-C3D5ED3E34CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572CB26-1044-418C-A4AF-00C6304E06DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="251">
   <si>
     <t>UserName</t>
   </si>
@@ -758,38 +758,41 @@
     <t>WERlocationsize</t>
   </si>
   <si>
-    <t>Theater</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Automation WER Project5863780</t>
-  </si>
-  <si>
-    <t>6475 Kassulke Burg</t>
-  </si>
-  <si>
-    <t>South Julietview</t>
-  </si>
-  <si>
-    <t>71467-2676</t>
-  </si>
-  <si>
-    <t>37149</t>
-  </si>
-  <si>
-    <t>Kori</t>
-  </si>
-  <si>
-    <t>WER007277</t>
+    <t>Automation WER Project4296902</t>
+  </si>
+  <si>
+    <t>Post Secondary Education</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>079 Skiles Springs</t>
+  </si>
+  <si>
+    <t>New Chanelle</t>
+  </si>
+  <si>
+    <t>33687</t>
+  </si>
+  <si>
+    <t>19486</t>
+  </si>
+  <si>
+    <t>Adelle</t>
+  </si>
+  <si>
+    <t>WER007280</t>
+  </si>
+  <si>
+    <t>Ui (welluiautomationtesting@gmail.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +819,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -838,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -853,6 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2416,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328ECB3-CDE0-459F-815E-F1AAB0123146}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2613,31 +2624,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF52901-90FE-455B-BEA8-FC50D01098D5}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.57031